--- a/DOC/FLOP_Calculations.xlsx
+++ b/DOC/FLOP_Calculations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-6960" yWindow="-18580" windowWidth="48460" windowHeight="17640" tabRatio="500"/>
+    <workbookView xWindow="-6960" yWindow="-18580" windowWidth="48460" windowHeight="17640" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CNN" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="63">
   <si>
     <t>X</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>account for broadcast ROI</t>
+  </si>
+  <si>
+    <t>% fanin</t>
   </si>
 </sst>
 </file>
@@ -445,7 +448,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="137">
+  <cellStyleXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -583,8 +586,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -675,6 +684,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -696,11 +708,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="137">
+  <cellStyles count="143">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -769,6 +781,9 @@
     <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -837,6 +852,9 @@
     <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1168,7 +1186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:Y42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N24" workbookViewId="0">
+    <sheetView topLeftCell="M3" workbookViewId="0">
       <selection activeCell="X40" sqref="X40"/>
     </sheetView>
   </sheetViews>
@@ -1184,12 +1202,12 @@
       <c r="O4" s="1">
         <v>32</v>
       </c>
-      <c r="Q4" s="32" t="s">
+      <c r="Q4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="33"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="35"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="36"/>
       <c r="U4" s="3"/>
     </row>
     <row r="5" spans="4:25" ht="30">
@@ -2350,7 +2368,7 @@
         <v>21</v>
       </c>
       <c r="V40" s="15"/>
-      <c r="W40" s="39">
+      <c r="W40" s="32">
         <f>W38*32/U39*X40</f>
         <v>26301542850000</v>
       </c>
@@ -2387,10 +2405,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:AI42"/>
+  <dimension ref="D4:AJ42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AC26" sqref="AC26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2405,22 +2423,23 @@
     <col min="25" max="26" width="10.83203125" style="1"/>
     <col min="27" max="27" width="11.83203125" style="28" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10.83203125" style="1"/>
-    <col min="29" max="29" width="70.6640625" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="10.83203125" style="1"/>
+    <col min="29" max="29" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="70.6640625" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:35">
-      <c r="M4" s="36" t="s">
+    <row r="4" spans="4:36">
+      <c r="M4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="37"/>
-      <c r="O4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="39"/>
       <c r="P4" s="3"/>
       <c r="V4" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="4:35" ht="30">
+    <row r="5" spans="4:36" ht="30">
       <c r="E5" s="12" t="s">
         <v>0</v>
       </c>
@@ -2484,11 +2503,14 @@
       <c r="AB5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AC5" s="31" t="s">
+      <c r="AC5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD5" s="31" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="4:35">
+    <row r="6" spans="4:36">
       <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
@@ -2513,7 +2535,7 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="9"/>
     </row>
-    <row r="7" spans="4:35">
+    <row r="7" spans="4:36">
       <c r="D7" s="9"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
@@ -2527,7 +2549,7 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="9"/>
     </row>
-    <row r="8" spans="4:35">
+    <row r="8" spans="4:36">
       <c r="D8" s="9" t="s">
         <v>13</v>
       </c>
@@ -2609,8 +2631,12 @@
       <c r="AB8" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="4:35">
+      <c r="AC8" s="40">
+        <f>L8/$L$28</f>
+        <v>0.37590091955927429</v>
+      </c>
+    </row>
+    <row r="9" spans="4:36">
       <c r="D9" s="9"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
@@ -2627,7 +2653,7 @@
       <c r="S9" s="15"/>
       <c r="T9" s="15"/>
     </row>
-    <row r="10" spans="4:35">
+    <row r="10" spans="4:36">
       <c r="D10" s="9" t="s">
         <v>11</v>
       </c>
@@ -2691,7 +2717,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="11" spans="4:35">
+    <row r="11" spans="4:36">
       <c r="D11" s="9"/>
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
@@ -2708,7 +2734,7 @@
       <c r="S11" s="15"/>
       <c r="T11" s="15"/>
     </row>
-    <row r="12" spans="4:35">
+    <row r="12" spans="4:36">
       <c r="D12" s="9" t="s">
         <v>13</v>
       </c>
@@ -2790,11 +2816,15 @@
       <c r="AB12" s="1">
         <v>30</v>
       </c>
-      <c r="AI12" s="1">
+      <c r="AC12" s="40">
+        <f>L12/$L$28</f>
+        <v>0.24157070665230718</v>
+      </c>
+      <c r="AJ12" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:35">
+    <row r="13" spans="4:36">
       <c r="D13" s="9"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
@@ -2811,7 +2841,7 @@
       <c r="S13" s="15"/>
       <c r="T13" s="15"/>
     </row>
-    <row r="14" spans="4:35">
+    <row r="14" spans="4:36">
       <c r="D14" s="9" t="s">
         <v>14</v>
       </c>
@@ -2875,7 +2905,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="15" spans="4:35">
+    <row r="15" spans="4:36">
       <c r="D15" s="9"/>
       <c r="E15" s="2"/>
       <c r="F15" s="3"/>
@@ -2892,7 +2922,7 @@
       <c r="S15" s="15"/>
       <c r="T15" s="15"/>
     </row>
-    <row r="16" spans="4:35">
+    <row r="16" spans="4:36">
       <c r="D16" s="9" t="s">
         <v>13</v>
       </c>
@@ -2974,8 +3004,12 @@
       <c r="AB16" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="4:29">
+      <c r="AC16" s="40">
+        <f>L16/$L$28</f>
+        <v>8.4002982354403122E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="4:30">
       <c r="D17" s="9"/>
       <c r="E17" s="2"/>
       <c r="F17" s="3"/>
@@ -2992,7 +3026,7 @@
       <c r="S17" s="15"/>
       <c r="T17" s="15"/>
     </row>
-    <row r="18" spans="4:29">
+    <row r="18" spans="4:30">
       <c r="D18" s="9" t="s">
         <v>13</v>
       </c>
@@ -3074,8 +3108,12 @@
       <c r="AB18" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="4:29">
+      <c r="AC18" s="40">
+        <f>L18/$L$28</f>
+        <v>8.4002982354403122E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="4:30">
       <c r="D19" s="9"/>
       <c r="E19" s="2"/>
       <c r="F19" s="3"/>
@@ -3092,7 +3130,7 @@
       <c r="S19" s="15"/>
       <c r="T19" s="15"/>
     </row>
-    <row r="20" spans="4:29">
+    <row r="20" spans="4:30">
       <c r="D20" s="9" t="s">
         <v>13</v>
       </c>
@@ -3174,8 +3212,12 @@
       <c r="AB20" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="4:29">
+      <c r="AC20" s="40">
+        <f>L20/$L$28</f>
+        <v>5.6001988236268743E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="4:30">
       <c r="D21" s="9"/>
       <c r="E21" s="2"/>
       <c r="F21" s="3"/>
@@ -3192,7 +3234,7 @@
       <c r="S21" s="15"/>
       <c r="T21" s="15"/>
     </row>
-    <row r="22" spans="4:29">
+    <row r="22" spans="4:30">
       <c r="D22" s="9" t="s">
         <v>15</v>
       </c>
@@ -3270,8 +3312,12 @@
       <c r="AB22" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="4:29">
+      <c r="AC22" s="40">
+        <f>L22/$L$28</f>
+        <v>5.3019633833153836E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="4:30">
       <c r="D23" s="9"/>
       <c r="E23" s="2"/>
       <c r="F23" s="3"/>
@@ -3288,7 +3334,7 @@
       <c r="S23" s="15"/>
       <c r="T23" s="15"/>
     </row>
-    <row r="24" spans="4:29">
+    <row r="24" spans="4:30">
       <c r="D24" s="9" t="s">
         <v>15</v>
       </c>
@@ -3366,11 +3412,15 @@
       <c r="AB24" s="1">
         <v>31</v>
       </c>
-      <c r="AC24" s="30" t="s">
+      <c r="AC24" s="40">
+        <f>L24/$L$28</f>
+        <v>5.3019633833153836E-3</v>
+      </c>
+      <c r="AD24" s="30" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="4:29">
+    <row r="25" spans="4:30">
       <c r="D25" s="9"/>
       <c r="E25" s="2"/>
       <c r="F25" s="3"/>
@@ -3387,7 +3437,7 @@
       <c r="S25" s="15"/>
       <c r="T25" s="15"/>
     </row>
-    <row r="26" spans="4:29">
+    <row r="26" spans="4:30">
       <c r="D26" s="10" t="s">
         <v>15</v>
       </c>
@@ -3465,11 +3515,15 @@
       <c r="AB26" s="1">
         <v>30</v>
       </c>
-      <c r="AC26" s="30" t="s">
+      <c r="AC26" s="40">
+        <f>L26/$L$28</f>
+        <v>1.3254908458288459E-3</v>
+      </c>
+      <c r="AD26" s="30" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="4:29">
+    <row r="27" spans="4:30">
       <c r="Q27" s="15"/>
       <c r="R27" s="15"/>
       <c r="S27" s="15"/>
@@ -3489,8 +3543,12 @@
         <f>AVERAGE(AB8:AB26)</f>
         <v>29.625</v>
       </c>
-    </row>
-    <row r="28" spans="4:29" ht="30">
+      <c r="AC27" s="29">
+        <f>AC8*Z8+AC12*Z12+AC16*Z16+AC18*Z18+AC20*Z20+AC22*Z22+AC24*Z24+AC26*Z26</f>
+        <v>1650.1519758097922</v>
+      </c>
+    </row>
+    <row r="28" spans="4:30" ht="30">
       <c r="L28" s="1">
         <f>SUM(L8:L26)</f>
         <v>772544</v>
@@ -3517,7 +3575,7 @@
         <v>772544</v>
       </c>
     </row>
-    <row r="29" spans="4:29">
+    <row r="29" spans="4:30">
       <c r="L29" s="1" t="s">
         <v>23</v>
       </c>
@@ -3532,18 +3590,18 @@
       <c r="Q29" s="15"/>
       <c r="R29" s="15"/>
     </row>
-    <row r="30" spans="4:29">
+    <row r="30" spans="4:30">
       <c r="Q30" s="15"/>
       <c r="R30" s="15"/>
       <c r="S30" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="4:29">
+    <row r="31" spans="4:30">
       <c r="Q31" s="15"/>
       <c r="R31" s="15"/>
     </row>
-    <row r="32" spans="4:29">
+    <row r="32" spans="4:30">
       <c r="Q32" s="15"/>
       <c r="R32" s="15"/>
     </row>
@@ -3654,11 +3712,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:19">
-      <c r="M4" s="36" t="s">
+      <c r="M4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="37"/>
-      <c r="O4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="39"/>
       <c r="P4" s="3"/>
     </row>
     <row r="5" spans="4:19" ht="30">
@@ -4551,7 +4609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:L18"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>

--- a/DOC/FLOP_Calculations.xlsx
+++ b/DOC/FLOP_Calculations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-6960" yWindow="-18580" windowWidth="48460" windowHeight="17640" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="47100" windowHeight="22420" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CNN" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="64">
   <si>
     <t>X</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>% fanin</t>
+  </si>
+  <si>
+    <t>Weight for DNN</t>
   </si>
 </sst>
 </file>
@@ -223,7 +226,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -687,6 +689,9 @@
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -706,9 +711,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1186,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:Y42"/>
   <sheetViews>
-    <sheetView topLeftCell="M3" workbookViewId="0">
-      <selection activeCell="X40" sqref="X40"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="Y38" sqref="Y38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1202,12 +1204,12 @@
       <c r="O4" s="1">
         <v>32</v>
       </c>
-      <c r="Q4" s="33" t="s">
+      <c r="Q4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="34"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="36"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="37"/>
       <c r="U4" s="3"/>
     </row>
     <row r="5" spans="4:25" ht="30">
@@ -2408,7 +2410,7 @@
   <dimension ref="D4:AJ42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X28" sqref="X28"/>
+      <selection activeCell="Z37" sqref="Z37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2419,7 +2421,7 @@
     <col min="19" max="19" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.6640625" style="1" customWidth="1"/>
     <col min="21" max="23" width="10.83203125" style="1"/>
-    <col min="24" max="24" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.33203125" style="15" bestFit="1" customWidth="1"/>
     <col min="25" max="26" width="10.83203125" style="1"/>
     <col min="27" max="27" width="11.83203125" style="28" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10.83203125" style="1"/>
@@ -2429,11 +2431,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:36">
-      <c r="M4" s="37" t="s">
+      <c r="M4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="38"/>
-      <c r="O4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="40"/>
       <c r="P4" s="3"/>
       <c r="V4" s="1" t="s">
         <v>51</v>
@@ -2481,6 +2483,9 @@
       </c>
       <c r="S5" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>50</v>
@@ -2612,7 +2617,7 @@
         <f>I8*J8*G6</f>
         <v>363</v>
       </c>
-      <c r="X8" s="1">
+      <c r="X8" s="15">
         <f>L8*W8</f>
         <v>105415200</v>
       </c>
@@ -2631,7 +2636,7 @@
       <c r="AB8" s="1">
         <v>25</v>
       </c>
-      <c r="AC8" s="40">
+      <c r="AC8" s="33">
         <f>L8/$L$28</f>
         <v>0.37590091955927429</v>
       </c>
@@ -2797,7 +2802,7 @@
         <f>I12*J12*G10</f>
         <v>2400</v>
       </c>
-      <c r="X12" s="1">
+      <c r="X12" s="15">
         <f>L12*W12</f>
         <v>447897600</v>
       </c>
@@ -2816,7 +2821,7 @@
       <c r="AB12" s="1">
         <v>30</v>
       </c>
-      <c r="AC12" s="40">
+      <c r="AC12" s="33">
         <f>L12/$L$28</f>
         <v>0.24157070665230718</v>
       </c>
@@ -2985,7 +2990,7 @@
         <f>I16*J16*G14</f>
         <v>2304</v>
       </c>
-      <c r="X16" s="1">
+      <c r="X16" s="15">
         <f>L16*W16</f>
         <v>149520384</v>
       </c>
@@ -3004,7 +3009,7 @@
       <c r="AB16" s="1">
         <v>30</v>
       </c>
-      <c r="AC16" s="40">
+      <c r="AC16" s="33">
         <f>L16/$L$28</f>
         <v>8.4002982354403122E-2</v>
       </c>
@@ -3089,7 +3094,7 @@
         <f>I18*J18*G16</f>
         <v>3456</v>
       </c>
-      <c r="X18" s="1">
+      <c r="X18" s="15">
         <f>L18*W18</f>
         <v>224280576</v>
       </c>
@@ -3108,7 +3113,7 @@
       <c r="AB18" s="1">
         <v>30</v>
       </c>
-      <c r="AC18" s="40">
+      <c r="AC18" s="33">
         <f>L18/$L$28</f>
         <v>8.4002982354403122E-2</v>
       </c>
@@ -3193,7 +3198,7 @@
         <f>I20*J20*G18</f>
         <v>3456</v>
       </c>
-      <c r="X20" s="1">
+      <c r="X20" s="15">
         <f>L20*W20</f>
         <v>149520384</v>
       </c>
@@ -3212,7 +3217,7 @@
       <c r="AB20" s="1">
         <v>30</v>
       </c>
-      <c r="AC20" s="40">
+      <c r="AC20" s="33">
         <f>L20/$L$28</f>
         <v>5.6001988236268743E-2</v>
       </c>
@@ -3293,7 +3298,7 @@
         <f>I22*J22*G20</f>
         <v>43264</v>
       </c>
-      <c r="X22" s="1">
+      <c r="X22" s="15">
         <f>L22*W22</f>
         <v>177209344</v>
       </c>
@@ -3312,7 +3317,7 @@
       <c r="AB22" s="1">
         <v>31</v>
       </c>
-      <c r="AC22" s="40">
+      <c r="AC22" s="33">
         <f>L22/$L$28</f>
         <v>5.3019633833153836E-3</v>
       </c>
@@ -3393,7 +3398,7 @@
         <f>G22</f>
         <v>4096</v>
       </c>
-      <c r="X24" s="1">
+      <c r="X24" s="15">
         <f>L24*W24</f>
         <v>16777216</v>
       </c>
@@ -3412,7 +3417,7 @@
       <c r="AB24" s="1">
         <v>31</v>
       </c>
-      <c r="AC24" s="40">
+      <c r="AC24" s="33">
         <f>L24/$L$28</f>
         <v>5.3019633833153836E-3</v>
       </c>
@@ -3496,7 +3501,7 @@
         <f>G24</f>
         <v>4096</v>
       </c>
-      <c r="X26" s="1">
+      <c r="X26" s="15">
         <f>L26*W26</f>
         <v>4194304</v>
       </c>
@@ -3515,7 +3520,7 @@
       <c r="AB26" s="1">
         <v>30</v>
       </c>
-      <c r="AC26" s="40">
+      <c r="AC26" s="33">
         <f>L26/$L$28</f>
         <v>1.3254908458288459E-3</v>
       </c>
@@ -3527,7 +3532,7 @@
       <c r="Q27" s="15"/>
       <c r="R27" s="15"/>
       <c r="S27" s="15"/>
-      <c r="X27" s="1">
+      <c r="X27" s="15">
         <f>SUM(X8:X26)</f>
         <v>1274815008</v>
       </c>
@@ -3566,7 +3571,7 @@
       <c r="W28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="X28" s="1">
+      <c r="X28" s="15">
         <f>X27/SUM(L8:L26)</f>
         <v>1650.151975809792</v>
       </c>
@@ -3712,11 +3717,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:19">
-      <c r="M4" s="37" t="s">
+      <c r="M4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="38"/>
-      <c r="O4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="40"/>
       <c r="P4" s="3"/>
     </row>
     <row r="5" spans="4:19" ht="30">

--- a/DOC/FLOP_Calculations.xlsx
+++ b/DOC/FLOP_Calculations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="47100" windowHeight="22420" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CNN" sheetId="2" r:id="rId1"/>
@@ -12,6 +12,9 @@
     <sheet name="CNN tmp" sheetId="3" r:id="rId3"/>
     <sheet name="XU" sheetId="4" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -22,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="72">
   <si>
     <t>X</t>
   </si>
@@ -214,6 +217,30 @@
   </si>
   <si>
     <t>Weight for DNN</t>
+  </si>
+  <si>
+    <t>% operations</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>CONV-300</t>
+  </si>
+  <si>
+    <t>CONV-1000</t>
+  </si>
+  <si>
+    <t>FC-7</t>
+  </si>
+  <si>
+    <t>CONV2</t>
+  </si>
+  <si>
+    <t>CONV-294</t>
+  </si>
+  <si>
+    <t>Expected Bandwidth</t>
   </si>
 </sst>
 </file>
@@ -450,7 +477,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="143">
+  <cellStyleXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -594,8 +621,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -692,6 +741,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -714,7 +766,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="143">
+  <cellStyles count="165">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -786,6 +838,17 @@
     <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -857,11 +920,168 @@
     <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="PE"/>
+      <sheetName val="Manager"/>
+      <sheetName val="DRAM"/>
+      <sheetName val="Summary"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>CONV2</v>
+          </cell>
+          <cell r="B16">
+            <v>0.65</v>
+          </cell>
+          <cell r="C16">
+            <v>21.9648</v>
+          </cell>
+          <cell r="D16">
+            <v>59.63776</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>CONV-294</v>
+          </cell>
+          <cell r="B17">
+            <v>0.67</v>
+          </cell>
+          <cell r="C17">
+            <v>22.640640000000001</v>
+          </cell>
+          <cell r="D17">
+            <v>61.472768000000002</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>CONV-300</v>
+          </cell>
+          <cell r="B18">
+            <v>0.73</v>
+          </cell>
+          <cell r="C18">
+            <v>24.66816</v>
+          </cell>
+          <cell r="D18">
+            <v>66.977791999999994</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>FC-350</v>
+          </cell>
+          <cell r="B19">
+            <v>0.78</v>
+          </cell>
+          <cell r="C19">
+            <v>26.357760000000003</v>
+          </cell>
+          <cell r="D19">
+            <v>71.565312000000006</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>FC-500</v>
+          </cell>
+          <cell r="B20">
+            <v>0.84</v>
+          </cell>
+          <cell r="C20">
+            <v>28.385280000000002</v>
+          </cell>
+          <cell r="D20">
+            <v>77.070335999999998</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>FC-7</v>
+          </cell>
+          <cell r="B21">
+            <v>0.94</v>
+          </cell>
+          <cell r="C21">
+            <v>31.764479999999999</v>
+          </cell>
+          <cell r="D21">
+            <v>86.245375999999993</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>CONV-500</v>
+          </cell>
+          <cell r="B22">
+            <v>0.82</v>
+          </cell>
+          <cell r="C22">
+            <v>27.709440000000001</v>
+          </cell>
+          <cell r="D22">
+            <v>75.235327999999996</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>CONV-1000</v>
+          </cell>
+          <cell r="B23">
+            <v>0.89</v>
+          </cell>
+          <cell r="C23">
+            <v>30.07488</v>
+          </cell>
+          <cell r="D23">
+            <v>81.657855999999995</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>FC-1000</v>
+          </cell>
+          <cell r="B24">
+            <v>0.91</v>
+          </cell>
+          <cell r="C24">
+            <v>30.750720000000001</v>
+          </cell>
+          <cell r="D24">
+            <v>83.492863999999997</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1204,12 +1424,12 @@
       <c r="O4" s="1">
         <v>32</v>
       </c>
-      <c r="Q4" s="34" t="s">
+      <c r="Q4" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="35"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="37"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="38"/>
       <c r="U4" s="3"/>
     </row>
     <row r="5" spans="4:25" ht="30">
@@ -2407,10 +2627,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:AJ42"/>
+  <dimension ref="D4:AM42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z37" sqref="Z37"/>
+    <sheetView tabSelected="1" topLeftCell="E20" workbookViewId="0">
+      <selection activeCell="AF30" sqref="AF30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2422,26 +2642,29 @@
     <col min="20" max="20" width="14.6640625" style="1" customWidth="1"/>
     <col min="21" max="23" width="10.83203125" style="1"/>
     <col min="24" max="24" width="11.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="10.83203125" style="1"/>
-    <col min="27" max="27" width="11.83203125" style="28" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.83203125" style="1"/>
-    <col min="29" max="29" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="70.6640625" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.83203125" style="1"/>
+    <col min="25" max="25" width="10.83203125" style="1"/>
+    <col min="26" max="26" width="10.83203125" style="33"/>
+    <col min="27" max="28" width="10.83203125" style="1"/>
+    <col min="29" max="29" width="11.83203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.83203125" style="1"/>
+    <col min="31" max="31" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.83203125" style="22" customWidth="1"/>
+    <col min="33" max="33" width="70.6640625" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:36">
-      <c r="M4" s="38" t="s">
+    <row r="4" spans="4:39">
+      <c r="M4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="39"/>
-      <c r="O4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="41"/>
       <c r="P4" s="3"/>
       <c r="V4" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="4:36" ht="30">
+    <row r="5" spans="4:39" ht="30">
       <c r="E5" s="12" t="s">
         <v>0</v>
       </c>
@@ -2499,23 +2722,29 @@
       <c r="Y5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="Z5" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AA5" s="28" t="s">
+      <c r="AB5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC5" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AD5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AE5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AD5" s="31" t="s">
+      <c r="AG5" s="31" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="4:36">
+    <row r="6" spans="4:39">
       <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
@@ -2540,7 +2769,7 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="9"/>
     </row>
-    <row r="7" spans="4:36">
+    <row r="7" spans="4:39">
       <c r="D7" s="9"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
@@ -2554,7 +2783,7 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="9"/>
     </row>
-    <row r="8" spans="4:36">
+    <row r="8" spans="4:39">
       <c r="D8" s="9" t="s">
         <v>13</v>
       </c>
@@ -2625,23 +2854,35 @@
         <f>E8*F8*G8/32</f>
         <v>9075</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="Z8" s="33">
+        <f>Y8/$Y$27</f>
+        <v>0.44046983449012278</v>
+      </c>
+      <c r="AA8" s="1">
         <f>I8*J8*G6</f>
         <v>363</v>
       </c>
-      <c r="AA8" s="28">
+      <c r="AB8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC8" s="28">
         <f>Y8/$Y$27</f>
         <v>0.44046983449012278</v>
       </c>
-      <c r="AB8" s="1">
-        <v>25</v>
-      </c>
-      <c r="AC8" s="33">
+      <c r="AD8" s="1">
+        <f>VLOOKUP(AB8,[1]Summary!$A$16:$D$24,3,FALSE)</f>
+        <v>24.66816</v>
+      </c>
+      <c r="AE8" s="33">
         <f>L8/$L$28</f>
         <v>0.37590091955927429</v>
       </c>
-    </row>
-    <row r="9" spans="4:36">
+      <c r="AF8" s="22">
+        <f>AD8*Z8</f>
+        <v>10.865580352375867</v>
+      </c>
+    </row>
+    <row r="9" spans="4:39">
       <c r="D9" s="9"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
@@ -2658,7 +2899,7 @@
       <c r="S9" s="15"/>
       <c r="T9" s="15"/>
     </row>
-    <row r="10" spans="4:36">
+    <row r="10" spans="4:39">
       <c r="D10" s="9" t="s">
         <v>11</v>
       </c>
@@ -2717,12 +2958,36 @@
       <c r="W10" s="1">
         <v>4</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="X10" s="15">
+        <f>L10*W10</f>
+        <v>279936</v>
+      </c>
+      <c r="Y10" s="1">
+        <f>E10*F10*G10/32</f>
+        <v>2187</v>
+      </c>
+      <c r="AA10" s="1">
         <f>I10*J10*G8</f>
         <v>384</v>
       </c>
-    </row>
-    <row r="11" spans="4:36">
+      <c r="AB10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC10" s="28">
+        <f>Y10/$Y$27</f>
+        <v>0.10614958986555356</v>
+      </c>
+      <c r="AD10" s="1">
+        <f>VLOOKUP(AB10,[1]Summary!$A$16:$D$24,3,FALSE)</f>
+        <v>24.66816</v>
+      </c>
+      <c r="AE10" s="33"/>
+      <c r="AF10" s="22">
+        <f>AD10*AE10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="4:39">
       <c r="D11" s="9"/>
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
@@ -2739,7 +3004,7 @@
       <c r="S11" s="15"/>
       <c r="T11" s="15"/>
     </row>
-    <row r="12" spans="4:36">
+    <row r="12" spans="4:39">
       <c r="D12" s="9" t="s">
         <v>13</v>
       </c>
@@ -2810,26 +3075,38 @@
         <f>E12*F12*G12/32</f>
         <v>5832</v>
       </c>
-      <c r="Z12" s="1">
+      <c r="Z12" s="33">
+        <f>Y12/$Y$27</f>
+        <v>0.2830655729748095</v>
+      </c>
+      <c r="AA12" s="1">
         <f>I12*J12*G10</f>
         <v>2400</v>
       </c>
-      <c r="AA12" s="28">
+      <c r="AB12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC12" s="28">
         <f>Y12/$Y$27</f>
         <v>0.2830655729748095</v>
       </c>
-      <c r="AB12" s="1">
-        <v>30</v>
-      </c>
-      <c r="AC12" s="33">
+      <c r="AD12" s="1">
+        <f>VLOOKUP(AB12,[1]Summary!$A$16:$D$24,3,FALSE)</f>
+        <v>30.07488</v>
+      </c>
+      <c r="AE12" s="33">
         <f>L12/$L$28</f>
         <v>0.24157070665230718</v>
       </c>
-      <c r="AJ12" s="1">
+      <c r="AF12" s="22">
+        <f>AD12*Z12</f>
+        <v>8.513163139348638</v>
+      </c>
+      <c r="AM12" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:36">
+    <row r="13" spans="4:39">
       <c r="D13" s="9"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
@@ -2846,7 +3123,7 @@
       <c r="S13" s="15"/>
       <c r="T13" s="15"/>
     </row>
-    <row r="14" spans="4:36">
+    <row r="14" spans="4:39">
       <c r="D14" s="9" t="s">
         <v>14</v>
       </c>
@@ -2905,12 +3182,35 @@
       <c r="W14" s="1">
         <v>4</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="X14" s="15">
+        <f>L14*W14</f>
+        <v>173056</v>
+      </c>
+      <c r="Y14" s="1">
+        <f>E14*F14*G14/32</f>
+        <v>1352</v>
+      </c>
+      <c r="AA14" s="1">
         <f>I14*J14*G12</f>
         <v>1024</v>
       </c>
-    </row>
-    <row r="15" spans="4:36">
+      <c r="AB14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC14" s="28">
+        <f>Y14/$Y$27</f>
+        <v>6.5621511430374216E-2</v>
+      </c>
+      <c r="AD14" s="1">
+        <f>VLOOKUP(AB14,[1]Summary!$A$16:$D$24,3,FALSE)</f>
+        <v>30.07488</v>
+      </c>
+      <c r="AE14" s="33">
+        <f>L14/$L$28</f>
+        <v>5.6001988236268743E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="4:39">
       <c r="D15" s="9"/>
       <c r="E15" s="2"/>
       <c r="F15" s="3"/>
@@ -2927,7 +3227,7 @@
       <c r="S15" s="15"/>
       <c r="T15" s="15"/>
     </row>
-    <row r="16" spans="4:36">
+    <row r="16" spans="4:39">
       <c r="D16" s="9" t="s">
         <v>13</v>
       </c>
@@ -2998,23 +3298,35 @@
         <f>E16*F16*G16/32</f>
         <v>2028</v>
       </c>
-      <c r="Z16" s="1">
+      <c r="Z16" s="33">
+        <f>Y16/$Y$27</f>
+        <v>9.8432267145561331E-2</v>
+      </c>
+      <c r="AA16" s="1">
         <f>I16*J16*G14</f>
         <v>2304</v>
       </c>
-      <c r="AA16" s="28">
+      <c r="AB16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC16" s="28">
         <f>Y16/$Y$27</f>
         <v>9.8432267145561331E-2</v>
       </c>
-      <c r="AB16" s="1">
-        <v>30</v>
-      </c>
-      <c r="AC16" s="33">
+      <c r="AD16" s="1">
+        <f>VLOOKUP(AB16,[1]Summary!$A$16:$D$24,3,FALSE)</f>
+        <v>30.07488</v>
+      </c>
+      <c r="AE16" s="33">
         <f>L16/$L$28</f>
         <v>8.4002982354403122E-2</v>
       </c>
-    </row>
-    <row r="17" spans="4:30">
+      <c r="AF16" s="22">
+        <f>AD16*Z16</f>
+        <v>2.9603386225306996</v>
+      </c>
+    </row>
+    <row r="17" spans="4:33">
       <c r="D17" s="9"/>
       <c r="E17" s="2"/>
       <c r="F17" s="3"/>
@@ -3031,7 +3343,7 @@
       <c r="S17" s="15"/>
       <c r="T17" s="15"/>
     </row>
-    <row r="18" spans="4:30">
+    <row r="18" spans="4:33">
       <c r="D18" s="9" t="s">
         <v>13</v>
       </c>
@@ -3102,23 +3414,35 @@
         <f>E18*F18*G18/32</f>
         <v>2028</v>
       </c>
-      <c r="Z18" s="1">
+      <c r="Z18" s="33">
+        <f>Y18/$Y$27</f>
+        <v>9.8432267145561331E-2</v>
+      </c>
+      <c r="AA18" s="1">
         <f>I18*J18*G16</f>
         <v>3456</v>
       </c>
-      <c r="AA18" s="28">
+      <c r="AB18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC18" s="28">
         <f>Y18/$Y$27</f>
         <v>9.8432267145561331E-2</v>
       </c>
-      <c r="AB18" s="1">
-        <v>30</v>
-      </c>
-      <c r="AC18" s="33">
+      <c r="AD18" s="1">
+        <f>VLOOKUP(AB18,[1]Summary!$A$16:$D$24,3,FALSE)</f>
+        <v>30.07488</v>
+      </c>
+      <c r="AE18" s="33">
         <f>L18/$L$28</f>
         <v>8.4002982354403122E-2</v>
       </c>
-    </row>
-    <row r="19" spans="4:30">
+      <c r="AF18" s="22">
+        <f>AD18*Z18</f>
+        <v>2.9603386225306996</v>
+      </c>
+    </row>
+    <row r="19" spans="4:33">
       <c r="D19" s="9"/>
       <c r="E19" s="2"/>
       <c r="F19" s="3"/>
@@ -3135,7 +3459,7 @@
       <c r="S19" s="15"/>
       <c r="T19" s="15"/>
     </row>
-    <row r="20" spans="4:30">
+    <row r="20" spans="4:33">
       <c r="D20" s="9" t="s">
         <v>13</v>
       </c>
@@ -3206,23 +3530,35 @@
         <f>E20*F20*G20/32</f>
         <v>1352</v>
       </c>
-      <c r="Z20" s="1">
+      <c r="Z20" s="33">
+        <f>Y20/$Y$27</f>
+        <v>6.5621511430374216E-2</v>
+      </c>
+      <c r="AA20" s="1">
         <f>I20*J20*G18</f>
         <v>3456</v>
       </c>
-      <c r="AA20" s="28">
+      <c r="AB20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC20" s="28">
         <f>Y20/$Y$27</f>
         <v>6.5621511430374216E-2</v>
       </c>
-      <c r="AB20" s="1">
-        <v>30</v>
-      </c>
-      <c r="AC20" s="33">
+      <c r="AD20" s="1">
+        <f>VLOOKUP(AB20,[1]Summary!$A$16:$D$24,3,FALSE)</f>
+        <v>30.07488</v>
+      </c>
+      <c r="AE20" s="33">
         <f>L20/$L$28</f>
         <v>5.6001988236268743E-2</v>
       </c>
-    </row>
-    <row r="21" spans="4:30">
+      <c r="AF20" s="22">
+        <f>AD20*Z20</f>
+        <v>1.9735590816871329</v>
+      </c>
+    </row>
+    <row r="21" spans="4:33">
       <c r="D21" s="9"/>
       <c r="E21" s="2"/>
       <c r="F21" s="3"/>
@@ -3239,7 +3575,7 @@
       <c r="S21" s="15"/>
       <c r="T21" s="15"/>
     </row>
-    <row r="22" spans="4:30">
+    <row r="22" spans="4:33">
       <c r="D22" s="9" t="s">
         <v>15</v>
       </c>
@@ -3306,23 +3642,35 @@
         <f>E22*F22*G22/32</f>
         <v>128</v>
       </c>
-      <c r="Z22" s="1">
+      <c r="Z22" s="33">
+        <f>Y22/$Y$27</f>
+        <v>6.2126874726981512E-3</v>
+      </c>
+      <c r="AA22" s="1">
         <f>I22*J22*G20</f>
         <v>43264</v>
       </c>
-      <c r="AA22" s="28">
+      <c r="AB22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC22" s="28">
         <f>Y22/$Y$27</f>
         <v>6.2126874726981512E-3</v>
       </c>
-      <c r="AB22" s="1">
-        <v>31</v>
-      </c>
-      <c r="AC22" s="33">
+      <c r="AD22" s="1">
+        <f>VLOOKUP(AB22,[1]Summary!$A$16:$D$24,3,FALSE)</f>
+        <v>31.764479999999999</v>
+      </c>
+      <c r="AE22" s="33">
         <f>L22/$L$28</f>
         <v>5.3019633833153836E-3</v>
       </c>
-    </row>
-    <row r="23" spans="4:30">
+      <c r="AF22" s="22">
+        <f>AD22*Z22</f>
+        <v>0.19734278697277097</v>
+      </c>
+    </row>
+    <row r="23" spans="4:33">
       <c r="D23" s="9"/>
       <c r="E23" s="2"/>
       <c r="F23" s="3"/>
@@ -3339,7 +3687,7 @@
       <c r="S23" s="15"/>
       <c r="T23" s="15"/>
     </row>
-    <row r="24" spans="4:30">
+    <row r="24" spans="4:33">
       <c r="D24" s="9" t="s">
         <v>15</v>
       </c>
@@ -3406,26 +3754,38 @@
         <f>E24*F24*G24/32</f>
         <v>128</v>
       </c>
-      <c r="Z24" s="1">
+      <c r="Z24" s="33">
+        <f>Y24/$Y$27</f>
+        <v>6.2126874726981512E-3</v>
+      </c>
+      <c r="AA24" s="1">
         <f>J24*G22</f>
         <v>4096</v>
       </c>
-      <c r="AA24" s="28">
+      <c r="AB24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC24" s="28">
         <f>Y24/$Y$27</f>
         <v>6.2126874726981512E-3</v>
       </c>
-      <c r="AB24" s="1">
-        <v>31</v>
-      </c>
-      <c r="AC24" s="33">
+      <c r="AD24" s="1">
+        <f>VLOOKUP(AB24,[1]Summary!$A$16:$D$24,3,FALSE)</f>
+        <v>31.764479999999999</v>
+      </c>
+      <c r="AE24" s="33">
         <f>L24/$L$28</f>
         <v>5.3019633833153836E-3</v>
       </c>
-      <c r="AD24" s="30" t="s">
+      <c r="AF24" s="22">
+        <f>AD24*Z24</f>
+        <v>0.19734278697277097</v>
+      </c>
+      <c r="AG24" s="30" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="4:30">
+    <row r="25" spans="4:33">
       <c r="D25" s="9"/>
       <c r="E25" s="2"/>
       <c r="F25" s="3"/>
@@ -3442,7 +3802,7 @@
       <c r="S25" s="15"/>
       <c r="T25" s="15"/>
     </row>
-    <row r="26" spans="4:30">
+    <row r="26" spans="4:33">
       <c r="D26" s="10" t="s">
         <v>15</v>
       </c>
@@ -3509,51 +3869,64 @@
         <f>E26*F26*G26/32</f>
         <v>32</v>
       </c>
-      <c r="Z26" s="1">
+      <c r="Z26" s="33">
+        <f>Y26/$Y$27</f>
+        <v>1.5531718681745378E-3</v>
+      </c>
+      <c r="AA26" s="1">
         <f>J26*G24</f>
         <v>4096</v>
       </c>
-      <c r="AA26" s="28">
+      <c r="AB26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC26" s="28">
         <f>Y26/$Y$27</f>
         <v>1.5531718681745378E-3</v>
       </c>
-      <c r="AB26" s="1">
-        <v>30</v>
-      </c>
-      <c r="AC26" s="33">
+      <c r="AD26" s="1">
+        <f>VLOOKUP(AB26,[1]Summary!$A$16:$D$24,3,FALSE)</f>
+        <v>31.764479999999999</v>
+      </c>
+      <c r="AE26" s="33">
         <f>L26/$L$28</f>
         <v>1.3254908458288459E-3</v>
       </c>
-      <c r="AD26" s="30" t="s">
+      <c r="AF26" s="22">
+        <f>AD26*Z26</f>
+        <v>4.9335696743192742E-2</v>
+      </c>
+      <c r="AG26" s="30" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="4:30">
+    <row r="27" spans="4:33">
       <c r="Q27" s="15"/>
       <c r="R27" s="15"/>
       <c r="S27" s="15"/>
       <c r="X27" s="15">
         <f>SUM(X8:X26)</f>
-        <v>1274815008</v>
+        <v>1275268000</v>
       </c>
       <c r="Y27" s="1">
-        <f>SUM(Y8:Y26)</f>
+        <f>Y8+Y12+Y16+Y18+Y20+Y22+Y24+Y26</f>
         <v>20603</v>
       </c>
-      <c r="AA27" s="1">
-        <f>SUM(AA8:AA26)</f>
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="AB27" s="29">
-        <f>AVERAGE(AB8:AB26)</f>
-        <v>29.625</v>
-      </c>
-      <c r="AC27" s="29">
-        <f>AC8*Z8+AC12*Z12+AC16*Z16+AC18*Z18+AC20*Z20+AC22*Z22+AC24*Z24+AC26*Z26</f>
+      <c r="AC27" s="1">
+        <f>SUM(AC8:AC26)</f>
+        <v>1.1717711012959278</v>
+      </c>
+      <c r="AD27" s="29">
+        <f>AVERAGE(AD8:AD26)</f>
+        <v>29.500416000000001</v>
+      </c>
+      <c r="AE27" s="29">
+        <f>AE8*AA8+AE12*AA12+AE16*AA16+AE18*AA18+AE20*AA20+AE22*AA22+AE24*AA24+AE26*AA26</f>
         <v>1650.1519758097922</v>
       </c>
-    </row>
-    <row r="28" spans="4:30" ht="30">
+      <c r="AF27" s="34"/>
+    </row>
+    <row r="28" spans="4:33" ht="30">
       <c r="L28" s="1">
         <f>SUM(L8:L26)</f>
         <v>772544</v>
@@ -3573,14 +3946,18 @@
       </c>
       <c r="X28" s="15">
         <f>X27/SUM(L8:L26)</f>
-        <v>1650.151975809792</v>
+        <v>1650.7383398227155</v>
       </c>
       <c r="Y28" s="1">
         <f>Y27*32+L10+L14</f>
         <v>772544</v>
       </c>
-    </row>
-    <row r="29" spans="4:30">
+      <c r="Z28" s="33">
+        <f>SUM(Z8:Z26)</f>
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="29" spans="4:33">
       <c r="L29" s="1" t="s">
         <v>23</v>
       </c>
@@ -3595,26 +3972,39 @@
       <c r="Q29" s="15"/>
       <c r="R29" s="15"/>
     </row>
-    <row r="30" spans="4:30">
+    <row r="30" spans="4:33" ht="30">
       <c r="Q30" s="15"/>
       <c r="R30" s="15"/>
       <c r="S30" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="4:30">
+      <c r="AE30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF30" s="22">
+        <f>SUM(AF8:AF26)</f>
+        <v>27.717001089161773</v>
+      </c>
+    </row>
+    <row r="31" spans="4:33">
       <c r="Q31" s="15"/>
       <c r="R31" s="15"/>
     </row>
-    <row r="32" spans="4:30">
+    <row r="32" spans="4:33">
       <c r="Q32" s="15"/>
       <c r="R32" s="15"/>
-    </row>
-    <row r="33" spans="15:18">
+      <c r="AA32" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="15:27">
       <c r="Q33" s="15"/>
       <c r="R33" s="15"/>
-    </row>
-    <row r="34" spans="15:18" ht="30">
+      <c r="AA33" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="15:27" ht="30">
       <c r="O34" s="12" t="s">
         <v>24</v>
       </c>
@@ -3625,11 +4015,11 @@
       </c>
       <c r="R34" s="15"/>
     </row>
-    <row r="35" spans="15:18">
+    <row r="35" spans="15:27">
       <c r="Q35" s="15"/>
       <c r="R35" s="15"/>
     </row>
-    <row r="36" spans="15:18">
+    <row r="36" spans="15:27">
       <c r="O36" s="1" t="s">
         <v>18</v>
       </c>
@@ -3639,7 +4029,7 @@
         <v>174157311424</v>
       </c>
     </row>
-    <row r="37" spans="15:18" ht="30">
+    <row r="37" spans="15:27" ht="30">
       <c r="O37" s="1" t="s">
         <v>19</v>
       </c>
@@ -3648,7 +4038,7 @@
       </c>
       <c r="Q37" s="15"/>
     </row>
-    <row r="38" spans="15:18" ht="30">
+    <row r="38" spans="15:27" ht="30">
       <c r="O38" s="1" t="s">
         <v>20</v>
       </c>
@@ -3658,7 +4048,7 @@
         <v>1393258491392</v>
       </c>
     </row>
-    <row r="39" spans="15:18" ht="30">
+    <row r="39" spans="15:27" ht="30">
       <c r="O39" s="1" t="s">
         <v>25</v>
       </c>
@@ -3667,7 +4057,7 @@
       </c>
       <c r="Q39" s="15"/>
     </row>
-    <row r="40" spans="15:18">
+    <row r="40" spans="15:27">
       <c r="O40" s="1" t="s">
         <v>21</v>
       </c>
@@ -3677,7 +4067,7 @@
         <v>4458427172454400</v>
       </c>
     </row>
-    <row r="42" spans="15:18">
+    <row r="42" spans="15:27">
       <c r="O42" s="1" t="s">
         <v>10</v>
       </c>
@@ -3717,11 +4107,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:19">
-      <c r="M4" s="38" t="s">
+      <c r="M4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="39"/>
-      <c r="O4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="41"/>
       <c r="P4" s="3"/>
     </row>
     <row r="5" spans="4:19" ht="30">

--- a/DOC/FLOP_Calculations.xlsx
+++ b/DOC/FLOP_Calculations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="27520" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CNN" sheetId="2" r:id="rId1"/>
@@ -24,6 +24,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Lee Baker</author>
+  </authors>
+  <commentList>
+    <comment ref="S28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lee Baker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Shared weights</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="72">
   <si>
@@ -247,7 +281,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -277,6 +311,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -952,129 +999,129 @@
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3">
-        <row r="16">
-          <cell r="A16" t="str">
+        <row r="17">
+          <cell r="A17" t="str">
             <v>CONV2</v>
           </cell>
-          <cell r="B16">
+          <cell r="B17">
             <v>0.65</v>
           </cell>
-          <cell r="C16">
+          <cell r="C17">
             <v>21.9648</v>
           </cell>
-          <cell r="D16">
+          <cell r="D17">
             <v>59.63776</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>CONV-294</v>
-          </cell>
-          <cell r="B17">
-            <v>0.67</v>
-          </cell>
-          <cell r="C17">
-            <v>22.640640000000001</v>
-          </cell>
-          <cell r="D17">
-            <v>61.472768000000002</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>CONV-300</v>
+            <v>CONV-294</v>
           </cell>
           <cell r="B18">
-            <v>0.73</v>
+            <v>0.67</v>
           </cell>
           <cell r="C18">
-            <v>24.66816</v>
+            <v>22.640640000000001</v>
           </cell>
           <cell r="D18">
-            <v>66.977791999999994</v>
+            <v>61.472768000000002</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>FC-350</v>
+            <v>CONV-300</v>
           </cell>
           <cell r="B19">
-            <v>0.78</v>
+            <v>0.73</v>
           </cell>
           <cell r="C19">
-            <v>26.357760000000003</v>
+            <v>24.66816</v>
           </cell>
           <cell r="D19">
-            <v>71.565312000000006</v>
+            <v>66.977791999999994</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>FC-500</v>
+            <v>FC-350</v>
           </cell>
           <cell r="B20">
-            <v>0.84</v>
+            <v>0.78</v>
           </cell>
           <cell r="C20">
-            <v>28.385280000000002</v>
+            <v>26.357760000000003</v>
           </cell>
           <cell r="D20">
-            <v>77.070335999999998</v>
+            <v>71.565312000000006</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>FC-7</v>
+            <v>FC-500</v>
           </cell>
           <cell r="B21">
-            <v>0.94</v>
+            <v>0.84</v>
           </cell>
           <cell r="C21">
-            <v>31.764479999999999</v>
+            <v>28.385280000000002</v>
           </cell>
           <cell r="D21">
-            <v>86.245375999999993</v>
+            <v>77.070335999999998</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>CONV-500</v>
+            <v>FC-7</v>
           </cell>
           <cell r="B22">
-            <v>0.82</v>
+            <v>0.94</v>
           </cell>
           <cell r="C22">
-            <v>27.709440000000001</v>
+            <v>31.764479999999999</v>
           </cell>
           <cell r="D22">
-            <v>75.235327999999996</v>
+            <v>86.245375999999993</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>CONV-1000</v>
+            <v>CONV-500</v>
           </cell>
           <cell r="B23">
-            <v>0.89</v>
+            <v>0.82</v>
           </cell>
           <cell r="C23">
-            <v>30.07488</v>
+            <v>27.709440000000001</v>
           </cell>
           <cell r="D23">
-            <v>81.657855999999995</v>
+            <v>75.235327999999996</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
+            <v>CONV-1000</v>
+          </cell>
+          <cell r="B24">
+            <v>0.89</v>
+          </cell>
+          <cell r="C24">
+            <v>30.07488</v>
+          </cell>
+          <cell r="D24">
+            <v>81.657855999999995</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
             <v>FC-1000</v>
           </cell>
-          <cell r="B24">
+          <cell r="B25">
             <v>0.91</v>
           </cell>
-          <cell r="C24">
+          <cell r="C25">
             <v>30.750720000000001</v>
           </cell>
-          <cell r="D24">
+          <cell r="D25">
             <v>83.492863999999997</v>
           </cell>
         </row>
@@ -2626,11 +2673,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:AM42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E20" workbookViewId="0">
-      <selection activeCell="AF30" sqref="AF30"/>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2870,7 +2917,7 @@
         <v>0.44046983449012278</v>
       </c>
       <c r="AD8" s="1">
-        <f>VLOOKUP(AB8,[1]Summary!$A$16:$D$24,3,FALSE)</f>
+        <f>VLOOKUP(AB8,[1]Summary!$A$17:$D$25,3,FALSE)</f>
         <v>24.66816</v>
       </c>
       <c r="AE8" s="33">
@@ -2978,7 +3025,7 @@
         <v>0.10614958986555356</v>
       </c>
       <c r="AD10" s="1">
-        <f>VLOOKUP(AB10,[1]Summary!$A$16:$D$24,3,FALSE)</f>
+        <f>VLOOKUP(AB10,[1]Summary!$A$17:$D$25,3,FALSE)</f>
         <v>24.66816</v>
       </c>
       <c r="AE10" s="33"/>
@@ -3091,7 +3138,7 @@
         <v>0.2830655729748095</v>
       </c>
       <c r="AD12" s="1">
-        <f>VLOOKUP(AB12,[1]Summary!$A$16:$D$24,3,FALSE)</f>
+        <f>VLOOKUP(AB12,[1]Summary!$A$17:$D$25,3,FALSE)</f>
         <v>30.07488</v>
       </c>
       <c r="AE12" s="33">
@@ -3202,7 +3249,7 @@
         <v>6.5621511430374216E-2</v>
       </c>
       <c r="AD14" s="1">
-        <f>VLOOKUP(AB14,[1]Summary!$A$16:$D$24,3,FALSE)</f>
+        <f>VLOOKUP(AB14,[1]Summary!$A$17:$D$25,3,FALSE)</f>
         <v>30.07488</v>
       </c>
       <c r="AE14" s="33">
@@ -3314,7 +3361,7 @@
         <v>9.8432267145561331E-2</v>
       </c>
       <c r="AD16" s="1">
-        <f>VLOOKUP(AB16,[1]Summary!$A$16:$D$24,3,FALSE)</f>
+        <f>VLOOKUP(AB16,[1]Summary!$A$17:$D$25,3,FALSE)</f>
         <v>30.07488</v>
       </c>
       <c r="AE16" s="33">
@@ -3430,7 +3477,7 @@
         <v>9.8432267145561331E-2</v>
       </c>
       <c r="AD18" s="1">
-        <f>VLOOKUP(AB18,[1]Summary!$A$16:$D$24,3,FALSE)</f>
+        <f>VLOOKUP(AB18,[1]Summary!$A$17:$D$25,3,FALSE)</f>
         <v>30.07488</v>
       </c>
       <c r="AE18" s="33">
@@ -3546,7 +3593,7 @@
         <v>6.5621511430374216E-2</v>
       </c>
       <c r="AD20" s="1">
-        <f>VLOOKUP(AB20,[1]Summary!$A$16:$D$24,3,FALSE)</f>
+        <f>VLOOKUP(AB20,[1]Summary!$A$17:$D$25,3,FALSE)</f>
         <v>30.07488</v>
       </c>
       <c r="AE20" s="33">
@@ -3658,7 +3705,7 @@
         <v>6.2126874726981512E-3</v>
       </c>
       <c r="AD22" s="1">
-        <f>VLOOKUP(AB22,[1]Summary!$A$16:$D$24,3,FALSE)</f>
+        <f>VLOOKUP(AB22,[1]Summary!$A$17:$D$25,3,FALSE)</f>
         <v>31.764479999999999</v>
       </c>
       <c r="AE22" s="33">
@@ -3770,7 +3817,7 @@
         <v>6.2126874726981512E-3</v>
       </c>
       <c r="AD24" s="1">
-        <f>VLOOKUP(AB24,[1]Summary!$A$16:$D$24,3,FALSE)</f>
+        <f>VLOOKUP(AB24,[1]Summary!$A$17:$D$25,3,FALSE)</f>
         <v>31.764479999999999</v>
       </c>
       <c r="AE24" s="33">
@@ -3885,7 +3932,7 @@
         <v>1.5531718681745378E-3</v>
       </c>
       <c r="AD26" s="1">
-        <f>VLOOKUP(AB26,[1]Summary!$A$16:$D$24,3,FALSE)</f>
+        <f>VLOOKUP(AB26,[1]Summary!$A$17:$D$25,3,FALSE)</f>
         <v>31.764479999999999</v>
       </c>
       <c r="AE26" s="33">
@@ -4082,6 +4129,7 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/DOC/FLOP_Calculations.xlsx
+++ b/DOC/FLOP_Calculations.xlsx
@@ -4,17 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="27520" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="26220" yWindow="660" windowWidth="74480" windowHeight="26960" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CNN" sheetId="2" r:id="rId1"/>
     <sheet name="DNN" sheetId="1" r:id="rId2"/>
     <sheet name="CNN tmp" sheetId="3" r:id="rId3"/>
     <sheet name="XU" sheetId="4" r:id="rId4"/>
+    <sheet name="Performance" sheetId="5" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="Untitled" localSheetId="4">Performance!$N$20:$R$39</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -58,8 +62,20 @@
 </comments>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Untitled.rtf" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:lbbaker:Desktop:Untitled.rtf" tab="0" comma="1">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="89">
   <si>
     <t>X</t>
   </si>
@@ -275,13 +291,69 @@
   </si>
   <si>
     <t>Expected Bandwidth</t>
+  </si>
+  <si>
+    <t>CONV-500</t>
+  </si>
+  <si>
+    <t>FC-350</t>
+  </si>
+  <si>
+    <t>FC-500</t>
+  </si>
+  <si>
+    <t>FC-1000</t>
+  </si>
+  <si>
+    <t>cccds</t>
+  </si>
+  <si>
+    <t>System 
+bandwidth
+(Tbps)</t>
+  </si>
+  <si>
+    <t>Layer</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Percentage of 
+Operations</t>
+  </si>
+  <si>
+    <t>Equivalent
+test</t>
+  </si>
+  <si>
+    <t>Expected
+bandwidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONV-300 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;1% </t>
+  </si>
+  <si>
+    <t>previous layer</t>
+  </si>
+  <si>
+    <t>&gt;27.7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -324,6 +396,14 @@
       <color indexed="81"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -524,7 +604,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="165">
+  <cellStyleXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -690,8 +770,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -812,8 +908,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="165">
+  <cellStyles count="181">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -896,6 +1025,14 @@
     <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -978,6 +1115,14 @@
     <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1129,6 +1274,10 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Untitled" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2676,7 +2825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:AM42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
@@ -5053,7 +5202,7 @@
   <dimension ref="D3:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5295,4 +5444,326 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E8:R34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="5" max="5" width="10.83203125" style="42"/>
+    <col min="6" max="6" width="15.83203125" style="42" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
+    <col min="14" max="14" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.1640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32" style="43" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5" style="43" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" style="43" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="5:10" ht="45">
+      <c r="E8" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="5:10">
+      <c r="E9" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="44">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="5:10">
+      <c r="E10" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="44">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="5:10">
+      <c r="E11" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="44">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="5:10">
+      <c r="E12" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="44">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="5:10">
+      <c r="E13" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="44">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="5:10">
+      <c r="E14" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="44">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="5:10">
+      <c r="E15" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="44">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="5:10">
+      <c r="E16" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="44">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9">
+      <c r="E17" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="44">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9" ht="45">
+      <c r="E22" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22" s="52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9">
+      <c r="E23" s="44"/>
+      <c r="F23" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+    </row>
+    <row r="24" spans="5:9">
+      <c r="E24" s="44">
+        <v>1</v>
+      </c>
+      <c r="F24" s="48">
+        <v>363</v>
+      </c>
+      <c r="G24" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="49">
+        <v>0.44</v>
+      </c>
+      <c r="I24" s="48">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9">
+      <c r="E25" s="44">
+        <v>2</v>
+      </c>
+      <c r="F25" s="48">
+        <v>4</v>
+      </c>
+      <c r="G25" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+    </row>
+    <row r="26" spans="5:9">
+      <c r="E26" s="44">
+        <v>3</v>
+      </c>
+      <c r="F26" s="48">
+        <v>2400</v>
+      </c>
+      <c r="G26" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="49">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I26" s="48">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9">
+      <c r="E27" s="44">
+        <v>4</v>
+      </c>
+      <c r="F27" s="48">
+        <v>4</v>
+      </c>
+      <c r="G27" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+    </row>
+    <row r="28" spans="5:9">
+      <c r="E28" s="44">
+        <v>5</v>
+      </c>
+      <c r="F28" s="48">
+        <v>2304</v>
+      </c>
+      <c r="G28" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="I28" s="48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9">
+      <c r="E29" s="44">
+        <v>6</v>
+      </c>
+      <c r="F29" s="48">
+        <v>3456</v>
+      </c>
+      <c r="G29" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="I29" s="48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="5:9">
+      <c r="E30" s="44">
+        <v>7</v>
+      </c>
+      <c r="F30" s="48">
+        <v>3456</v>
+      </c>
+      <c r="G30" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" s="49">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I30" s="48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="5:9">
+      <c r="E31" s="44">
+        <v>8</v>
+      </c>
+      <c r="F31" s="48">
+        <v>43264</v>
+      </c>
+      <c r="G31" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="I31" s="48">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="32" spans="5:9">
+      <c r="E32" s="44">
+        <v>9</v>
+      </c>
+      <c r="F32" s="48">
+        <v>4096</v>
+      </c>
+      <c r="G32" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="H32" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="I32" s="48">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="5:9">
+      <c r="E33" s="44">
+        <v>10</v>
+      </c>
+      <c r="F33" s="48">
+        <v>4096</v>
+      </c>
+      <c r="G33" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="I33" s="48">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="34" spans="5:9">
+      <c r="F34" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="G34" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I34" s="48" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G27:I27"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/DOC/FLOP_Calculations.xlsx
+++ b/DOC/FLOP_Calculations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="26220" yWindow="660" windowWidth="74480" windowHeight="26960" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="-12100" yWindow="-20300" windowWidth="39740" windowHeight="16060" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CNN" sheetId="2" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="88">
   <si>
     <t>X</t>
   </si>
@@ -334,25 +334,25 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">CONV-300 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;1% </t>
-  </si>
-  <si>
     <t>previous layer</t>
   </si>
   <si>
     <t>&gt;27.7</t>
+  </si>
+  <si>
+    <t>CONV-2500</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -604,7 +604,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="181">
+  <cellStyleXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -786,8 +786,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -887,27 +913,6 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -941,8 +946,41 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="181">
+  <cellStyles count="207">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1033,6 +1071,19 @@
     <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1123,6 +1174,19 @@
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1620,12 +1684,12 @@
       <c r="O4" s="1">
         <v>32</v>
       </c>
-      <c r="Q4" s="35" t="s">
+      <c r="Q4" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="36"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="38"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="49"/>
       <c r="U4" s="3"/>
     </row>
     <row r="5" spans="4:25" ht="30">
@@ -2825,8 +2889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:AM42"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2850,11 +2914,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:39">
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="40"/>
-      <c r="O4" s="41"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="52"/>
       <c r="P4" s="3"/>
       <c r="V4" s="1" t="s">
         <v>51</v>
@@ -4304,11 +4368,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:19">
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="40"/>
-      <c r="O4" s="41"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="52"/>
       <c r="P4" s="3"/>
     </row>
     <row r="5" spans="4:19" ht="30">
@@ -5450,27 +5514,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E8:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="5" max="5" width="10.83203125" style="42"/>
-    <col min="6" max="6" width="15.83203125" style="42" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="35"/>
+    <col min="6" max="6" width="15.83203125" style="35" customWidth="1"/>
     <col min="7" max="7" width="19.5" customWidth="1"/>
     <col min="14" max="14" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.1640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="32" style="43" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5" style="43" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10" style="43" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.1640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32" style="36" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5" style="36" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" style="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="8" spans="5:10" ht="45">
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="39" t="s">
         <v>77</v>
       </c>
       <c r="J8" t="s">
@@ -5478,279 +5542,328 @@
       </c>
     </row>
     <row r="9" spans="5:10">
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="44">
-        <v>22</v>
+      <c r="F9" s="54">
+        <v>25.04</v>
       </c>
     </row>
     <row r="10" spans="5:10">
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="44">
-        <v>23</v>
+      <c r="F10" s="54">
+        <v>26.4</v>
       </c>
     </row>
     <row r="11" spans="5:10">
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="44">
-        <v>25</v>
+      <c r="F11" s="54">
+        <v>26.6</v>
       </c>
     </row>
     <row r="12" spans="5:10">
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="44">
-        <v>26</v>
+      <c r="F12" s="54">
+        <v>28.93</v>
       </c>
     </row>
     <row r="13" spans="5:10">
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="44">
-        <v>30</v>
+      <c r="F13" s="54">
+        <v>30.8</v>
       </c>
     </row>
     <row r="14" spans="5:10">
-      <c r="E14" s="44" t="s">
+      <c r="E14" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="54">
+        <v>32.08</v>
+      </c>
+    </row>
+    <row r="15" spans="5:10">
+      <c r="E15" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="44">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="5:10">
-      <c r="E15" s="44" t="s">
+      <c r="F15" s="54">
+        <v>27.7</v>
+      </c>
+    </row>
+    <row r="16" spans="5:10">
+      <c r="E16" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="44">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="5:10">
-      <c r="E16" s="44" t="s">
+      <c r="F16" s="54">
+        <v>29.08</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11">
+      <c r="E17" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="44">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="5:9">
-      <c r="E17" s="44" t="s">
+      <c r="F17" s="54">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11">
+      <c r="E18" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="44">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="5:9" ht="45">
-      <c r="E22" s="45" t="s">
+      <c r="F18" s="54">
+        <v>32.369999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11" ht="45">
+      <c r="E22" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="51" t="s">
+      <c r="F22" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="52" t="s">
+      <c r="G22" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="H22" s="52" t="s">
+      <c r="H22" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="I22" s="52" t="s">
+      <c r="I22" s="45" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="5:9">
-      <c r="E23" s="44"/>
-      <c r="F23" s="48" t="s">
+    <row r="23" spans="5:11">
+      <c r="E23" s="37"/>
+      <c r="F23" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="G23" s="48" t="s">
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+    </row>
+    <row r="24" spans="5:11">
+      <c r="E24" s="37">
+        <v>1</v>
+      </c>
+      <c r="F24" s="41">
+        <v>363</v>
+      </c>
+      <c r="G24" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="42">
+        <f>DNN!Z8</f>
+        <v>0.44046983449012278</v>
+      </c>
+      <c r="I24" s="56">
+        <f>VLOOKUP(G24,$E$9:$F$18,2,FALSE)*H24</f>
+        <v>11.716497597437266</v>
+      </c>
+      <c r="K24" s="43">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="25" spans="5:11">
+      <c r="E25" s="37">
+        <v>2</v>
+      </c>
+      <c r="F25" s="41">
+        <v>4</v>
+      </c>
+      <c r="G25" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+    </row>
+    <row r="26" spans="5:11">
+      <c r="E26" s="37">
+        <v>3</v>
+      </c>
+      <c r="F26" s="41">
+        <v>2400</v>
+      </c>
+      <c r="G26" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26" s="42">
+        <f>DNN!Z12</f>
+        <v>0.2830655729748095</v>
+      </c>
+      <c r="I26" s="56">
+        <f>VLOOKUP(G26,$E$9:$F$18,2,FALSE)*H26</f>
+        <v>9.0807435810318875</v>
+      </c>
+      <c r="K26" s="43">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="27" spans="5:11">
+      <c r="E27" s="37">
+        <v>4</v>
+      </c>
+      <c r="F27" s="41">
+        <v>4</v>
+      </c>
+      <c r="G27" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+    </row>
+    <row r="28" spans="5:11">
+      <c r="E28" s="37">
+        <v>5</v>
+      </c>
+      <c r="F28" s="41">
+        <v>2304</v>
+      </c>
+      <c r="G28" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="42">
+        <f>DNN!Z16</f>
+        <v>9.8432267145561331E-2</v>
+      </c>
+      <c r="I28" s="56">
+        <f>VLOOKUP(G28,$E$9:$F$18,2,FALSE)*H28</f>
+        <v>3.0317138280832889</v>
+      </c>
+      <c r="K28" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="5:11">
+      <c r="E29" s="37">
+        <v>6</v>
+      </c>
+      <c r="F29" s="41">
+        <v>3456</v>
+      </c>
+      <c r="G29" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="H29" s="42">
+        <f>DNN!Z18</f>
+        <v>9.8432267145561331E-2</v>
+      </c>
+      <c r="I29" s="56">
+        <f t="shared" ref="I29:I33" si="0">VLOOKUP(G29,$E$9:$F$18,2,FALSE)*H29</f>
+        <v>3.1577071300296073</v>
+      </c>
+      <c r="K29" s="43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="5:11">
+      <c r="E30" s="37">
+        <v>7</v>
+      </c>
+      <c r="F30" s="41">
+        <v>3456</v>
+      </c>
+      <c r="G30" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H30" s="42">
+        <f>DNN!Z20</f>
+        <v>6.5621511430374216E-2</v>
+      </c>
+      <c r="I30" s="56">
+        <f t="shared" si="0"/>
+        <v>2.1051380866864049</v>
+      </c>
+      <c r="K30" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="5:11">
+      <c r="E31" s="37">
+        <v>8</v>
+      </c>
+      <c r="F31" s="41">
+        <v>43264</v>
+      </c>
+      <c r="G31" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31" s="42">
+        <f>DNN!Z22</f>
+        <v>6.2126874726981512E-3</v>
+      </c>
+      <c r="I31" s="56">
+        <f t="shared" si="0"/>
+        <v>0.20110469349123913</v>
+      </c>
+      <c r="K31" s="43">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="32" spans="5:11">
+      <c r="E32" s="37">
+        <v>9</v>
+      </c>
+      <c r="F32" s="41">
+        <v>4096</v>
+      </c>
+      <c r="G32" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="H32" s="42">
+        <v>0.01</v>
+      </c>
+      <c r="I32" s="56">
+        <f t="shared" si="0"/>
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="K32" s="43">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="5:11">
+      <c r="E33" s="37">
+        <v>10</v>
+      </c>
+      <c r="F33" s="41">
+        <v>4096</v>
+      </c>
+      <c r="G33" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="H33" s="55">
+        <f>DNN!Z26</f>
+        <v>1.5531718681745378E-3</v>
+      </c>
+      <c r="I33" s="56">
+        <f t="shared" si="0"/>
+        <v>5.0276173372809783E-2</v>
+      </c>
+      <c r="K33" s="43">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="34" spans="5:11">
+      <c r="F34" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-    </row>
-    <row r="24" spans="5:9">
-      <c r="E24" s="44">
-        <v>1</v>
-      </c>
-      <c r="F24" s="48">
-        <v>363</v>
-      </c>
-      <c r="G24" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="H24" s="49">
-        <v>0.44</v>
-      </c>
-      <c r="I24" s="48">
-        <v>10.9</v>
-      </c>
-    </row>
-    <row r="25" spans="5:9">
-      <c r="E25" s="44">
-        <v>2</v>
-      </c>
-      <c r="F25" s="48">
-        <v>4</v>
-      </c>
-      <c r="G25" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-    </row>
-    <row r="26" spans="5:9">
-      <c r="E26" s="44">
-        <v>3</v>
-      </c>
-      <c r="F26" s="48">
-        <v>2400</v>
-      </c>
-      <c r="G26" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="H26" s="49">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="I26" s="48">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="27" spans="5:9">
-      <c r="E27" s="44">
-        <v>4</v>
-      </c>
-      <c r="F27" s="48">
-        <v>4</v>
-      </c>
-      <c r="G27" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-    </row>
-    <row r="28" spans="5:9">
-      <c r="E28" s="44">
-        <v>5</v>
-      </c>
-      <c r="F28" s="48">
-        <v>2304</v>
-      </c>
-      <c r="G28" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="H28" s="49">
-        <v>0.1</v>
-      </c>
-      <c r="I28" s="48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="5:9">
-      <c r="E29" s="44">
-        <v>6</v>
-      </c>
-      <c r="F29" s="48">
-        <v>3456</v>
-      </c>
-      <c r="G29" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="H29" s="49">
-        <v>0.1</v>
-      </c>
-      <c r="I29" s="48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="5:9">
-      <c r="E30" s="44">
-        <v>7</v>
-      </c>
-      <c r="F30" s="48">
-        <v>3456</v>
-      </c>
-      <c r="G30" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="H30" s="49">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I30" s="48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="5:9">
-      <c r="E31" s="44">
-        <v>8</v>
-      </c>
-      <c r="F31" s="48">
-        <v>43264</v>
-      </c>
-      <c r="G31" s="48" t="s">
+      <c r="G34" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="I34" s="56">
+        <f>I24+I26+SUM(I28:I33)</f>
+        <v>29.666881090132502</v>
+      </c>
+      <c r="K34" s="43" t="s">
         <v>85</v>
-      </c>
-      <c r="H31" s="49">
-        <v>0.01</v>
-      </c>
-      <c r="I31" s="48">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="32" spans="5:9">
-      <c r="E32" s="44">
-        <v>9</v>
-      </c>
-      <c r="F32" s="48">
-        <v>4096</v>
-      </c>
-      <c r="G32" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="H32" s="49">
-        <v>0.01</v>
-      </c>
-      <c r="I32" s="48">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="33" spans="5:9">
-      <c r="E33" s="44">
-        <v>10</v>
-      </c>
-      <c r="F33" s="48">
-        <v>4096</v>
-      </c>
-      <c r="G33" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="H33" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="I33" s="48">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="34" spans="5:9">
-      <c r="F34" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="G34" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="H34" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="I34" s="48" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/FLOP_Calculations.xlsx
+++ b/DOC/FLOP_Calculations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-12100" yWindow="-20300" windowWidth="39740" windowHeight="16060" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="-12060" yWindow="-20280" windowWidth="39740" windowHeight="16060" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CNN" sheetId="2" r:id="rId1"/>
@@ -604,7 +604,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="207">
+  <cellStyleXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -812,8 +812,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -979,8 +981,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="207">
+  <cellStyles count="209">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1084,6 +1087,7 @@
     <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1187,6 +1191,7 @@
     <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5515,7 +5520,7 @@
   <dimension ref="E8:R34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:F18"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5548,6 +5553,10 @@
       <c r="F9" s="54">
         <v>25.04</v>
       </c>
+      <c r="H9" s="57">
+        <f>F9*700/500</f>
+        <v>35.055999999999997</v>
+      </c>
     </row>
     <row r="10" spans="5:10">
       <c r="E10" s="37" t="s">
@@ -5556,6 +5565,10 @@
       <c r="F10" s="54">
         <v>26.4</v>
       </c>
+      <c r="H10" s="57">
+        <f t="shared" ref="H10:H18" si="0">F10*700/500</f>
+        <v>36.96</v>
+      </c>
     </row>
     <row r="11" spans="5:10">
       <c r="E11" s="37" t="s">
@@ -5564,6 +5577,10 @@
       <c r="F11" s="54">
         <v>26.6</v>
       </c>
+      <c r="H11" s="57">
+        <f t="shared" si="0"/>
+        <v>37.24</v>
+      </c>
     </row>
     <row r="12" spans="5:10">
       <c r="E12" s="37" t="s">
@@ -5572,6 +5589,10 @@
       <c r="F12" s="54">
         <v>28.93</v>
       </c>
+      <c r="H12" s="57">
+        <f t="shared" si="0"/>
+        <v>40.502000000000002</v>
+      </c>
     </row>
     <row r="13" spans="5:10">
       <c r="E13" s="37" t="s">
@@ -5580,6 +5601,10 @@
       <c r="F13" s="54">
         <v>30.8</v>
       </c>
+      <c r="H13" s="57">
+        <f t="shared" si="0"/>
+        <v>43.12</v>
+      </c>
     </row>
     <row r="14" spans="5:10">
       <c r="E14" s="37" t="s">
@@ -5588,6 +5613,10 @@
       <c r="F14" s="54">
         <v>32.08</v>
       </c>
+      <c r="H14" s="57">
+        <f t="shared" si="0"/>
+        <v>44.911999999999999</v>
+      </c>
     </row>
     <row r="15" spans="5:10">
       <c r="E15" s="37" t="s">
@@ -5596,6 +5625,10 @@
       <c r="F15" s="54">
         <v>27.7</v>
       </c>
+      <c r="H15" s="57">
+        <f t="shared" si="0"/>
+        <v>38.78</v>
+      </c>
     </row>
     <row r="16" spans="5:10">
       <c r="E16" s="37" t="s">
@@ -5604,6 +5637,10 @@
       <c r="F16" s="54">
         <v>29.08</v>
       </c>
+      <c r="H16" s="57">
+        <f t="shared" si="0"/>
+        <v>40.712000000000003</v>
+      </c>
     </row>
     <row r="17" spans="5:11">
       <c r="E17" s="37" t="s">
@@ -5612,6 +5649,10 @@
       <c r="F17" s="54">
         <v>30.9</v>
       </c>
+      <c r="H17" s="57">
+        <f t="shared" si="0"/>
+        <v>43.26</v>
+      </c>
     </row>
     <row r="18" spans="5:11">
       <c r="E18" s="37" t="s">
@@ -5619,6 +5660,10 @@
       </c>
       <c r="F18" s="54">
         <v>32.369999999999997</v>
+      </c>
+      <c r="H18" s="57">
+        <f t="shared" si="0"/>
+        <v>45.317999999999998</v>
       </c>
     </row>
     <row r="22" spans="5:11" ht="45">
@@ -5754,7 +5799,7 @@
         <v>9.8432267145561331E-2</v>
       </c>
       <c r="I29" s="56">
-        <f t="shared" ref="I29:I33" si="0">VLOOKUP(G29,$E$9:$F$18,2,FALSE)*H29</f>
+        <f t="shared" ref="I29:I33" si="1">VLOOKUP(G29,$E$9:$F$18,2,FALSE)*H29</f>
         <v>3.1577071300296073</v>
       </c>
       <c r="K29" s="43" t="s">
@@ -5776,7 +5821,7 @@
         <v>6.5621511430374216E-2</v>
       </c>
       <c r="I30" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1051380866864049</v>
       </c>
       <c r="K30" s="43">
@@ -5798,7 +5843,7 @@
         <v>6.2126874726981512E-3</v>
       </c>
       <c r="I31" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.20110469349123913</v>
       </c>
       <c r="K31" s="43">
@@ -5819,7 +5864,7 @@
         <v>0.01</v>
       </c>
       <c r="I32" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.32369999999999999</v>
       </c>
       <c r="K32" s="43">
@@ -5841,7 +5886,7 @@
         <v>1.5531718681745378E-3</v>
       </c>
       <c r="I33" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.0276173372809783E-2</v>
       </c>
       <c r="K33" s="43">

--- a/DOC/FLOP_Calculations.xlsx
+++ b/DOC/FLOP_Calculations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-12060" yWindow="-20280" windowWidth="39740" windowHeight="16060" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="23400" yWindow="4580" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CNN" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="Untitled" localSheetId="4">Performance!$N$20:$R$39</definedName>
+    <definedName name="Untitled" localSheetId="4">Performance!$N$20:$R$38</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="88">
   <si>
     <t>X</t>
   </si>
@@ -319,31 +319,32 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Percentage of 
-Operations</t>
-  </si>
-  <si>
     <t>Equivalent
 test</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>previous layer</t>
+  </si>
+  <si>
+    <t>&gt;27.7</t>
+  </si>
+  <si>
+    <t>CONV-2500</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Percentage of 
+instructions</t>
+  </si>
+  <si>
     <t>Expected
+data
 bandwidth</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>previous layer</t>
-  </si>
-  <si>
-    <t>&gt;27.7</t>
-  </si>
-  <si>
-    <t>CONV-2500</t>
-  </si>
-  <si>
-    <t>`</t>
   </si>
 </sst>
 </file>
@@ -604,7 +605,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="209">
+  <cellStyleXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -814,8 +815,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -942,12 +947,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -972,18 +981,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="209">
+  <cellStyles count="213">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1088,6 +1102,8 @@
     <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1192,6 +1208,8 @@
     <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1689,12 +1707,12 @@
       <c r="O4" s="1">
         <v>32</v>
       </c>
-      <c r="Q4" s="46" t="s">
+      <c r="Q4" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="47"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="51"/>
       <c r="U4" s="3"/>
     </row>
     <row r="5" spans="4:25" ht="30">
@@ -2919,11 +2937,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:39">
-      <c r="M4" s="50" t="s">
+      <c r="M4" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="51"/>
-      <c r="O4" s="52"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="54"/>
       <c r="P4" s="3"/>
       <c r="V4" s="1" t="s">
         <v>51</v>
@@ -4373,11 +4391,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:19">
-      <c r="M4" s="50" t="s">
+      <c r="M4" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="51"/>
-      <c r="O4" s="52"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="54"/>
       <c r="P4" s="3"/>
     </row>
     <row r="5" spans="4:19" ht="30">
@@ -5517,10 +5535,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E8:R34"/>
+  <dimension ref="E8:R33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5550,10 +5568,10 @@
       <c r="E9" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="44">
         <v>25.04</v>
       </c>
-      <c r="H9" s="57">
+      <c r="H9" s="47">
         <f>F9*700/500</f>
         <v>35.055999999999997</v>
       </c>
@@ -5562,10 +5580,10 @@
       <c r="E10" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="54">
+      <c r="F10" s="44">
         <v>26.4</v>
       </c>
-      <c r="H10" s="57">
+      <c r="H10" s="47">
         <f t="shared" ref="H10:H18" si="0">F10*700/500</f>
         <v>36.96</v>
       </c>
@@ -5574,10 +5592,10 @@
       <c r="E11" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="44">
         <v>26.6</v>
       </c>
-      <c r="H11" s="57">
+      <c r="H11" s="47">
         <f t="shared" si="0"/>
         <v>37.24</v>
       </c>
@@ -5586,10 +5604,10 @@
       <c r="E12" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="54">
+      <c r="F12" s="44">
         <v>28.93</v>
       </c>
-      <c r="H12" s="57">
+      <c r="H12" s="47">
         <f t="shared" si="0"/>
         <v>40.502000000000002</v>
       </c>
@@ -5598,22 +5616,22 @@
       <c r="E13" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="54">
+      <c r="F13" s="44">
         <v>30.8</v>
       </c>
-      <c r="H13" s="57">
+      <c r="H13" s="47">
         <f t="shared" si="0"/>
         <v>43.12</v>
       </c>
     </row>
     <row r="14" spans="5:10">
       <c r="E14" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="54">
+        <v>84</v>
+      </c>
+      <c r="F14" s="44">
         <v>32.08</v>
       </c>
-      <c r="H14" s="57">
+      <c r="H14" s="47">
         <f t="shared" si="0"/>
         <v>44.911999999999999</v>
       </c>
@@ -5622,10 +5640,10 @@
       <c r="E15" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="54">
+      <c r="F15" s="44">
         <v>27.7</v>
       </c>
-      <c r="H15" s="57">
+      <c r="H15" s="47">
         <f t="shared" si="0"/>
         <v>38.78</v>
       </c>
@@ -5634,225 +5652,241 @@
       <c r="E16" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="54">
+      <c r="F16" s="44">
         <v>29.08</v>
       </c>
-      <c r="H16" s="57">
+      <c r="H16" s="47">
         <f t="shared" si="0"/>
         <v>40.712000000000003</v>
       </c>
     </row>
-    <row r="17" spans="5:11">
+    <row r="17" spans="5:18">
       <c r="E17" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="54">
+      <c r="F17" s="44">
         <v>30.9</v>
       </c>
-      <c r="H17" s="57">
+      <c r="H17" s="47">
         <f t="shared" si="0"/>
         <v>43.26</v>
       </c>
     </row>
-    <row r="18" spans="5:11">
+    <row r="18" spans="5:18">
       <c r="E18" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="54">
+      <c r="F18" s="44">
         <v>32.369999999999997</v>
       </c>
-      <c r="H18" s="57">
+      <c r="H18" s="47">
         <f t="shared" si="0"/>
         <v>45.317999999999998</v>
       </c>
     </row>
-    <row r="22" spans="5:11" ht="45">
-      <c r="E22" s="38" t="s">
+    <row r="22" spans="5:18" s="59" customFormat="1" ht="51" customHeight="1">
+      <c r="E22" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="44" t="s">
+      <c r="F22" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="H22" s="45" t="s">
+      <c r="G22" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="I22" s="45" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="5:11">
-      <c r="E23" s="37"/>
-      <c r="F23" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-    </row>
-    <row r="24" spans="5:11">
-      <c r="E24" s="37">
+      <c r="H22" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="O22" s="60"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="60"/>
+      <c r="R22" s="60"/>
+    </row>
+    <row r="23" spans="5:18">
+      <c r="E23" s="37">
         <v>1</v>
       </c>
-      <c r="F24" s="41">
+      <c r="F23" s="41">
         <v>363</v>
       </c>
-      <c r="G24" s="41" t="s">
+      <c r="G23" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="H24" s="42">
+      <c r="H23" s="42">
         <f>DNN!Z8</f>
         <v>0.44046983449012278</v>
       </c>
-      <c r="I24" s="56">
-        <f>VLOOKUP(G24,$E$9:$F$18,2,FALSE)*H24</f>
+      <c r="I23" s="46">
+        <f>VLOOKUP(G23,$E$9:$F$18,2,FALSE)*H23</f>
         <v>11.716497597437266</v>
       </c>
-      <c r="K24" s="43">
+      <c r="K23" s="43">
         <v>10.9</v>
       </c>
     </row>
-    <row r="25" spans="5:11">
+    <row r="24" spans="5:18">
+      <c r="E24" s="37">
+        <v>2</v>
+      </c>
+      <c r="F24" s="41">
+        <v>4</v>
+      </c>
+      <c r="G24" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+    </row>
+    <row r="25" spans="5:18">
       <c r="E25" s="37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" s="41">
-        <v>4</v>
-      </c>
-      <c r="G25" s="53" t="s">
+        <v>2400</v>
+      </c>
+      <c r="G25" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-    </row>
-    <row r="26" spans="5:11">
-      <c r="E26" s="37">
-        <v>3</v>
-      </c>
-      <c r="F26" s="41">
-        <v>2400</v>
-      </c>
-      <c r="G26" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="H26" s="42">
+      <c r="H25" s="42">
         <f>DNN!Z12</f>
         <v>0.2830655729748095</v>
       </c>
-      <c r="I26" s="56">
-        <f>VLOOKUP(G26,$E$9:$F$18,2,FALSE)*H26</f>
+      <c r="I25" s="46">
+        <f>VLOOKUP(G25,$E$9:$F$18,2,FALSE)*H25</f>
         <v>9.0807435810318875</v>
       </c>
-      <c r="K26" s="43">
+      <c r="K25" s="43">
         <v>8.5</v>
       </c>
     </row>
-    <row r="27" spans="5:11">
+    <row r="26" spans="5:18">
+      <c r="E26" s="37">
+        <v>4</v>
+      </c>
+      <c r="F26" s="41">
+        <v>4</v>
+      </c>
+      <c r="G26" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+    </row>
+    <row r="27" spans="5:18">
       <c r="E27" s="37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F27" s="41">
-        <v>4</v>
-      </c>
-      <c r="G27" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-    </row>
-    <row r="28" spans="5:11">
-      <c r="E28" s="37">
-        <v>5</v>
-      </c>
-      <c r="F28" s="41">
         <v>2304</v>
       </c>
-      <c r="G28" s="41" t="s">
+      <c r="G27" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="H28" s="42">
+      <c r="H27" s="42">
         <f>DNN!Z16</f>
         <v>9.8432267145561331E-2</v>
       </c>
-      <c r="I28" s="56">
-        <f>VLOOKUP(G28,$E$9:$F$18,2,FALSE)*H28</f>
+      <c r="I27" s="46">
+        <f>VLOOKUP(G27,$E$9:$F$18,2,FALSE)*H27</f>
         <v>3.0317138280832889</v>
       </c>
-      <c r="K28" s="43">
+      <c r="K27" s="43">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="5:11">
+    <row r="28" spans="5:18">
+      <c r="E28" s="37">
+        <v>6</v>
+      </c>
+      <c r="F28" s="41">
+        <v>3456</v>
+      </c>
+      <c r="G28" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="H28" s="42">
+        <f>DNN!Z18</f>
+        <v>9.8432267145561331E-2</v>
+      </c>
+      <c r="I28" s="46">
+        <f t="shared" ref="I28:I32" si="1">VLOOKUP(G28,$E$9:$F$18,2,FALSE)*H28</f>
+        <v>3.1577071300296073</v>
+      </c>
+      <c r="K28" s="43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="5:18">
       <c r="E29" s="37">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F29" s="41">
         <v>3456</v>
       </c>
-      <c r="G29" s="41" t="s">
-        <v>86</v>
+      <c r="G29" s="37" t="s">
+        <v>84</v>
       </c>
       <c r="H29" s="42">
-        <f>DNN!Z18</f>
-        <v>9.8432267145561331E-2</v>
-      </c>
-      <c r="I29" s="56">
-        <f t="shared" ref="I29:I33" si="1">VLOOKUP(G29,$E$9:$F$18,2,FALSE)*H29</f>
-        <v>3.1577071300296073</v>
-      </c>
-      <c r="K29" s="43" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="5:11">
-      <c r="E30" s="37">
-        <v>7</v>
-      </c>
-      <c r="F30" s="41">
-        <v>3456</v>
-      </c>
-      <c r="G30" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="H30" s="42">
         <f>DNN!Z20</f>
         <v>6.5621511430374216E-2</v>
       </c>
-      <c r="I30" s="56">
+      <c r="I29" s="46">
         <f t="shared" si="1"/>
         <v>2.1051380866864049</v>
       </c>
+      <c r="K29" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="5:18">
+      <c r="E30" s="37">
+        <v>8</v>
+      </c>
+      <c r="F30" s="41">
+        <v>43264</v>
+      </c>
+      <c r="G30" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" s="42">
+        <f>DNN!Z22</f>
+        <v>6.2126874726981512E-3</v>
+      </c>
+      <c r="I30" s="46">
+        <f t="shared" si="1"/>
+        <v>0.20110469349123913</v>
+      </c>
       <c r="K30" s="43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="5:11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="31" spans="5:18">
       <c r="E31" s="37">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F31" s="41">
-        <v>43264</v>
+        <v>4096</v>
       </c>
       <c r="G31" s="41" t="s">
         <v>68</v>
       </c>
       <c r="H31" s="42">
-        <f>DNN!Z22</f>
-        <v>6.2126874726981512E-3</v>
-      </c>
-      <c r="I31" s="56">
+        <v>0.01</v>
+      </c>
+      <c r="I31" s="46">
         <f t="shared" si="1"/>
-        <v>0.20110469349123913</v>
+        <v>0.32369999999999999</v>
       </c>
       <c r="K31" s="43">
         <v>0.2</v>
       </c>
     </row>
-    <row r="32" spans="5:11">
+    <row r="32" spans="5:18">
       <c r="E32" s="37">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F32" s="41">
         <v>4096</v>
@@ -5860,61 +5894,40 @@
       <c r="G32" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="H32" s="42">
-        <v>0.01</v>
-      </c>
-      <c r="I32" s="56">
-        <f t="shared" si="1"/>
-        <v>0.32369999999999999</v>
-      </c>
-      <c r="K32" s="43">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="33" spans="5:11">
-      <c r="E33" s="37">
-        <v>10</v>
-      </c>
-      <c r="F33" s="41">
-        <v>4096</v>
-      </c>
-      <c r="G33" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="H33" s="55">
+      <c r="H32" s="45">
         <f>DNN!Z26</f>
         <v>1.5531718681745378E-3</v>
       </c>
-      <c r="I33" s="56">
+      <c r="I32" s="46">
         <f t="shared" si="1"/>
         <v>5.0276173372809783E-2</v>
       </c>
-      <c r="K33" s="43">
+      <c r="K32" s="43">
         <v>0.05</v>
       </c>
     </row>
-    <row r="34" spans="5:11">
-      <c r="F34" s="40" t="s">
+    <row r="33" spans="6:11">
+      <c r="F33" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="I33" s="46">
+        <f>I23+I25+SUM(I27:I32)</f>
+        <v>29.666881090132502</v>
+      </c>
+      <c r="K33" s="43" t="s">
         <v>83</v>
-      </c>
-      <c r="G34" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="H34" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="I34" s="56">
-        <f>I24+I26+SUM(I28:I33)</f>
-        <v>29.666881090132502</v>
-      </c>
-      <c r="K34" s="43" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G26:I26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/DOC/FLOP_Calculations.xlsx
+++ b/DOC/FLOP_Calculations.xlsx
@@ -1,25 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/lbbaker/Documents/workspace/github/ece-cortical-MainResearch/DOC/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D712F6CF-71E2-7949-BE97-2B9F78400A51}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23400" yWindow="4580" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="1700" windowWidth="71540" windowHeight="23680" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CNN" sheetId="2" r:id="rId1"/>
     <sheet name="DNN" sheetId="1" r:id="rId2"/>
-    <sheet name="CNN tmp" sheetId="3" r:id="rId3"/>
-    <sheet name="XU" sheetId="4" r:id="rId4"/>
-    <sheet name="Performance" sheetId="5" r:id="rId5"/>
+    <sheet name="XU" sheetId="4" r:id="rId3"/>
+    <sheet name="Performance" sheetId="5" r:id="rId4"/>
+    <sheet name="XU FC bandwidth" sheetId="3" r:id="rId5"/>
+    <sheet name="UAV CNN-based Classifier" sheetId="7" r:id="rId6"/>
+    <sheet name="UAV MLP Anomaly" sheetId="8" r:id="rId7"/>
+    <sheet name="UAV AE-based Anomaly" sheetId="10" r:id="rId8"/>
+    <sheet name="UAV CNN-based Classifier test" sheetId="11" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
-    <definedName name="Untitled" localSheetId="4">Performance!$N$20:$R$38</definedName>
+    <definedName name="Adds">'UAV CNN-based Classifier test'!$V$6:$V$22</definedName>
+    <definedName name="Divides">'UAV CNN-based Classifier test'!$W$6:$W$22</definedName>
+    <definedName name="Feature">'UAV CNN-based Classifier test'!$G$6:$G$22</definedName>
+    <definedName name="Features">'UAV CNN-based Classifier test'!$G$6:$G$22</definedName>
+    <definedName name="FeaturesMinus1">'UAV CNN-based Classifier test'!$AL$8:$AL$22</definedName>
+    <definedName name="FeaturesPrev">'UAV CNN-based Classifier test'!$AL$8:$AL$22</definedName>
+    <definedName name="FLOPsubTotal">'UAV CNN-based Classifier test'!$Y$6:$Y$22</definedName>
+    <definedName name="FMA">'UAV CNN-based Classifier test'!$X$6:$X$22</definedName>
+    <definedName name="foo" localSheetId="2">XU!$G$21:$H$29</definedName>
+    <definedName name="foo_1" localSheetId="2">XU!$G$34:$N$34</definedName>
+    <definedName name="foo_2" localSheetId="2">XU!$G$33:$K$44</definedName>
+    <definedName name="Kx">'UAV CNN-based Classifier test'!$K$6:$K$22</definedName>
+    <definedName name="Ky">'UAV CNN-based Classifier test'!$L$6:$L$22</definedName>
+    <definedName name="Kz">'UAV CNN-based Classifier test'!$M$6:$M$22</definedName>
+    <definedName name="Mults">'UAV CNN-based Classifier test'!$U$6:$U$22</definedName>
+    <definedName name="ReadSubTotal">'UAV CNN-based Classifier test'!$AA$6:$AA$22</definedName>
+    <definedName name="Stride">'UAV CNN-based Classifier test'!$J$6:$J$22</definedName>
+    <definedName name="Type">'UAV CNN-based Classifier test'!$D$6:$D$22</definedName>
+    <definedName name="Untitled" localSheetId="3">Performance!$N$20:$R$38</definedName>
+    <definedName name="Weights">'UAV CNN-based Classifier test'!$T$6:$T$22</definedName>
+    <definedName name="WriteSubTotal">'UAV CNN-based Classifier test'!$AB$6:$AB$22</definedName>
+    <definedName name="Xdim">'UAV CNN-based Classifier test'!$E$6:$E$22</definedName>
+    <definedName name="Xprev">'UAV CNN-based Classifier test'!$AJ$6:$AJ$22</definedName>
+    <definedName name="Ydim">'UAV CNN-based Classifier test'!$F$6:$F$22</definedName>
+    <definedName name="Yprev">'UAV CNN-based Classifier test'!$AK$6:$AK$22</definedName>
+    <definedName name="Zprev">'UAV CNN-based Classifier test'!$AL$8:$AL$22</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,12 +64,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Lee Baker</author>
   </authors>
   <commentList>
-    <comment ref="S28" authorId="0">
+    <comment ref="S28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -63,8 +98,40 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Untitled.rtf" type="6" refreshedVersion="0" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="foo.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:lbbaker:Desktop:foo.csv" comma="1">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="foo.csv1" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:lbbaker:Desktop:foo.csv" tab="0" comma="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" name="foo.csv2" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:lbbaker:Desktop:foo.csv" delimited="0" comma="1">
+      <textFields count="8">
+        <textField/>
+        <textField position="14"/>
+        <textField position="30"/>
+        <textField position="31"/>
+        <textField position="49"/>
+        <textField position="50"/>
+        <textField position="68"/>
+        <textField position="69"/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" name="Untitled.rtf" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:lbbaker:Desktop:Untitled.rtf" tab="0" comma="1">
       <textFields>
         <textField/>
@@ -75,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="174">
   <si>
     <t>X</t>
   </si>
@@ -156,15 +223,6 @@
   </si>
   <si>
     <t>Weights</t>
-  </si>
-  <si>
-    <t>Gbits</t>
-  </si>
-  <si>
-    <t>Weights Total</t>
-  </si>
-  <si>
-    <t>Storage</t>
   </si>
   <si>
     <t>Number of neurons</t>
@@ -345,16 +403,285 @@
     <t>Expected
 data
 bandwidth</t>
+  </si>
+  <si>
+    <t>SRAM</t>
+  </si>
+  <si>
+    <t>Memory bandwidth</t>
+  </si>
+  <si>
+    <t>Bits/Word</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Write</t>
+  </si>
+  <si>
+    <t>Memory Accessed</t>
+  </si>
+  <si>
+    <t>Sampling rate</t>
+  </si>
+  <si>
+    <t>Pins</t>
+  </si>
+  <si>
+    <t>AXI</t>
+  </si>
+  <si>
+    <t>Number of Weights</t>
+  </si>
+  <si>
+    <t>GDDR6 width</t>
+  </si>
+  <si>
+    <t>GDDR6 freq</t>
+  </si>
+  <si>
+    <t>GDDR6 capacity</t>
+  </si>
+  <si>
+    <t>number of DDR6</t>
+  </si>
+  <si>
+    <t>Channel width</t>
+  </si>
+  <si>
+    <t>Channel bandwidth</t>
+  </si>
+  <si>
+    <t>Channel capacity</t>
+  </si>
+  <si>
+    <t>Number of DDR6 channels to meet capacity</t>
+  </si>
+  <si>
+    <t>Number of DDR6 channels to meet bandwidth</t>
+  </si>
+  <si>
+    <t>Required number of DDR6 channels</t>
+  </si>
+  <si>
+    <t>Channels</t>
+  </si>
+  <si>
+    <t>AXI Width</t>
+  </si>
+  <si>
+    <t>Freq</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t># DDR6 per channel</t>
+  </si>
+  <si>
+    <t>Channel Bandwidth</t>
+  </si>
+  <si>
+    <t>DDR6 Channel</t>
+  </si>
+  <si>
+    <t>Connectivity</t>
+  </si>
+  <si>
+    <t>Processing Time (mS)</t>
+  </si>
+  <si>
+    <t>Activation Stotage</t>
+  </si>
+  <si>
+    <t>Number of cells</t>
+  </si>
+  <si>
+    <t>Number of combinational cells</t>
+  </si>
+  <si>
+    <t>Number of sequential cells</t>
+  </si>
+  <si>
+    <t>Number of macros/black boxes</t>
+  </si>
+  <si>
+    <t>Combinational area</t>
+  </si>
+  <si>
+    <t>Buf/Inv area</t>
+  </si>
+  <si>
+    <t>Noncombinational area</t>
+  </si>
+  <si>
+    <t>Macro/Black Box area</t>
+  </si>
+  <si>
+    <t>Total cell area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Internal     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Switching     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Leakage     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Total     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Group   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Power       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Power        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Power      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Power    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">io_pad        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">memory        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">black_box     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">clock_network </t>
+  </si>
+  <si>
+    <t xml:space="preserve">register      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sequential    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">combinational </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total         </t>
+  </si>
+  <si>
+    <t>Frames/sec</t>
+  </si>
+  <si>
+    <t>AXI Frequency</t>
+  </si>
+  <si>
+    <t>Amount of SRAM</t>
+  </si>
+  <si>
+    <t>28nm</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>Logic</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t>Adjusted</t>
+  </si>
+  <si>
+    <t>mW/mm/GHz</t>
+  </si>
+  <si>
+    <t>Stride</t>
+  </si>
+  <si>
+    <t>Number of Features</t>
+  </si>
+  <si>
+    <t>Divides</t>
+  </si>
+  <si>
+    <t>Total FLOP</t>
+  </si>
+  <si>
+    <t>Kernel held in SRAM</t>
+  </si>
+  <si>
+    <t>Kz</t>
+  </si>
+  <si>
+    <t>Writes</t>
+  </si>
+  <si>
+    <t>Float Writes</t>
+  </si>
+  <si>
+    <t>total writes</t>
+  </si>
+  <si>
+    <t>total  reads</t>
+  </si>
+  <si>
+    <t>Frames/Sec</t>
+  </si>
+  <si>
+    <t>Read Bandwidth</t>
+  </si>
+  <si>
+    <t>binary16</t>
+  </si>
+  <si>
+    <t>Formats</t>
+  </si>
+  <si>
+    <t>binary32</t>
+  </si>
+  <si>
+    <t>Bits per Number format</t>
+  </si>
+  <si>
+    <t>ae</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>Xprev</t>
+  </si>
+  <si>
+    <t>Yprev</t>
+  </si>
+  <si>
+    <t>Zprev</t>
+  </si>
+  <si>
+    <t>So vector of names work</t>
+  </si>
+  <si>
+    <t>Numbers before names used</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.E+00"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -405,6 +732,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Monaco"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -605,7 +938,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="213">
+  <cellStyleXfs count="363">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -819,8 +1152,158 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -957,6 +1440,91 @@
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -981,23 +1549,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="213">
+  <cellStyles count="363">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1104,6 +1675,81 @@
     <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1210,15 +1856,98 @@
     <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="PE"/>
@@ -1364,7 +2093,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Untitled" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="foo" connectionId="1" xr16:uid="{00000000-0016-0000-0200-000002000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="foo_2" connectionId="2" xr16:uid="{00000000-0016-0000-0200-000001000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="foo_1" connectionId="3" xr16:uid="{00000000-0016-0000-0200-000000000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Untitled" connectionId="4" xr16:uid="{00000000-0016-0000-0300-000003000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1688,14 +2429,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D4:Y42"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="Y38" sqref="Y38"/>
+    <sheetView topLeftCell="J23" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="21" width="10.83203125" style="1"/>
     <col min="22" max="22" width="14.5" style="1" bestFit="1" customWidth="1"/>
@@ -1703,19 +2444,19 @@
     <col min="24" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:25">
+    <row r="4" spans="4:25" x14ac:dyDescent="0.2">
       <c r="O4" s="1">
         <v>32</v>
       </c>
-      <c r="Q4" s="48" t="s">
+      <c r="Q4" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="49"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="51"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="80"/>
       <c r="U4" s="3"/>
     </row>
-    <row r="5" spans="4:25" ht="30">
+    <row r="5" spans="4:25" ht="32" x14ac:dyDescent="0.2">
       <c r="E5" s="12" t="s">
         <v>0</v>
       </c>
@@ -1734,16 +2475,16 @@
         <v>5</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N5" s="11" t="s">
         <v>6</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>26</v>
@@ -1770,7 +2511,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="4:25">
+    <row r="6" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
@@ -1807,7 +2548,7 @@
       <c r="U6" s="4"/>
       <c r="V6" s="9"/>
     </row>
-    <row r="7" spans="4:25">
+    <row r="7" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D7" s="9"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
@@ -1826,7 +2567,7 @@
       <c r="U7" s="4"/>
       <c r="V7" s="9"/>
     </row>
-    <row r="8" spans="4:25">
+    <row r="8" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D8" s="9" t="s">
         <v>13</v>
       </c>
@@ -1900,7 +2641,7 @@
         <v>34848</v>
       </c>
     </row>
-    <row r="9" spans="4:25">
+    <row r="9" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D9" s="9"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
@@ -1920,7 +2661,7 @@
       <c r="V9" s="16"/>
       <c r="W9" s="15"/>
     </row>
-    <row r="10" spans="4:25">
+    <row r="10" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D10" s="9" t="s">
         <v>11</v>
       </c>
@@ -1994,7 +2735,7 @@
         <v>82944</v>
       </c>
     </row>
-    <row r="11" spans="4:25">
+    <row r="11" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D11" s="9"/>
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
@@ -2014,7 +2755,7 @@
       <c r="V11" s="16"/>
       <c r="W11" s="15"/>
     </row>
-    <row r="12" spans="4:25">
+    <row r="12" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D12" s="9" t="s">
         <v>13</v>
       </c>
@@ -2088,7 +2829,7 @@
         <v>614400</v>
       </c>
     </row>
-    <row r="13" spans="4:25">
+    <row r="13" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D13" s="9"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
@@ -2108,7 +2849,7 @@
       <c r="V13" s="16"/>
       <c r="W13" s="15"/>
     </row>
-    <row r="14" spans="4:25">
+    <row r="14" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D14" s="9" t="s">
         <v>14</v>
       </c>
@@ -2182,7 +2923,7 @@
         <v>589824</v>
       </c>
     </row>
-    <row r="15" spans="4:25">
+    <row r="15" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D15" s="9"/>
       <c r="E15" s="2"/>
       <c r="F15" s="3"/>
@@ -2202,7 +2943,7 @@
       <c r="V15" s="16"/>
       <c r="W15" s="15"/>
     </row>
-    <row r="16" spans="4:25">
+    <row r="16" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D16" s="9" t="s">
         <v>13</v>
       </c>
@@ -2276,7 +3017,7 @@
         <v>884736</v>
       </c>
     </row>
-    <row r="17" spans="4:25">
+    <row r="17" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D17" s="9"/>
       <c r="E17" s="2"/>
       <c r="F17" s="3"/>
@@ -2296,7 +3037,7 @@
       <c r="V17" s="16"/>
       <c r="W17" s="15"/>
     </row>
-    <row r="18" spans="4:25">
+    <row r="18" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D18" s="9" t="s">
         <v>13</v>
       </c>
@@ -2370,7 +3111,7 @@
         <v>1327104</v>
       </c>
     </row>
-    <row r="19" spans="4:25">
+    <row r="19" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D19" s="9"/>
       <c r="E19" s="2"/>
       <c r="F19" s="3"/>
@@ -2390,7 +3131,7 @@
       <c r="V19" s="16"/>
       <c r="W19" s="15"/>
     </row>
-    <row r="20" spans="4:25">
+    <row r="20" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D20" s="9" t="s">
         <v>13</v>
       </c>
@@ -2464,7 +3205,7 @@
         <v>884736</v>
       </c>
     </row>
-    <row r="21" spans="4:25">
+    <row r="21" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D21" s="9"/>
       <c r="E21" s="2"/>
       <c r="F21" s="3"/>
@@ -2484,7 +3225,7 @@
       <c r="V21" s="16"/>
       <c r="W21" s="15"/>
     </row>
-    <row r="22" spans="4:25">
+    <row r="22" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D22" s="9" t="s">
         <v>15</v>
       </c>
@@ -2558,7 +3299,7 @@
         <v>177209344</v>
       </c>
     </row>
-    <row r="23" spans="4:25">
+    <row r="23" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D23" s="9"/>
       <c r="E23" s="2"/>
       <c r="F23" s="3"/>
@@ -2578,7 +3319,7 @@
       <c r="V23" s="16"/>
       <c r="W23" s="15"/>
     </row>
-    <row r="24" spans="4:25">
+    <row r="24" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D24" s="9" t="s">
         <v>15</v>
       </c>
@@ -2652,7 +3393,7 @@
         <v>16777216</v>
       </c>
     </row>
-    <row r="25" spans="4:25">
+    <row r="25" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D25" s="9"/>
       <c r="E25" s="2"/>
       <c r="F25" s="3"/>
@@ -2672,7 +3413,7 @@
       <c r="V25" s="16"/>
       <c r="W25" s="15"/>
     </row>
-    <row r="26" spans="4:25">
+    <row r="26" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D26" s="10" t="s">
         <v>15</v>
       </c>
@@ -2746,7 +3487,7 @@
         <v>4096000</v>
       </c>
     </row>
-    <row r="27" spans="4:25">
+    <row r="27" spans="4:25" x14ac:dyDescent="0.2">
       <c r="V27" s="15"/>
       <c r="W27" s="15"/>
       <c r="X27" s="1">
@@ -2754,9 +3495,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:25">
+    <row r="28" spans="4:25" x14ac:dyDescent="0.2">
       <c r="O28" s="23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P28" s="24">
         <f>SUM(P8:P26)</f>
@@ -2774,9 +3515,9 @@
         <v>6480.0368639999997</v>
       </c>
     </row>
-    <row r="29" spans="4:25" ht="60">
+    <row r="29" spans="4:25" ht="48" x14ac:dyDescent="0.2">
       <c r="L29" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M29" s="1">
         <f>(SUM(M8:M26)-M22)/10</f>
@@ -2796,26 +3537,26 @@
       <c r="V29" s="15"/>
       <c r="W29" s="15"/>
     </row>
-    <row r="30" spans="4:25">
+    <row r="30" spans="4:25" x14ac:dyDescent="0.2">
       <c r="V30" s="15"/>
       <c r="W30" s="15"/>
       <c r="X30" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="4:25">
+    <row r="31" spans="4:25" x14ac:dyDescent="0.2">
       <c r="V31" s="15"/>
       <c r="W31" s="15"/>
     </row>
-    <row r="32" spans="4:25">
+    <row r="32" spans="4:25" x14ac:dyDescent="0.2">
       <c r="V32" s="15"/>
       <c r="W32" s="15"/>
     </row>
-    <row r="33" spans="20:25">
+    <row r="33" spans="20:25" x14ac:dyDescent="0.2">
       <c r="V33" s="15"/>
       <c r="W33" s="15"/>
     </row>
-    <row r="34" spans="20:25" ht="30">
+    <row r="34" spans="20:25" ht="32" x14ac:dyDescent="0.2">
       <c r="T34" s="12" t="s">
         <v>24</v>
       </c>
@@ -2826,11 +3567,11 @@
       </c>
       <c r="W34" s="15"/>
     </row>
-    <row r="35" spans="20:25">
+    <row r="35" spans="20:25" x14ac:dyDescent="0.2">
       <c r="V35" s="15"/>
       <c r="W35" s="15"/>
     </row>
-    <row r="36" spans="20:25">
+    <row r="36" spans="20:25" x14ac:dyDescent="0.2">
       <c r="T36" s="1" t="s">
         <v>18</v>
       </c>
@@ -2840,7 +3581,7 @@
         <v>2550452640</v>
       </c>
     </row>
-    <row r="37" spans="20:25" ht="30">
+    <row r="37" spans="20:25" ht="32" x14ac:dyDescent="0.2">
       <c r="T37" s="1" t="s">
         <v>19</v>
       </c>
@@ -2849,7 +3590,7 @@
       </c>
       <c r="V37" s="15"/>
     </row>
-    <row r="38" spans="20:25" ht="30">
+    <row r="38" spans="20:25" ht="32" x14ac:dyDescent="0.2">
       <c r="T38" s="1" t="s">
         <v>20</v>
       </c>
@@ -2859,7 +3600,7 @@
         <v>25504526400</v>
       </c>
     </row>
-    <row r="39" spans="20:25" ht="30">
+    <row r="39" spans="20:25" ht="32" x14ac:dyDescent="0.2">
       <c r="T39" s="1" t="s">
         <v>25</v>
       </c>
@@ -2868,7 +3609,7 @@
       </c>
       <c r="V39" s="15"/>
     </row>
-    <row r="40" spans="20:25" ht="45">
+    <row r="40" spans="20:25" ht="48" x14ac:dyDescent="0.2">
       <c r="T40" s="1" t="s">
         <v>21</v>
       </c>
@@ -2882,10 +3623,10 @@
         <v>0.515625</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="20:25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="20:25" ht="32" x14ac:dyDescent="0.2">
       <c r="T42" s="1" t="s">
         <v>10</v>
       </c>
@@ -2909,14 +3650,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D4:AM42"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16" width="10.83203125" style="1"/>
     <col min="17" max="17" width="14.5" style="1" bestFit="1" customWidth="1"/>
@@ -2936,18 +3677,18 @@
     <col min="34" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:39">
-      <c r="M4" s="52" t="s">
+    <row r="4" spans="4:39" x14ac:dyDescent="0.2">
+      <c r="M4" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="53"/>
-      <c r="O4" s="54"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="83"/>
       <c r="P4" s="3"/>
       <c r="V4" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="4:39" ht="30">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="4:39" ht="32" x14ac:dyDescent="0.2">
       <c r="E5" s="12" t="s">
         <v>0</v>
       </c>
@@ -2964,7 +3705,7 @@
         <v>5</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L5" s="11" t="s">
         <v>6</v>
@@ -2991,43 +3732,43 @@
         <v>26</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="V5" s="1">
         <v>4</v>
       </c>
       <c r="W5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z5" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC5" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG5" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="Z5" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC5" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG5" s="31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="4:39">
+    </row>
+    <row r="6" spans="4:39" x14ac:dyDescent="0.2">
       <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
@@ -3052,7 +3793,7 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="9"/>
     </row>
-    <row r="7" spans="4:39">
+    <row r="7" spans="4:39" x14ac:dyDescent="0.2">
       <c r="D7" s="9"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
@@ -3066,7 +3807,7 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="9"/>
     </row>
-    <row r="8" spans="4:39">
+    <row r="8" spans="4:39" x14ac:dyDescent="0.2">
       <c r="D8" s="9" t="s">
         <v>13</v>
       </c>
@@ -3146,7 +3887,7 @@
         <v>363</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AC8" s="28">
         <f>Y8/$Y$27</f>
@@ -3165,7 +3906,7 @@
         <v>10.865580352375867</v>
       </c>
     </row>
-    <row r="9" spans="4:39">
+    <row r="9" spans="4:39" x14ac:dyDescent="0.2">
       <c r="D9" s="9"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
@@ -3182,7 +3923,7 @@
       <c r="S9" s="15"/>
       <c r="T9" s="15"/>
     </row>
-    <row r="10" spans="4:39">
+    <row r="10" spans="4:39" x14ac:dyDescent="0.2">
       <c r="D10" s="9" t="s">
         <v>11</v>
       </c>
@@ -3254,7 +3995,7 @@
         <v>384</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AC10" s="28">
         <f>Y10/$Y$27</f>
@@ -3270,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:39">
+    <row r="11" spans="4:39" x14ac:dyDescent="0.2">
       <c r="D11" s="9"/>
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
@@ -3287,7 +4028,7 @@
       <c r="S11" s="15"/>
       <c r="T11" s="15"/>
     </row>
-    <row r="12" spans="4:39">
+    <row r="12" spans="4:39" x14ac:dyDescent="0.2">
       <c r="D12" s="9" t="s">
         <v>13</v>
       </c>
@@ -3367,7 +4108,7 @@
         <v>2400</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AC12" s="28">
         <f>Y12/$Y$27</f>
@@ -3389,7 +4130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:39">
+    <row r="13" spans="4:39" x14ac:dyDescent="0.2">
       <c r="D13" s="9"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
@@ -3406,7 +4147,7 @@
       <c r="S13" s="15"/>
       <c r="T13" s="15"/>
     </row>
-    <row r="14" spans="4:39">
+    <row r="14" spans="4:39" x14ac:dyDescent="0.2">
       <c r="D14" s="9" t="s">
         <v>14</v>
       </c>
@@ -3478,7 +4219,7 @@
         <v>1024</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AC14" s="28">
         <f>Y14/$Y$27</f>
@@ -3493,7 +4234,7 @@
         <v>5.6001988236268743E-2</v>
       </c>
     </row>
-    <row r="15" spans="4:39">
+    <row r="15" spans="4:39" x14ac:dyDescent="0.2">
       <c r="D15" s="9"/>
       <c r="E15" s="2"/>
       <c r="F15" s="3"/>
@@ -3510,7 +4251,7 @@
       <c r="S15" s="15"/>
       <c r="T15" s="15"/>
     </row>
-    <row r="16" spans="4:39">
+    <row r="16" spans="4:39" x14ac:dyDescent="0.2">
       <c r="D16" s="9" t="s">
         <v>13</v>
       </c>
@@ -3590,7 +4331,7 @@
         <v>2304</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AC16" s="28">
         <f>Y16/$Y$27</f>
@@ -3609,7 +4350,7 @@
         <v>2.9603386225306996</v>
       </c>
     </row>
-    <row r="17" spans="4:33">
+    <row r="17" spans="4:33" x14ac:dyDescent="0.2">
       <c r="D17" s="9"/>
       <c r="E17" s="2"/>
       <c r="F17" s="3"/>
@@ -3626,7 +4367,7 @@
       <c r="S17" s="15"/>
       <c r="T17" s="15"/>
     </row>
-    <row r="18" spans="4:33">
+    <row r="18" spans="4:33" x14ac:dyDescent="0.2">
       <c r="D18" s="9" t="s">
         <v>13</v>
       </c>
@@ -3706,7 +4447,7 @@
         <v>3456</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AC18" s="28">
         <f>Y18/$Y$27</f>
@@ -3725,7 +4466,7 @@
         <v>2.9603386225306996</v>
       </c>
     </row>
-    <row r="19" spans="4:33">
+    <row r="19" spans="4:33" x14ac:dyDescent="0.2">
       <c r="D19" s="9"/>
       <c r="E19" s="2"/>
       <c r="F19" s="3"/>
@@ -3742,7 +4483,7 @@
       <c r="S19" s="15"/>
       <c r="T19" s="15"/>
     </row>
-    <row r="20" spans="4:33">
+    <row r="20" spans="4:33" x14ac:dyDescent="0.2">
       <c r="D20" s="9" t="s">
         <v>13</v>
       </c>
@@ -3822,7 +4563,7 @@
         <v>3456</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AC20" s="28">
         <f>Y20/$Y$27</f>
@@ -3841,7 +4582,7 @@
         <v>1.9735590816871329</v>
       </c>
     </row>
-    <row r="21" spans="4:33">
+    <row r="21" spans="4:33" x14ac:dyDescent="0.2">
       <c r="D21" s="9"/>
       <c r="E21" s="2"/>
       <c r="F21" s="3"/>
@@ -3858,7 +4599,7 @@
       <c r="S21" s="15"/>
       <c r="T21" s="15"/>
     </row>
-    <row r="22" spans="4:33">
+    <row r="22" spans="4:33" x14ac:dyDescent="0.2">
       <c r="D22" s="9" t="s">
         <v>15</v>
       </c>
@@ -3934,7 +4675,7 @@
         <v>43264</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AC22" s="28">
         <f>Y22/$Y$27</f>
@@ -3953,7 +4694,7 @@
         <v>0.19734278697277097</v>
       </c>
     </row>
-    <row r="23" spans="4:33">
+    <row r="23" spans="4:33" x14ac:dyDescent="0.2">
       <c r="D23" s="9"/>
       <c r="E23" s="2"/>
       <c r="F23" s="3"/>
@@ -3970,7 +4711,7 @@
       <c r="S23" s="15"/>
       <c r="T23" s="15"/>
     </row>
-    <row r="24" spans="4:33">
+    <row r="24" spans="4:33" x14ac:dyDescent="0.2">
       <c r="D24" s="9" t="s">
         <v>15</v>
       </c>
@@ -4046,7 +4787,7 @@
         <v>4096</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AC24" s="28">
         <f>Y24/$Y$27</f>
@@ -4065,10 +4806,10 @@
         <v>0.19734278697277097</v>
       </c>
       <c r="AG24" s="30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="4:33">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="4:33" x14ac:dyDescent="0.2">
       <c r="D25" s="9"/>
       <c r="E25" s="2"/>
       <c r="F25" s="3"/>
@@ -4085,7 +4826,7 @@
       <c r="S25" s="15"/>
       <c r="T25" s="15"/>
     </row>
-    <row r="26" spans="4:33">
+    <row r="26" spans="4:33" x14ac:dyDescent="0.2">
       <c r="D26" s="10" t="s">
         <v>15</v>
       </c>
@@ -4161,7 +4902,7 @@
         <v>4096</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AC26" s="28">
         <f>Y26/$Y$27</f>
@@ -4180,10 +4921,10 @@
         <v>4.9335696743192742E-2</v>
       </c>
       <c r="AG26" s="30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="4:33">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="4:33" x14ac:dyDescent="0.2">
       <c r="Q27" s="15"/>
       <c r="R27" s="15"/>
       <c r="S27" s="15"/>
@@ -4209,7 +4950,7 @@
       </c>
       <c r="AF27" s="34"/>
     </row>
-    <row r="28" spans="4:33" ht="30">
+    <row r="28" spans="4:33" ht="32" x14ac:dyDescent="0.2">
       <c r="L28" s="1">
         <f>SUM(L8:L26)</f>
         <v>772544</v>
@@ -4225,7 +4966,7 @@
         <v>485133448</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="X28" s="15">
         <f>X27/SUM(L8:L26)</f>
@@ -4240,7 +4981,7 @@
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="29" spans="4:33">
+    <row r="29" spans="4:33" x14ac:dyDescent="0.2">
       <c r="L29" s="1" t="s">
         <v>23</v>
       </c>
@@ -4255,39 +4996,39 @@
       <c r="Q29" s="15"/>
       <c r="R29" s="15"/>
     </row>
-    <row r="30" spans="4:33" ht="30">
+    <row r="30" spans="4:33" ht="32" x14ac:dyDescent="0.2">
       <c r="Q30" s="15"/>
       <c r="R30" s="15"/>
       <c r="S30" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AF30" s="22">
         <f>SUM(AF8:AF26)</f>
         <v>27.717001089161773</v>
       </c>
     </row>
-    <row r="31" spans="4:33">
+    <row r="31" spans="4:33" x14ac:dyDescent="0.2">
       <c r="Q31" s="15"/>
       <c r="R31" s="15"/>
     </row>
-    <row r="32" spans="4:33">
+    <row r="32" spans="4:33" x14ac:dyDescent="0.2">
       <c r="Q32" s="15"/>
       <c r="R32" s="15"/>
       <c r="AA32" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="15:27">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="15:27" x14ac:dyDescent="0.2">
       <c r="Q33" s="15"/>
       <c r="R33" s="15"/>
       <c r="AA33" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="15:27" ht="30">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="15:27" ht="32" x14ac:dyDescent="0.2">
       <c r="O34" s="12" t="s">
         <v>24</v>
       </c>
@@ -4298,11 +5039,11 @@
       </c>
       <c r="R34" s="15"/>
     </row>
-    <row r="35" spans="15:27">
+    <row r="35" spans="15:27" x14ac:dyDescent="0.2">
       <c r="Q35" s="15"/>
       <c r="R35" s="15"/>
     </row>
-    <row r="36" spans="15:27">
+    <row r="36" spans="15:27" x14ac:dyDescent="0.2">
       <c r="O36" s="1" t="s">
         <v>18</v>
       </c>
@@ -4312,7 +5053,7 @@
         <v>174157311424</v>
       </c>
     </row>
-    <row r="37" spans="15:27" ht="30">
+    <row r="37" spans="15:27" ht="32" x14ac:dyDescent="0.2">
       <c r="O37" s="1" t="s">
         <v>19</v>
       </c>
@@ -4321,7 +5062,7 @@
       </c>
       <c r="Q37" s="15"/>
     </row>
-    <row r="38" spans="15:27" ht="30">
+    <row r="38" spans="15:27" ht="32" x14ac:dyDescent="0.2">
       <c r="O38" s="1" t="s">
         <v>20</v>
       </c>
@@ -4331,7 +5072,7 @@
         <v>1393258491392</v>
       </c>
     </row>
-    <row r="39" spans="15:27" ht="30">
+    <row r="39" spans="15:27" ht="32" x14ac:dyDescent="0.2">
       <c r="O39" s="1" t="s">
         <v>25</v>
       </c>
@@ -4340,7 +5081,7 @@
       </c>
       <c r="Q39" s="15"/>
     </row>
-    <row r="40" spans="15:27">
+    <row r="40" spans="15:27" x14ac:dyDescent="0.2">
       <c r="O40" s="1" t="s">
         <v>21</v>
       </c>
@@ -4350,7 +5091,7 @@
         <v>4458427172454400</v>
       </c>
     </row>
-    <row r="42" spans="15:27">
+    <row r="42" spans="15:27" ht="32" x14ac:dyDescent="0.2">
       <c r="O42" s="1" t="s">
         <v>10</v>
       </c>
@@ -4375,905 +5116,924 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:T42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="D3:L63"/>
   <sheetViews>
-    <sheetView topLeftCell="C14" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28:L28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16" width="10.83203125" style="1"/>
-    <col min="17" max="17" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:19">
-      <c r="M4" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="53"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="3"/>
-    </row>
-    <row r="5" spans="4:19" ht="30">
-      <c r="E5" s="12" t="s">
+    <row r="3" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="J3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <f>CNN!P28</f>
+        <v>772520</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <f>D5/E5</f>
+        <v>96565</v>
+      </c>
+      <c r="G5">
+        <v>0.25</v>
+      </c>
+      <c r="H5">
+        <f>G5*H3</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I5">
+        <f>F5*I3</f>
+        <v>24141.25</v>
+      </c>
+      <c r="J5">
+        <f>I5*J3</f>
+        <v>772520</v>
+      </c>
+      <c r="K5">
+        <f>I5*J3/H5/1000000</f>
+        <v>30.9008</v>
+      </c>
+      <c r="L5">
+        <f>K5*E5</f>
+        <v>247.2064</v>
+      </c>
+    </row>
+    <row r="7" spans="4:12" ht="80" x14ac:dyDescent="0.2">
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>1500</v>
+      </c>
+      <c r="E8">
+        <f>D5*D8/1000000</f>
+        <v>1158.78</v>
+      </c>
+    </row>
+    <row r="10" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>0.1</v>
+      </c>
+      <c r="I10" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="J10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>250000</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <f>D12/E12</f>
+        <v>31250</v>
+      </c>
+      <c r="G12">
+        <v>0.25</v>
+      </c>
+      <c r="H12">
+        <f>G12*H10</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I12">
+        <f>F12*I10</f>
+        <v>7812.5</v>
+      </c>
+      <c r="J12">
+        <f>I12*J10</f>
+        <v>250000</v>
+      </c>
+      <c r="K12">
+        <f>I12*J10/H12/1000000</f>
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <f>K12*E12</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="4:12" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="D14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>2000</v>
+      </c>
+      <c r="E15">
+        <f>D12*D15</f>
+        <v>500000000</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15" s="27">
+        <v>0.01</v>
+      </c>
+      <c r="H15">
+        <v>32</v>
+      </c>
+      <c r="I15" s="27">
+        <f>E15*F15/G15*H15</f>
+        <v>16000000000000</v>
+      </c>
+      <c r="J15">
+        <f>E15*F15*H15/1000000000</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <f>1024*1024</f>
+        <v>1048576</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <v>2.5</v>
+      </c>
+      <c r="J19" s="25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="I20" t="s">
+        <v>145</v>
+      </c>
+      <c r="J20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="G21" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="H21" s="60">
+        <v>892784</v>
+      </c>
+      <c r="I21" s="47">
+        <f>H21/$I$19</f>
+        <v>357113.59999999998</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ref="J21:J28" si="0">I21/$J$19</f>
+        <v>446391.99999999994</v>
+      </c>
+      <c r="K21" s="68">
+        <f>J21/1000000</f>
+        <v>0.44639199999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="G22" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" s="60">
+        <v>689916</v>
+      </c>
+      <c r="I22" s="47">
+        <f t="shared" ref="I22:I29" si="1">H22/$I$19</f>
+        <v>275966.40000000002</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>344958</v>
+      </c>
+      <c r="K22" s="68">
+        <f t="shared" ref="K22:K29" si="2">J22/1000000</f>
+        <v>0.34495799999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="G23" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="H23" s="60">
+        <v>201083</v>
+      </c>
+      <c r="I23" s="47">
+        <f t="shared" si="1"/>
+        <v>80433.2</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>100541.49999999999</v>
+      </c>
+      <c r="K23" s="68">
+        <f t="shared" si="2"/>
+        <v>0.10054149999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="G24" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="H24" s="60">
+        <v>101</v>
+      </c>
+      <c r="I24" s="47">
+        <f t="shared" si="1"/>
+        <v>40.4</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>50.499999999999993</v>
+      </c>
+      <c r="K24" s="68">
+        <f t="shared" si="2"/>
+        <v>5.0499999999999994E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="G25" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="H25" s="60">
+        <v>1811914</v>
+      </c>
+      <c r="I25" s="47">
+        <f t="shared" si="1"/>
+        <v>724765.6</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>905956.99999999988</v>
+      </c>
+      <c r="K25" s="68">
+        <f t="shared" si="2"/>
+        <v>0.9059569999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="G26" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="H26" s="60">
+        <v>140912</v>
+      </c>
+      <c r="I26" s="47">
+        <f t="shared" si="1"/>
+        <v>56364.800000000003</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>70456</v>
+      </c>
+      <c r="K26" s="68">
+        <f t="shared" si="2"/>
+        <v>7.0456000000000005E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="G27" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="H27" s="60">
+        <v>1562889</v>
+      </c>
+      <c r="I27" s="47">
+        <f t="shared" si="1"/>
+        <v>625155.6</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>781444.49999999988</v>
+      </c>
+      <c r="K27" s="68">
+        <f t="shared" si="2"/>
+        <v>0.78144449999999988</v>
+      </c>
+    </row>
+    <row r="28" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="G28" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="H28" s="60">
+        <v>2796538</v>
+      </c>
+      <c r="I28" s="47">
+        <f t="shared" si="1"/>
+        <v>1118615.2</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>1398268.9999999998</v>
+      </c>
+      <c r="K28" s="68">
+        <f t="shared" si="2"/>
+        <v>1.3982689999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="G29" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="H29" s="60">
+        <v>6171342</v>
+      </c>
+      <c r="I29" s="47">
+        <f t="shared" si="1"/>
+        <v>2468536.7999999998</v>
+      </c>
+      <c r="J29">
+        <f>I29/$J$19</f>
+        <v>3085670.9999999995</v>
+      </c>
+      <c r="K29" s="68">
+        <f t="shared" si="2"/>
+        <v>3.0856709999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="J31" t="s">
+        <v>147</v>
+      </c>
+      <c r="K31" s="68">
+        <f>K29-K32</f>
+        <v>1.6874019999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="J32" t="s">
+        <v>148</v>
+      </c>
+      <c r="K32" s="68">
+        <f>K28</f>
+        <v>1.3982689999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
+        <v>124</v>
+      </c>
+      <c r="H34" t="s">
+        <v>125</v>
+      </c>
+      <c r="I34" t="s">
+        <v>126</v>
+      </c>
+      <c r="J34" t="s">
+        <v>127</v>
+      </c>
+      <c r="K34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
+        <v>129</v>
+      </c>
+      <c r="H35" t="s">
+        <v>130</v>
+      </c>
+      <c r="I35" t="s">
+        <v>131</v>
+      </c>
+      <c r="J35" t="s">
+        <v>132</v>
+      </c>
+      <c r="K35" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>134</v>
+      </c>
+      <c r="H36">
         <v>0</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="14" t="s">
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G37" t="s">
+        <v>135</v>
+      </c>
+      <c r="H37">
+        <v>88.496600000000001</v>
+      </c>
+      <c r="I37">
+        <v>0.18</v>
+      </c>
+      <c r="J37" s="27">
+        <v>74447</v>
+      </c>
+      <c r="K37">
+        <v>88.751000000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>136</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" s="27">
+        <v>2.4610000000000001E-3</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" s="27">
+        <v>2.4610000000000001E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>137</v>
+      </c>
+      <c r="H39" s="27">
+        <v>1.9258999999999999E-3</v>
+      </c>
+      <c r="I39" s="27">
+        <v>4.4684E-3</v>
+      </c>
+      <c r="J39">
+        <v>20.669899999999998</v>
+      </c>
+      <c r="K39" s="27">
+        <v>6.4149999999999997E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
+        <v>138</v>
+      </c>
+      <c r="H40">
+        <v>159.5924</v>
+      </c>
+      <c r="I40">
+        <v>0.34970000000000001</v>
+      </c>
+      <c r="J40" s="27">
+        <v>33237</v>
+      </c>
+      <c r="K40">
+        <v>159.97409999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>139</v>
+      </c>
+      <c r="H41" s="27">
+        <v>2.9445999999999999E-5</v>
+      </c>
+      <c r="I41" s="27">
+        <v>9.6167000000000006E-6</v>
+      </c>
+      <c r="J41">
+        <v>0.56030000000000002</v>
+      </c>
+      <c r="K41" s="27">
+        <v>3.9623000000000003E-5</v>
+      </c>
+    </row>
+    <row r="42" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G42" t="s">
+        <v>140</v>
+      </c>
+      <c r="H42">
+        <v>0.2049</v>
+      </c>
+      <c r="I42">
+        <v>0.80449999999999999</v>
+      </c>
+      <c r="J42" s="27">
+        <v>37569</v>
+      </c>
+      <c r="K42">
+        <v>1.0466</v>
+      </c>
+    </row>
+    <row r="43" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G43" t="s">
+        <v>141</v>
+      </c>
+      <c r="H43">
+        <v>248.29580000000001</v>
+      </c>
+      <c r="I43">
+        <v>1.3411999999999999</v>
+      </c>
+      <c r="J43" s="27">
+        <v>0.14527000000000001</v>
+      </c>
+      <c r="K43">
+        <v>249.78059999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G45">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G46" t="str">
+        <f>G34</f>
+        <v xml:space="preserve">              </v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" ref="H46:K46" si="3">H34</f>
+        <v xml:space="preserve">  Internal     </v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">    Switching     </v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">      Leakage     </v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">       Total     </v>
+      </c>
+    </row>
+    <row r="47" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G47" t="str">
+        <f t="shared" ref="G47:K54" si="4">G35</f>
+        <v xml:space="preserve">Power Group   </v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   Power       </v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">     Power        </v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">       Power      </v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">        Power    </v>
+      </c>
+    </row>
+    <row r="48" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G48" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">io_pad        </v>
+      </c>
+      <c r="H48">
+        <f t="shared" ref="H48:K48" si="5">H36*$G$45/$G$33</f>
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G49" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">memory        </v>
+      </c>
+      <c r="H49">
+        <f t="shared" ref="H49:K49" si="6">H37*$G$45/$G$33</f>
+        <v>442.483</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="6"/>
+        <v>0.9</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="6"/>
+        <v>372235</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="6"/>
+        <v>443.755</v>
+      </c>
+    </row>
+    <row r="50" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G50" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">black_box     </v>
+      </c>
+      <c r="H50">
+        <f t="shared" ref="H50:K50" si="7">H38*$G$45/$G$33</f>
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="7"/>
+        <v>1.2305000000000002E-2</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="7"/>
+        <v>1.2305000000000002E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G51" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">clock_network </v>
+      </c>
+      <c r="H51">
+        <f t="shared" ref="H51:K51" si="8">H39*$G$45/$G$33</f>
+        <v>9.6294999999999992E-3</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="8"/>
+        <v>2.2342000000000001E-2</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="8"/>
+        <v>103.34949999999999</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="8"/>
+        <v>3.2074999999999999E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G52" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">register      </v>
+      </c>
+      <c r="H52">
+        <f t="shared" ref="H52:K52" si="9">H40*$G$45/$G$33</f>
+        <v>797.96199999999999</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="9"/>
+        <v>1.7484999999999999</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="9"/>
+        <v>166185</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="9"/>
+        <v>799.87049999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G53" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sequential    </v>
+      </c>
+      <c r="H53">
+        <f t="shared" ref="H53:K53" si="10">H41*$G$45/$G$33</f>
+        <v>1.4723000000000001E-4</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="10"/>
+        <v>4.8083500000000001E-5</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="10"/>
+        <v>2.8015000000000003</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="10"/>
+        <v>1.9811500000000004E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G54" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">combinational </v>
+      </c>
+      <c r="H54">
+        <f t="shared" ref="H54:K55" si="11">H42*$G$45/$G$33</f>
+        <v>1.0245</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="11"/>
+        <v>4.0225</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="11"/>
+        <v>187845</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="11"/>
+        <v>5.2329999999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="H55">
+        <f t="shared" si="11"/>
+        <v>1241.479</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="11"/>
+        <v>6.7060000000000004</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="11"/>
+        <v>0.72635000000000005</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="11"/>
+        <v>1248.903</v>
+      </c>
+    </row>
+    <row r="58" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="H58">
+        <f>H55</f>
+        <v>1241.479</v>
+      </c>
+      <c r="I58">
+        <f>I55</f>
+        <v>6.7060000000000004</v>
+      </c>
+      <c r="J58">
+        <f>J55</f>
+        <v>0.72635000000000005</v>
+      </c>
+      <c r="K58">
+        <f>SUM(H58:J58)</f>
+        <v>1248.9113499999999</v>
+      </c>
+    </row>
+    <row r="59" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G59" t="s">
+        <v>149</v>
+      </c>
+      <c r="H59">
+        <f>H58</f>
+        <v>1241.479</v>
+      </c>
+      <c r="I59">
+        <f>H58</f>
+        <v>1241.479</v>
+      </c>
+      <c r="J59">
+        <f>J58</f>
+        <v>0.72635000000000005</v>
+      </c>
+      <c r="K59">
+        <f>SUM(H59:J59)</f>
+        <v>2483.68435</v>
+      </c>
+    </row>
+    <row r="61" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="I61">
         <v>2</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="P5" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="4:19">
-      <c r="D6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2">
-        <v>224</v>
-      </c>
-      <c r="F6" s="3">
-        <v>224</v>
-      </c>
-      <c r="G6" s="4">
-        <v>3</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="4"/>
-      <c r="L6" s="9">
-        <f>E6*F6*G6</f>
-        <v>150528</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="9"/>
-    </row>
-    <row r="7" spans="4:19">
-      <c r="D7" s="9"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="4"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="9"/>
-    </row>
-    <row r="8" spans="4:19">
-      <c r="D8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="2">
-        <v>55</v>
-      </c>
-      <c r="F8" s="3">
-        <v>55</v>
-      </c>
-      <c r="G8" s="4">
-        <v>32</v>
-      </c>
-      <c r="I8" s="2">
-        <v>11</v>
-      </c>
-      <c r="J8" s="4">
-        <v>11</v>
-      </c>
-      <c r="L8" s="9">
-        <f>E8*F8*G8</f>
-        <v>96800</v>
-      </c>
-      <c r="M8" s="2">
-        <f>IF(D8="Conv",I8*J8*G6,IF(D8="fully",I8*J8*G6,0))</f>
-        <v>363</v>
-      </c>
-      <c r="N8" s="3">
-        <f>IF(D8="conv",I8*J8*G6-1,IF(D8="fully",I8*J8*G6-1,0))</f>
-        <v>362</v>
-      </c>
-      <c r="O8" s="4">
-        <f>IF(D8="pool",I8*J8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="4">
-        <f>MAX(M8,N8)</f>
-        <v>363</v>
-      </c>
-      <c r="Q8" s="16">
-        <f>L8*(M8+N8+O8)</f>
-        <v>70180000</v>
-      </c>
-      <c r="R8" s="15">
-        <f>(O8+P8*2)*L8</f>
-        <v>70276800</v>
-      </c>
-      <c r="S8" s="1">
-        <f>J8*I8*G6*G8*E8*F8</f>
-        <v>35138400</v>
-      </c>
-    </row>
-    <row r="9" spans="4:19">
-      <c r="D9" s="9"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="4"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="15"/>
-    </row>
-    <row r="10" spans="4:19">
-      <c r="D10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="2">
-        <v>27</v>
-      </c>
-      <c r="F10" s="3">
-        <v>27</v>
-      </c>
-      <c r="G10" s="4">
-        <v>32</v>
-      </c>
-      <c r="I10" s="2">
-        <v>3</v>
-      </c>
-      <c r="J10" s="4">
-        <v>3</v>
-      </c>
-      <c r="L10" s="9">
-        <f>E10*F10*G10</f>
-        <v>23328</v>
-      </c>
-      <c r="M10" s="2">
-        <f>IF(D10="Conv",I10*J10*G8,IF(D10="fully",I10*J10*G8,0))</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <f>IF(D10="conv",I10*J10*G8-1,IF(D10="fully",I10*J10*G8-1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="4">
-        <f>IF(D10="pool",I10*J10,0)</f>
-        <v>9</v>
-      </c>
-      <c r="P10" s="4">
-        <f>MAX(M10,N10)</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="16">
-        <f>L10*(M10+N10+O10)</f>
-        <v>209952</v>
-      </c>
-      <c r="R10" s="15">
-        <f>(O10+P10*2)*L10</f>
-        <v>209952</v>
-      </c>
-      <c r="S10" s="1">
-        <f>J10*I10*G8*G10*E10*F10</f>
-        <v>6718464</v>
-      </c>
-    </row>
-    <row r="11" spans="4:19">
-      <c r="D11" s="9"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="4"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="15"/>
-    </row>
-    <row r="12" spans="4:19">
-      <c r="D12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="2">
-        <v>27</v>
-      </c>
-      <c r="F12" s="3">
-        <v>27</v>
-      </c>
-      <c r="G12" s="4">
-        <v>64</v>
-      </c>
-      <c r="I12" s="2">
-        <v>5</v>
-      </c>
-      <c r="J12" s="4">
-        <v>5</v>
-      </c>
-      <c r="L12" s="9">
-        <f>E12*F12*G12</f>
-        <v>46656</v>
-      </c>
-      <c r="M12" s="2">
-        <f>IF(D12="Conv",I12*J12*G10,IF(D12="fully",I12*J12*G10,0))</f>
-        <v>800</v>
-      </c>
-      <c r="N12" s="3">
-        <f>IF(D12="conv",I12*J12*G10-1,IF(D12="fully",I12*J12*G10-1,0))</f>
-        <v>799</v>
-      </c>
-      <c r="O12" s="4">
-        <f>IF(D12="pool",I12*J12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="4">
-        <f>MAX(M12,N12)</f>
-        <v>800</v>
-      </c>
-      <c r="Q12" s="16">
-        <f>L12*(M12+N12+O12)</f>
-        <v>74602944</v>
-      </c>
-      <c r="R12" s="15">
-        <f>(O12+P12*2)*L12</f>
-        <v>74649600</v>
-      </c>
-      <c r="S12" s="1">
-        <f>J12*I12*G10*G12*E12*F12</f>
-        <v>37324800</v>
-      </c>
-    </row>
-    <row r="13" spans="4:19">
-      <c r="D13" s="9"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="4"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="15"/>
-    </row>
-    <row r="14" spans="4:19">
-      <c r="D14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="2">
-        <v>13</v>
-      </c>
-      <c r="F14" s="3">
-        <v>13</v>
-      </c>
-      <c r="G14" s="4">
-        <v>64</v>
-      </c>
-      <c r="I14" s="2">
-        <v>3</v>
-      </c>
-      <c r="J14" s="4">
-        <v>3</v>
-      </c>
-      <c r="L14" s="9">
-        <f>E14*F14*G14</f>
-        <v>10816</v>
-      </c>
-      <c r="M14" s="2">
-        <f>IF(D14="Conv",I14*J14*G12,IF(D14="fully",I14*J14*G12,0))</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <f>IF(D14="conv",I14*J14*G12-1,IF(D14="fully",I14*J14*G12-1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="4">
-        <f>IF(D14="pool",I14*J14,0)</f>
-        <v>9</v>
-      </c>
-      <c r="P14" s="4">
-        <f>MAX(M14,N14)</f>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="16">
-        <f>L14*(M14+N14+O14)</f>
-        <v>97344</v>
-      </c>
-      <c r="R14" s="15">
-        <f>(O14+P14*2)*L14</f>
-        <v>97344</v>
-      </c>
-      <c r="S14" s="1">
-        <f>J14*I14*G12*G14*E14*F14</f>
-        <v>6230016</v>
-      </c>
-    </row>
-    <row r="15" spans="4:19">
-      <c r="D15" s="9"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="4"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="15"/>
-    </row>
-    <row r="16" spans="4:19">
-      <c r="D16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="2">
-        <v>13</v>
-      </c>
-      <c r="F16" s="3">
-        <v>13</v>
-      </c>
-      <c r="G16" s="4">
-        <v>96</v>
-      </c>
-      <c r="I16" s="2">
-        <v>3</v>
-      </c>
-      <c r="J16" s="4">
-        <v>3</v>
-      </c>
-      <c r="L16" s="9">
-        <f>E16*F16*G16</f>
-        <v>16224</v>
-      </c>
-      <c r="M16" s="2">
-        <f>IF(D16="Conv",I16*J16*G14,IF(D16="fully",I16*J16*G14,0))</f>
-        <v>576</v>
-      </c>
-      <c r="N16" s="3">
-        <f>IF(D16="conv",I16*J16*G14-1,IF(D16="fully",I16*J16*G14-1,0))</f>
-        <v>575</v>
-      </c>
-      <c r="O16" s="4">
-        <f>IF(D16="pool",I16*J16,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="4">
-        <f>MAX(M16,N16)</f>
-        <v>576</v>
-      </c>
-      <c r="Q16" s="16">
-        <f>L16*(M16+N16+O16)</f>
-        <v>18673824</v>
-      </c>
-      <c r="R16" s="15">
-        <f>(O16+P16*2)*L16</f>
-        <v>18690048</v>
-      </c>
-      <c r="S16" s="1">
-        <f>J16*I16*G14*G16*E16*F16</f>
-        <v>9345024</v>
-      </c>
-    </row>
-    <row r="17" spans="4:20">
-      <c r="D17" s="9"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="4"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="4"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="15"/>
-    </row>
-    <row r="18" spans="4:20">
-      <c r="D18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="2">
-        <v>13</v>
-      </c>
-      <c r="F18" s="3">
-        <v>13</v>
-      </c>
-      <c r="G18" s="4">
-        <v>96</v>
-      </c>
-      <c r="I18" s="2">
-        <v>3</v>
-      </c>
-      <c r="J18" s="4">
-        <v>3</v>
-      </c>
-      <c r="L18" s="9">
-        <f>E18*F18*G18</f>
-        <v>16224</v>
-      </c>
-      <c r="M18" s="2">
-        <f>IF(D18="Conv",I18*J18*G16,IF(D18="fully",I18*J18*G16,0))</f>
-        <v>864</v>
-      </c>
-      <c r="N18" s="3">
-        <f>IF(D18="conv",I18*J18*G16-1,IF(D18="fully",I18*J18*G16-1,0))</f>
-        <v>863</v>
-      </c>
-      <c r="O18" s="4">
-        <f>IF(D18="pool",I18*J18,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P18" s="4">
-        <f>MAX(M18,N18)</f>
-        <v>864</v>
-      </c>
-      <c r="Q18" s="16">
-        <f>L18*(M18+N18+O18)</f>
-        <v>28018848</v>
-      </c>
-      <c r="R18" s="15">
-        <f>(O18+P18*2)*L18</f>
-        <v>28035072</v>
-      </c>
-      <c r="S18" s="1">
-        <f>J18*I18*G16*G18*E18*F18</f>
-        <v>14017536</v>
-      </c>
-    </row>
-    <row r="19" spans="4:20">
-      <c r="D19" s="9"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="4"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="4"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="15"/>
-    </row>
-    <row r="20" spans="4:20">
-      <c r="D20" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="2">
-        <v>13</v>
-      </c>
-      <c r="F20" s="3">
-        <v>13</v>
-      </c>
-      <c r="G20" s="4">
-        <v>64</v>
-      </c>
-      <c r="I20" s="2">
-        <v>3</v>
-      </c>
-      <c r="J20" s="4">
-        <v>3</v>
-      </c>
-      <c r="L20" s="9">
-        <f>E20*F20*G20</f>
-        <v>10816</v>
-      </c>
-      <c r="M20" s="2">
-        <f>IF(D20="Conv",I20*J20*G16,IF(D20="fully",I20*J20*G16,0))</f>
-        <v>864</v>
-      </c>
-      <c r="N20" s="3">
-        <f>IF(D20="conv",I20*J20*G16-1,IF(D20="fully",I20*J20*G16-1,0))</f>
-        <v>863</v>
-      </c>
-      <c r="O20" s="4">
-        <f>IF(D20="pool",I20*J20,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P20" s="4">
-        <f>MAX(M20,N20)</f>
-        <v>864</v>
-      </c>
-      <c r="Q20" s="16">
-        <f>L20*(M20+N20+O20)</f>
-        <v>18679232</v>
-      </c>
-      <c r="R20" s="15">
-        <f>(O20+P20*2)*L20</f>
-        <v>18690048</v>
-      </c>
-      <c r="S20" s="1">
-        <f>J20*I20*G18*G20*E20*F20</f>
-        <v>9345024</v>
-      </c>
-    </row>
-    <row r="21" spans="4:20">
-      <c r="D21" s="9"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="4"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="4"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="15"/>
-    </row>
-    <row r="22" spans="4:20">
-      <c r="D22" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3">
-        <v>4096</v>
-      </c>
-      <c r="G22" s="4">
-        <v>1</v>
-      </c>
-      <c r="I22" s="2">
-        <v>13</v>
-      </c>
-      <c r="J22" s="4">
-        <v>13</v>
-      </c>
-      <c r="L22" s="9">
-        <f>E22*F22*G22</f>
-        <v>4096</v>
-      </c>
-      <c r="M22" s="2">
-        <f>IF(D22="Conv",I22*J22*G20,IF(D22="fully",I22*J22*G20,0))</f>
-        <v>10816</v>
-      </c>
-      <c r="N22" s="3">
-        <f>IF(D22="conv",I22*J22*G20-1,IF(D22="fully",I22*J22*G20-1,0))</f>
-        <v>10815</v>
-      </c>
-      <c r="O22" s="4">
-        <f>IF(D22="pool",I22*J22,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P22" s="4">
-        <f>MAX(M22,N22)</f>
-        <v>10816</v>
-      </c>
-      <c r="Q22" s="16">
-        <f>L22*(M22+N22+O22)</f>
-        <v>88600576</v>
-      </c>
-      <c r="R22" s="15">
-        <f>(O22+P22*2)*L22</f>
-        <v>88604672</v>
-      </c>
-      <c r="S22" s="1">
-        <f>IF(D22="fully",I22*J22*G20*E22*F22*G22,0)</f>
-        <v>44302336</v>
-      </c>
-    </row>
-    <row r="23" spans="4:20">
-      <c r="D23" s="9"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="4"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="4"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="15"/>
-    </row>
-    <row r="24" spans="4:20">
-      <c r="D24" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="2">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3">
-        <v>4096</v>
-      </c>
-      <c r="G24" s="4">
-        <v>1</v>
-      </c>
-      <c r="I24" s="2">
-        <v>64</v>
-      </c>
-      <c r="J24" s="4">
-        <v>64</v>
-      </c>
-      <c r="L24" s="9">
-        <f>E24*F24*G24</f>
-        <v>4096</v>
-      </c>
-      <c r="M24" s="2">
-        <f>IF(D24="Conv",I24*J24*G22,IF(D24="fully",I24*J24*G22,0))</f>
-        <v>4096</v>
-      </c>
-      <c r="N24" s="3">
-        <f>IF(D24="conv",I24*J24*G22-1,IF(D24="fully",I24*J24*G22-1,0))</f>
-        <v>4095</v>
-      </c>
-      <c r="O24" s="4">
-        <f>IF(D24="pool",I24*J24,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P24" s="4">
-        <f>MAX(M24,N24)</f>
-        <v>4096</v>
-      </c>
-      <c r="Q24" s="16">
-        <f>L24*(M24+N24+O24)</f>
-        <v>33550336</v>
-      </c>
-      <c r="R24" s="15">
-        <f>(O24+P24*2)*L24</f>
-        <v>33554432</v>
-      </c>
-      <c r="S24" s="1">
-        <f>IF(D24="fully",I24*J24*G22*E24*F24*G24,0)</f>
-        <v>16777216</v>
-      </c>
-    </row>
-    <row r="25" spans="4:20">
-      <c r="D25" s="9"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="4"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="4"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="15"/>
-    </row>
-    <row r="26" spans="4:20">
-      <c r="D26" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="5">
-        <v>32</v>
-      </c>
-      <c r="F26" s="6">
-        <v>32</v>
-      </c>
-      <c r="G26" s="7">
-        <v>1</v>
-      </c>
-      <c r="I26" s="5">
-        <v>64</v>
-      </c>
-      <c r="J26" s="7">
-        <v>64</v>
-      </c>
-      <c r="L26" s="10">
-        <f>E26*F26*G26</f>
-        <v>1024</v>
-      </c>
-      <c r="M26" s="5">
-        <f>IF(D26="Conv",I26*J26*G24,IF(D26="fully",I26*J26*G24,0))</f>
-        <v>4096</v>
-      </c>
-      <c r="N26" s="6">
-        <f>IF(D26="conv",I26*J26*G24-1,IF(D26="fully",I26*J26*G24-1,0))</f>
-        <v>4095</v>
-      </c>
-      <c r="O26" s="7">
-        <f>IF(D26="pool",I26*J26,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P26" s="7">
-        <f>MAX(M26,N26)</f>
-        <v>4096</v>
-      </c>
-      <c r="Q26" s="17">
-        <f>L26*(M26+N26+O26)</f>
-        <v>8387584</v>
-      </c>
-      <c r="R26" s="15">
-        <f>(O26+P26*2)*L26</f>
-        <v>8388608</v>
-      </c>
-      <c r="S26" s="1">
-        <f t="shared" ref="S26:S27" si="0">IF(D26="fully",I26*J26*G24*E26*F26*G26,0)</f>
-        <v>4194304</v>
-      </c>
-    </row>
-    <row r="27" spans="4:20">
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="4:20">
-      <c r="K28" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="L28" s="1">
-        <f>SUM(L8:L24)</f>
-        <v>229056</v>
-      </c>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="S28" s="1">
-        <f>SUM(S8:S26)</f>
-        <v>183393120</v>
-      </c>
-    </row>
-    <row r="29" spans="4:20">
-      <c r="L29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O29" s="1">
-        <f>SUM(O8:O26)</f>
-        <v>18</v>
-      </c>
-      <c r="P29" s="1">
-        <f>SUM(P8:P26)</f>
-        <v>22475</v>
-      </c>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="S29" s="22">
-        <f>S28*32/1000000000</f>
-        <v>5.8685798399999998</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="4:20">
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-    </row>
-    <row r="31" spans="4:20">
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-    </row>
-    <row r="32" spans="4:20">
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
-    </row>
-    <row r="33" spans="15:18">
-      <c r="Q33" s="15"/>
-      <c r="R33" s="15"/>
-    </row>
-    <row r="34" spans="15:18" ht="30">
-      <c r="O34" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="18">
-        <f>SUM(Q8:Q26)</f>
-        <v>341000640</v>
-      </c>
-      <c r="R34" s="15"/>
-    </row>
-    <row r="35" spans="15:18">
-      <c r="Q35" s="15"/>
-      <c r="R35" s="15"/>
-    </row>
-    <row r="36" spans="15:18">
-      <c r="O36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="15">
-        <f>SUM(R8:R26)</f>
-        <v>341196576</v>
-      </c>
-    </row>
-    <row r="37" spans="15:18" ht="30">
-      <c r="O37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P37" s="19">
-        <v>8</v>
-      </c>
-      <c r="Q37" s="15"/>
-    </row>
-    <row r="38" spans="15:18" ht="30">
-      <c r="O38" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="15">
-        <f>R36*P37</f>
-        <v>2729572608</v>
-      </c>
-    </row>
-    <row r="39" spans="15:18" ht="30">
-      <c r="O39" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P39" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="Q39" s="15"/>
-    </row>
-    <row r="40" spans="15:18">
-      <c r="O40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="15">
-        <f>R38*32/P39</f>
-        <v>8734632345600</v>
-      </c>
-    </row>
-    <row r="42" spans="15:18">
-      <c r="O42" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q42" s="15">
-        <f>Q34*P37/P39</f>
-        <v>272800512000</v>
+      <c r="J61" t="s">
+        <v>145</v>
+      </c>
+      <c r="K61">
+        <f>K59/I61</f>
+        <v>1241.842175</v>
+      </c>
+    </row>
+    <row r="63" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="J63" t="s">
+        <v>150</v>
+      </c>
+      <c r="K63">
+        <f>(K61/K29)*1000/G45</f>
+        <v>804.90899710306132</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="M4:O4"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -5285,263 +6045,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:L18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="E8:R33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="4:12">
-      <c r="H3">
-        <v>0.1</v>
-      </c>
-      <c r="I3" s="25">
-        <v>0.25</v>
-      </c>
-      <c r="J3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="4:12">
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="4:12">
-      <c r="D5">
-        <f>CNN!P28</f>
-        <v>772520</v>
-      </c>
-      <c r="E5">
-        <v>8</v>
-      </c>
-      <c r="F5">
-        <f>D5/E5</f>
-        <v>96565</v>
-      </c>
-      <c r="G5">
-        <v>0.25</v>
-      </c>
-      <c r="H5">
-        <f>G5*H3</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I5">
-        <f>F5*I3</f>
-        <v>24141.25</v>
-      </c>
-      <c r="J5">
-        <f>I5*J3</f>
-        <v>772520</v>
-      </c>
-      <c r="K5">
-        <f>I5*J3/H5/1000000</f>
-        <v>30.9008</v>
-      </c>
-      <c r="L5">
-        <f>K5*E5</f>
-        <v>247.2064</v>
-      </c>
-    </row>
-    <row r="7" spans="4:12" ht="75">
-      <c r="D7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="4:12">
-      <c r="D8">
-        <v>1500</v>
-      </c>
-      <c r="E8">
-        <f>D5*D8/1000000</f>
-        <v>1158.78</v>
-      </c>
-    </row>
-    <row r="10" spans="4:12">
-      <c r="H10">
-        <v>0.1</v>
-      </c>
-      <c r="I10" s="25">
-        <v>0.25</v>
-      </c>
-      <c r="J10">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="4:12">
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="4:12">
-      <c r="D12">
-        <v>250000</v>
-      </c>
-      <c r="E12">
-        <v>8</v>
-      </c>
-      <c r="F12">
-        <f>D12/E12</f>
-        <v>31250</v>
-      </c>
-      <c r="G12">
-        <v>0.25</v>
-      </c>
-      <c r="H12">
-        <f>G12*H10</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I12">
-        <f>F12*I10</f>
-        <v>7812.5</v>
-      </c>
-      <c r="J12">
-        <f>I12*J10</f>
-        <v>250000</v>
-      </c>
-      <c r="K12">
-        <f>I12*J10/H12/1000000</f>
-        <v>10</v>
-      </c>
-      <c r="L12">
-        <f>K12*E12</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="4:12" s="1" customFormat="1" ht="75">
-      <c r="D14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="4:12">
-      <c r="D15">
-        <v>2000</v>
-      </c>
-      <c r="E15">
-        <f>D12*D15</f>
-        <v>500000000</v>
-      </c>
-      <c r="F15">
-        <v>10</v>
-      </c>
-      <c r="G15" s="27">
-        <v>0.01</v>
-      </c>
-      <c r="H15">
-        <v>32</v>
-      </c>
-      <c r="I15" s="27">
-        <f>E15*F15/G15*H15</f>
-        <v>16000000000000</v>
-      </c>
-      <c r="J15">
-        <f>E15*F15*H15/1000000000</f>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5">
-      <c r="D17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5">
-      <c r="D18">
-        <f>1024*1024</f>
-        <v>1048576</v>
-      </c>
-      <c r="E18">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E8:R33"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="10.83203125" style="35"/>
     <col min="6" max="6" width="15.83203125" style="35" customWidth="1"/>
@@ -5553,20 +6064,20 @@
     <col min="18" max="18" width="10" style="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="5:10" ht="45">
+    <row r="8" spans="5:10" ht="48" x14ac:dyDescent="0.2">
       <c r="E8" s="38" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="5:10">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E9" s="37" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F9" s="44">
         <v>25.04</v>
@@ -5576,9 +6087,9 @@
         <v>35.055999999999997</v>
       </c>
     </row>
-    <row r="10" spans="5:10">
+    <row r="10" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E10" s="37" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F10" s="44">
         <v>26.4</v>
@@ -5588,9 +6099,9 @@
         <v>36.96</v>
       </c>
     </row>
-    <row r="11" spans="5:10">
+    <row r="11" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E11" s="37" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F11" s="44">
         <v>26.6</v>
@@ -5600,9 +6111,9 @@
         <v>37.24</v>
       </c>
     </row>
-    <row r="12" spans="5:10">
+    <row r="12" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E12" s="37" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F12" s="44">
         <v>28.93</v>
@@ -5612,9 +6123,9 @@
         <v>40.502000000000002</v>
       </c>
     </row>
-    <row r="13" spans="5:10">
+    <row r="13" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E13" s="37" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F13" s="44">
         <v>30.8</v>
@@ -5624,9 +6135,9 @@
         <v>43.12</v>
       </c>
     </row>
-    <row r="14" spans="5:10">
+    <row r="14" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E14" s="37" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F14" s="44">
         <v>32.08</v>
@@ -5636,9 +6147,9 @@
         <v>44.911999999999999</v>
       </c>
     </row>
-    <row r="15" spans="5:10">
+    <row r="15" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E15" s="37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F15" s="44">
         <v>27.7</v>
@@ -5648,9 +6159,9 @@
         <v>38.78</v>
       </c>
     </row>
-    <row r="16" spans="5:10">
+    <row r="16" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E16" s="37" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F16" s="44">
         <v>29.08</v>
@@ -5660,9 +6171,9 @@
         <v>40.712000000000003</v>
       </c>
     </row>
-    <row r="17" spans="5:18">
+    <row r="17" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E17" s="37" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F17" s="44">
         <v>30.9</v>
@@ -5672,9 +6183,9 @@
         <v>43.26</v>
       </c>
     </row>
-    <row r="18" spans="5:18">
+    <row r="18" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E18" s="37" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F18" s="44">
         <v>32.369999999999997</v>
@@ -5684,28 +6195,28 @@
         <v>45.317999999999998</v>
       </c>
     </row>
-    <row r="22" spans="5:18" s="59" customFormat="1" ht="51" customHeight="1">
-      <c r="E22" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="H22" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="I22" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="O22" s="60"/>
-      <c r="P22" s="60"/>
-      <c r="Q22" s="60"/>
-      <c r="R22" s="60"/>
-    </row>
-    <row r="23" spans="5:18">
+    <row r="22" spans="5:18" s="51" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E22" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+    </row>
+    <row r="23" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E23" s="37">
         <v>1</v>
       </c>
@@ -5713,7 +6224,7 @@
         <v>363</v>
       </c>
       <c r="G23" s="41" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H23" s="42">
         <f>DNN!Z8</f>
@@ -5727,20 +6238,20 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="24" spans="5:18">
+    <row r="24" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E24" s="37">
         <v>2</v>
       </c>
       <c r="F24" s="41">
         <v>4</v>
       </c>
-      <c r="G24" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-    </row>
-    <row r="25" spans="5:18">
+      <c r="G24" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="84"/>
+      <c r="I24" s="84"/>
+    </row>
+    <row r="25" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E25" s="37">
         <v>3</v>
       </c>
@@ -5748,7 +6259,7 @@
         <v>2400</v>
       </c>
       <c r="G25" s="41" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H25" s="42">
         <f>DNN!Z12</f>
@@ -5762,20 +6273,20 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="26" spans="5:18">
+    <row r="26" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E26" s="37">
         <v>4</v>
       </c>
       <c r="F26" s="41">
         <v>4</v>
       </c>
-      <c r="G26" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-    </row>
-    <row r="27" spans="5:18">
+      <c r="G26" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+    </row>
+    <row r="27" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E27" s="37">
         <v>5</v>
       </c>
@@ -5783,7 +6294,7 @@
         <v>2304</v>
       </c>
       <c r="G27" s="41" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H27" s="42">
         <f>DNN!Z16</f>
@@ -5797,7 +6308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="5:18">
+    <row r="28" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E28" s="37">
         <v>6</v>
       </c>
@@ -5805,7 +6316,7 @@
         <v>3456</v>
       </c>
       <c r="G28" s="41" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H28" s="42">
         <f>DNN!Z18</f>
@@ -5816,10 +6327,10 @@
         <v>3.1577071300296073</v>
       </c>
       <c r="K28" s="43" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="5:18">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E29" s="37">
         <v>7</v>
       </c>
@@ -5827,7 +6338,7 @@
         <v>3456</v>
       </c>
       <c r="G29" s="37" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H29" s="42">
         <f>DNN!Z20</f>
@@ -5841,7 +6352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="5:18">
+    <row r="30" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E30" s="37">
         <v>8</v>
       </c>
@@ -5849,7 +6360,7 @@
         <v>43264</v>
       </c>
       <c r="G30" s="41" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H30" s="42">
         <f>DNN!Z22</f>
@@ -5863,7 +6374,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="5:18">
+    <row r="31" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E31" s="37">
         <v>9</v>
       </c>
@@ -5871,7 +6382,7 @@
         <v>4096</v>
       </c>
       <c r="G31" s="41" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H31" s="42">
         <v>0.01</v>
@@ -5884,7 +6395,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="32" spans="5:18">
+    <row r="32" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E32" s="37">
         <v>10</v>
       </c>
@@ -5892,7 +6403,7 @@
         <v>4096</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H32" s="45">
         <f>DNN!Z26</f>
@@ -5906,22 +6417,22 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="33" spans="6:11">
+    <row r="33" spans="6:11" x14ac:dyDescent="0.2">
       <c r="F33" s="40" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G33" s="40" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H33" s="41" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I33" s="46">
         <f>I23+I25+SUM(I27:I32)</f>
         <v>29.666881090132502</v>
       </c>
       <c r="K33" s="43" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -5937,4 +6448,5244 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="D2:AP40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="17" width="10.83203125" style="1"/>
+    <col min="18" max="18" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="14.5" style="1" customWidth="1"/>
+    <col min="22" max="22" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="10.83203125" style="1"/>
+    <col min="27" max="27" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="10.83203125" style="1"/>
+    <col min="31" max="31" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="10.83203125" style="1"/>
+    <col min="34" max="34" width="30.1640625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="38" width="10.83203125" style="1"/>
+    <col min="39" max="39" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:33" ht="32" x14ac:dyDescent="0.2">
+      <c r="V2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA2" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC2" s="54">
+        <v>500000000</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="5:33" x14ac:dyDescent="0.2">
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE3" s="15">
+        <v>2200000000</v>
+      </c>
+    </row>
+    <row r="4" spans="5:33" ht="32" x14ac:dyDescent="0.2">
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE4" s="15">
+        <v>16000000000</v>
+      </c>
+    </row>
+    <row r="5" spans="5:33" ht="32" x14ac:dyDescent="0.2">
+      <c r="AC5" s="54"/>
+      <c r="AD5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE5" s="19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="5:33" ht="32" x14ac:dyDescent="0.2">
+      <c r="AC6" s="54"/>
+      <c r="AD6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE6" s="19">
+        <f>ROUNDUP(AE5/AE2,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="5:33" ht="32" x14ac:dyDescent="0.2">
+      <c r="AC7" s="54"/>
+      <c r="AD7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE7" s="15">
+        <f>AE5*AE3</f>
+        <v>132000000000</v>
+      </c>
+    </row>
+    <row r="8" spans="5:33" ht="32" x14ac:dyDescent="0.2">
+      <c r="AC8" s="54"/>
+      <c r="AD8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE8" s="15">
+        <f>AE6*AE4</f>
+        <v>64000000000</v>
+      </c>
+    </row>
+    <row r="9" spans="5:33" x14ac:dyDescent="0.2">
+      <c r="AC9" s="54"/>
+      <c r="AE9" s="15"/>
+    </row>
+    <row r="10" spans="5:33" x14ac:dyDescent="0.2">
+      <c r="AC10" s="54"/>
+      <c r="AE10" s="15"/>
+    </row>
+    <row r="11" spans="5:33" x14ac:dyDescent="0.2">
+      <c r="AC11" s="54"/>
+      <c r="AE11" s="15"/>
+    </row>
+    <row r="12" spans="5:33" x14ac:dyDescent="0.2">
+      <c r="AC12" s="54"/>
+    </row>
+    <row r="13" spans="5:33" x14ac:dyDescent="0.2">
+      <c r="AC13" s="54"/>
+    </row>
+    <row r="15" spans="5:33" x14ac:dyDescent="0.2">
+      <c r="N15" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="O15" s="85"/>
+      <c r="P15" s="79"/>
+      <c r="Q15" s="80"/>
+      <c r="X15" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y15" s="86"/>
+      <c r="Z15" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA15" s="87"/>
+      <c r="AC15" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="5:33" ht="80" x14ac:dyDescent="0.2">
+      <c r="E16" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="9"/>
+      <c r="N16" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="X16" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y16" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z16" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA16" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="4:42" x14ac:dyDescent="0.2">
+      <c r="D17" s="8"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="4"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="58"/>
+      <c r="T17" s="58"/>
+      <c r="U17" s="58"/>
+      <c r="V17" s="15"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="31"/>
+    </row>
+    <row r="18" spans="4:42" x14ac:dyDescent="0.2">
+      <c r="D18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2">
+        <v>7</v>
+      </c>
+      <c r="F18" s="3">
+        <v>7</v>
+      </c>
+      <c r="G18" s="4">
+        <v>512</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="4"/>
+      <c r="L18" s="9">
+        <f>E18*F18*G18</f>
+        <v>25088</v>
+      </c>
+      <c r="M18" s="9"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="58"/>
+      <c r="T18" s="58">
+        <f>L18*$Y$2</f>
+        <v>802816</v>
+      </c>
+      <c r="U18" s="58"/>
+      <c r="V18" s="15"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
+    </row>
+    <row r="19" spans="4:42" x14ac:dyDescent="0.2">
+      <c r="D19" s="9"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="4"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="58"/>
+      <c r="T19" s="58"/>
+      <c r="V19" s="15"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
+    </row>
+    <row r="20" spans="4:42" x14ac:dyDescent="0.2">
+      <c r="D20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>4096</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <f>E18</f>
+        <v>7</v>
+      </c>
+      <c r="J20" s="4">
+        <f>F18</f>
+        <v>7</v>
+      </c>
+      <c r="L20" s="9">
+        <f>E20*F20*G20</f>
+        <v>4096</v>
+      </c>
+      <c r="M20" s="9"/>
+      <c r="N20" s="2">
+        <f>IF(D20="Conv",I20*J20*G18,IF(D20="fully",I20*J20*G18,0))</f>
+        <v>25088</v>
+      </c>
+      <c r="O20" s="3">
+        <f>IF(D20="conv",I20*J20*G18-1,IF(D20="fully",I20*J20*G18-1,0))</f>
+        <v>25087</v>
+      </c>
+      <c r="P20" s="4">
+        <f>IF(D20="pool",I20*J20,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="4">
+        <f>MAX(N20,O20)</f>
+        <v>25088</v>
+      </c>
+      <c r="R20" s="16">
+        <f>L20*(N20+O20+P20)</f>
+        <v>205516800</v>
+      </c>
+      <c r="S20" s="58"/>
+      <c r="T20" s="58">
+        <f>L20*$Y$2</f>
+        <v>131072</v>
+      </c>
+      <c r="U20" s="58">
+        <f>E18*F18*G18*$Y$2</f>
+        <v>802816</v>
+      </c>
+      <c r="V20" s="15">
+        <f>IF(W2="Y",Q20*L20+L18,Q20*2*L20)</f>
+        <v>102785536</v>
+      </c>
+      <c r="W20" s="1">
+        <f>IF(D20="fully",I20*J20*G18*E20*F20*G20,0)</f>
+        <v>102760448</v>
+      </c>
+      <c r="X20" s="53">
+        <f>V20*$Y$2</f>
+        <v>3289137152</v>
+      </c>
+      <c r="Y20" s="31">
+        <f>L20*$Y$2</f>
+        <v>131072</v>
+      </c>
+      <c r="Z20" s="15">
+        <f>X20/$AA$2</f>
+        <v>32891371520</v>
+      </c>
+      <c r="AA20" s="15">
+        <f>Y20/$AA$2</f>
+        <v>1310720</v>
+      </c>
+      <c r="AC20" s="19">
+        <f>Z20/$AC$2</f>
+        <v>65.78274304</v>
+      </c>
+    </row>
+    <row r="21" spans="4:42" x14ac:dyDescent="0.2">
+      <c r="D21" s="9"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="4"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="58"/>
+      <c r="T21" s="58"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="15"/>
+      <c r="X21" s="31"/>
+      <c r="Y21" s="31"/>
+    </row>
+    <row r="22" spans="4:42" x14ac:dyDescent="0.2">
+      <c r="D22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4096</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2">
+        <f>E20</f>
+        <v>1</v>
+      </c>
+      <c r="J22" s="4">
+        <f>F20</f>
+        <v>4096</v>
+      </c>
+      <c r="L22" s="9">
+        <f>E22*F22*G22</f>
+        <v>4096</v>
+      </c>
+      <c r="M22" s="9"/>
+      <c r="N22" s="2">
+        <f>IF(D22="Conv",I22*J22*G20,IF(D22="fully",I22*J22*G20,0))</f>
+        <v>4096</v>
+      </c>
+      <c r="O22" s="3">
+        <f>IF(D22="conv",I22*J22*G20-1,IF(D22="fully",I22*J22*G20-1,0))</f>
+        <v>4095</v>
+      </c>
+      <c r="P22" s="4">
+        <f>IF(D22="pool",I22*J22,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="4">
+        <f>MAX(N22,O22)</f>
+        <v>4096</v>
+      </c>
+      <c r="R22" s="16">
+        <f>L22*(N22+O22+P22)</f>
+        <v>33550336</v>
+      </c>
+      <c r="S22" s="58"/>
+      <c r="T22" s="58">
+        <f>L22*$Y$2</f>
+        <v>131072</v>
+      </c>
+      <c r="U22" s="58">
+        <f>E20*F20*G20*$Y$2</f>
+        <v>131072</v>
+      </c>
+      <c r="V22" s="15">
+        <f>IF(W4="Y",Q22*L22+L20,Q22*2*L22)</f>
+        <v>33554432</v>
+      </c>
+      <c r="W22" s="1">
+        <f>IF(D22="fully",I22*J22*G20*E22*F22*G22,0)</f>
+        <v>16777216</v>
+      </c>
+      <c r="X22" s="53">
+        <f>V22*$Y$2</f>
+        <v>1073741824</v>
+      </c>
+      <c r="Y22" s="31">
+        <f>L22*$Y$2</f>
+        <v>131072</v>
+      </c>
+      <c r="Z22" s="15">
+        <f>X22/$AA$2</f>
+        <v>10737418240</v>
+      </c>
+      <c r="AA22" s="15">
+        <f>Y22/$AA$2</f>
+        <v>1310720</v>
+      </c>
+      <c r="AC22" s="19">
+        <f>Z22/$AC$2</f>
+        <v>21.47483648</v>
+      </c>
+    </row>
+    <row r="23" spans="4:42" x14ac:dyDescent="0.2">
+      <c r="D23" s="9"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="4"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="58"/>
+      <c r="T23" s="58"/>
+      <c r="U23" s="58"/>
+      <c r="V23" s="15"/>
+      <c r="X23" s="31"/>
+      <c r="Y23" s="31"/>
+      <c r="AK23" s="19">
+        <f>AC26</f>
+        <v>92.626288639999999</v>
+      </c>
+      <c r="AL23" s="19">
+        <f>AG26</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="4:42" x14ac:dyDescent="0.2">
+      <c r="D24" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1024</v>
+      </c>
+      <c r="G24" s="7">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5">
+        <f>E22</f>
+        <v>1</v>
+      </c>
+      <c r="J24" s="7">
+        <f>F22</f>
+        <v>4096</v>
+      </c>
+      <c r="L24" s="10">
+        <f>E24*F24*G24</f>
+        <v>1024</v>
+      </c>
+      <c r="M24" s="9"/>
+      <c r="N24" s="5">
+        <f>IF(D24="Conv",I24*J24*G22,IF(D24="fully",I24*J24*G22,0))</f>
+        <v>4096</v>
+      </c>
+      <c r="O24" s="6">
+        <f>IF(D24="conv",I24*J24*G22-1,IF(D24="fully",I24*J24*G22-1,0))</f>
+        <v>4095</v>
+      </c>
+      <c r="P24" s="7">
+        <f>IF(D24="pool",I24*J24,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="7">
+        <f>MAX(N24,O24)</f>
+        <v>4096</v>
+      </c>
+      <c r="R24" s="17">
+        <f>L24*(N24+O24+P24)</f>
+        <v>8387584</v>
+      </c>
+      <c r="S24" s="58"/>
+      <c r="T24" s="58">
+        <f>L24*$Y$2</f>
+        <v>32768</v>
+      </c>
+      <c r="U24" s="58">
+        <f>E22*F22*G22*$Y$2</f>
+        <v>131072</v>
+      </c>
+      <c r="V24" s="15">
+        <f>IF(W6="Y",Q24*L24+L22,Q24*2*L24)</f>
+        <v>8388608</v>
+      </c>
+      <c r="W24" s="1">
+        <f>IF(D24="fully",I24*J24*G22*E24*F24*G24,0)</f>
+        <v>4194304</v>
+      </c>
+      <c r="X24" s="53">
+        <f>V24*$Y$2</f>
+        <v>268435456</v>
+      </c>
+      <c r="Y24" s="31">
+        <f>L24*$Y$2</f>
+        <v>32768</v>
+      </c>
+      <c r="Z24" s="15">
+        <f>X24/$AA$2</f>
+        <v>2684354560</v>
+      </c>
+      <c r="AA24" s="15">
+        <f>Y24/$AA$2</f>
+        <v>327680</v>
+      </c>
+      <c r="AC24" s="19">
+        <f>Z24/$AC$2</f>
+        <v>5.3687091200000001</v>
+      </c>
+    </row>
+    <row r="25" spans="4:42" x14ac:dyDescent="0.2">
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+    </row>
+    <row r="26" spans="4:42" x14ac:dyDescent="0.2">
+      <c r="K26" s="20"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15">
+        <f>SUM(T20:T24)</f>
+        <v>294912</v>
+      </c>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15">
+        <f t="shared" ref="V26:AA26" si="0">SUM(V20:V24)</f>
+        <v>144728576</v>
+      </c>
+      <c r="W26" s="15">
+        <f t="shared" si="0"/>
+        <v>123731968</v>
+      </c>
+      <c r="X26" s="15">
+        <f t="shared" si="0"/>
+        <v>4631314432</v>
+      </c>
+      <c r="Y26" s="15">
+        <f t="shared" si="0"/>
+        <v>294912</v>
+      </c>
+      <c r="Z26" s="15">
+        <f t="shared" si="0"/>
+        <v>46313144320</v>
+      </c>
+      <c r="AA26" s="15">
+        <f t="shared" si="0"/>
+        <v>2949120</v>
+      </c>
+      <c r="AC26" s="19">
+        <f>Z26/$AC$2</f>
+        <v>92.626288639999999</v>
+      </c>
+      <c r="AE26" s="19">
+        <f>ROUNDUP(Z26/AE7,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AF26" s="19">
+        <f>ROUNDUP(X26/AE8,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AG26" s="19">
+        <f>MAX(AE26,AF26)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="4:42" x14ac:dyDescent="0.2">
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="22"/>
+      <c r="AM27" s="57">
+        <f>AA2*1000</f>
+        <v>100</v>
+      </c>
+      <c r="AN27" s="57">
+        <f>AC26</f>
+        <v>92.626288639999999</v>
+      </c>
+      <c r="AO27" s="57">
+        <f>AE26</f>
+        <v>1</v>
+      </c>
+      <c r="AP27" s="62">
+        <f>1/(AM27*0.001)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="4:42" x14ac:dyDescent="0.2">
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+    </row>
+    <row r="29" spans="4:42" x14ac:dyDescent="0.2">
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="AM29" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN29" s="90"/>
+      <c r="AO29" s="90"/>
+      <c r="AP29" s="80"/>
+    </row>
+    <row r="30" spans="4:42" ht="32" x14ac:dyDescent="0.2">
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15">
+        <f>W26*32</f>
+        <v>3959422976</v>
+      </c>
+      <c r="AH30" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI30" s="88"/>
+      <c r="AM30" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN30" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO30" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="AP30" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="4:42" x14ac:dyDescent="0.2">
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="AH31" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI31" s="56">
+        <f>AE3</f>
+        <v>2200000000</v>
+      </c>
+      <c r="AM31" s="55">
+        <v>10</v>
+      </c>
+      <c r="AN31" s="57">
+        <v>926.26288639999996</v>
+      </c>
+      <c r="AO31" s="55">
+        <v>4</v>
+      </c>
+      <c r="AP31" s="63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="4:42" x14ac:dyDescent="0.2">
+      <c r="P32" s="12"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="58"/>
+      <c r="T32" s="58"/>
+      <c r="U32" s="58"/>
+      <c r="V32" s="15"/>
+      <c r="AH32" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI32" s="56">
+        <f>AE4</f>
+        <v>16000000000</v>
+      </c>
+      <c r="AM32" s="63">
+        <v>16.666599999999999</v>
+      </c>
+      <c r="AN32" s="63">
+        <v>555.75995487981959</v>
+      </c>
+      <c r="AO32" s="64">
+        <v>3</v>
+      </c>
+      <c r="AP32" s="63">
+        <v>60.000240000960005</v>
+      </c>
+    </row>
+    <row r="33" spans="17:42" x14ac:dyDescent="0.2">
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="15"/>
+      <c r="AH33" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI33" s="57">
+        <f>AE5</f>
+        <v>60</v>
+      </c>
+      <c r="AM33" s="57">
+        <v>33.333300000000001</v>
+      </c>
+      <c r="AN33" s="57">
+        <v>277.87914379914378</v>
+      </c>
+      <c r="AO33" s="55">
+        <v>2</v>
+      </c>
+      <c r="AP33" s="63">
+        <v>30.000030000029998</v>
+      </c>
+    </row>
+    <row r="34" spans="17:42" x14ac:dyDescent="0.2">
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="15"/>
+      <c r="AH34" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI34" s="57">
+        <f>AE6</f>
+        <v>4</v>
+      </c>
+      <c r="AM34" s="55">
+        <v>100</v>
+      </c>
+      <c r="AN34" s="57">
+        <v>92.626288639999999</v>
+      </c>
+      <c r="AO34" s="55">
+        <v>1</v>
+      </c>
+      <c r="AP34" s="63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="17:42" x14ac:dyDescent="0.2">
+      <c r="Q35" s="19"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+      <c r="AH35" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI35" s="56">
+        <f>AE8</f>
+        <v>64000000000</v>
+      </c>
+    </row>
+    <row r="36" spans="17:42" x14ac:dyDescent="0.2">
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="15"/>
+      <c r="V36" s="15"/>
+      <c r="W36" s="1">
+        <f>6*60</f>
+        <v>360</v>
+      </c>
+      <c r="AH36" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI36" s="56">
+        <f>AE7</f>
+        <v>132000000000</v>
+      </c>
+    </row>
+    <row r="37" spans="17:42" x14ac:dyDescent="0.2">
+      <c r="Q37" s="15"/>
+      <c r="R37" s="15"/>
+      <c r="S37" s="15"/>
+      <c r="T37" s="15"/>
+      <c r="U37" s="15"/>
+    </row>
+    <row r="38" spans="17:42" x14ac:dyDescent="0.2">
+      <c r="R38" s="15"/>
+      <c r="S38" s="15"/>
+      <c r="T38" s="15"/>
+      <c r="U38" s="15"/>
+      <c r="V38" s="15"/>
+    </row>
+    <row r="40" spans="17:42" x14ac:dyDescent="0.2">
+      <c r="R40" s="15"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="15"/>
+      <c r="U40" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AH30:AI30"/>
+    <mergeCell ref="AM29:AP29"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="D4:AB42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA8" sqref="AA8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="10.83203125" style="67"/>
+    <col min="5" max="7" width="11" style="67" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.83203125" style="67"/>
+    <col min="10" max="12" width="11" style="67" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="72" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="11" style="67" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" style="72" customWidth="1"/>
+    <col min="20" max="24" width="11" style="67" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.6640625" style="67" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12" style="67" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="11" style="67" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.6640625" style="67" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="10.83203125" style="67"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:28" ht="32" x14ac:dyDescent="0.2">
+      <c r="T4" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="U4" s="78"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="3"/>
+      <c r="Z4" s="67" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA4" s="67" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="4:28" ht="32" x14ac:dyDescent="0.2">
+      <c r="E5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="67" t="s">
+        <v>151</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="U5" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="V5" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="W5" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="X5" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y5" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA5" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB5" s="67" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1280</v>
+      </c>
+      <c r="F6" s="3">
+        <v>720</v>
+      </c>
+      <c r="G6" s="4">
+        <v>3</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="9">
+        <f>E6*F6*G6</f>
+        <v>2764800</v>
+      </c>
+      <c r="Q6" s="9">
+        <f>E6*F6*G6</f>
+        <v>2764800</v>
+      </c>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="9"/>
+    </row>
+    <row r="7" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D7" s="9"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="75"/>
+      <c r="X7" s="75"/>
+      <c r="Y7" s="9"/>
+    </row>
+    <row r="8" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <f>IF($D8="conv",CEILING(E6/$J8,1),CEILING(E6/K8,1))</f>
+        <v>320</v>
+      </c>
+      <c r="F8" s="3">
+        <f>IF($D8="conv",CEILING(F6/$J8,1),CEILING(F6/L8,1))</f>
+        <v>180</v>
+      </c>
+      <c r="G8" s="4">
+        <v>96</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="67">
+        <v>4</v>
+      </c>
+      <c r="K8" s="2">
+        <v>11</v>
+      </c>
+      <c r="L8" s="4">
+        <v>11</v>
+      </c>
+      <c r="M8" s="3">
+        <f>G6</f>
+        <v>3</v>
+      </c>
+      <c r="N8" s="3">
+        <f>K8*L8*G6</f>
+        <v>363</v>
+      </c>
+      <c r="O8" s="9">
+        <f>E8*F8*G8</f>
+        <v>5529600</v>
+      </c>
+      <c r="Q8" s="9">
+        <f>E8*F8*G8</f>
+        <v>5529600</v>
+      </c>
+      <c r="R8" s="2">
+        <f>G8</f>
+        <v>96</v>
+      </c>
+      <c r="S8" s="2"/>
+      <c r="T8" s="73">
+        <f>IF($D8="conv",K8*L8*G6*G8,(IF($D8="fully",E6*F6*G6*E8*F8*G8,0)))</f>
+        <v>34848</v>
+      </c>
+      <c r="U8" s="58">
+        <f>IF(D8="Conv",K8*L8*M8*E8*F8*G8,IF(D8="fully",K8*L8*G6*E8*F8,0))</f>
+        <v>2007244800</v>
+      </c>
+      <c r="V8" s="58">
+        <f>IF(D8="conv",K8*L8*M8*E8*F8*G8-1,IF(D8="fully",K8*L8*G6*E8*F8-1,(IF($D8="pool",K8*L8*E8*F8*G8,0))))</f>
+        <v>2007244799</v>
+      </c>
+      <c r="W8" s="75">
+        <f>IF(D8="pool",K8*L8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="75">
+        <f>U8+V8</f>
+        <v>4014489599</v>
+      </c>
+      <c r="Y8" s="16">
+        <f>(U8+V8+W8)</f>
+        <v>4014489599</v>
+      </c>
+      <c r="AA8" s="15">
+        <f>IF($D8="conv",$G8*($K8*$L8*$M8+$K8*$L8*$M8+($K8-$J8)*($L8-$J8)*$M8*($E8-1)*($F8-1)),IF($D8="pool",$K8*$L8*$E8*$F8*$G8,IF($D8="fully",$E6*$F6*$G6*$E8*$F8*$G8,(IF($D8="ae",$G8*($K8*$L8*$M8*$E8*$F8+$K8*$L8*$M8+($K8-$J8)*($L8-$J8)*$M8*($E8-1)*($F8-1)),0)))))</f>
+        <v>805879008</v>
+      </c>
+      <c r="AB8" s="15">
+        <f>IF($D8="conv",$G8*$E8*$F8,IF($D8="pool",$G8*$E8*$F8,IF($D8="fully",$G8*$E8*$F8,0)))</f>
+        <v>5529600</v>
+      </c>
+    </row>
+    <row r="9" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D9" s="9"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="75"/>
+      <c r="X9" s="75"/>
+      <c r="Y9" s="16"/>
+      <c r="AA9" s="15"/>
+    </row>
+    <row r="10" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3">
+        <f>IF($D10="conv",CEILING(E8/$J10,1),CEILING(E8/K10,1))</f>
+        <v>160</v>
+      </c>
+      <c r="F10" s="3">
+        <f>IF($D10="conv",CEILING(F8/$J10,1),CEILING(F8/L10,1))</f>
+        <v>90</v>
+      </c>
+      <c r="G10" s="4">
+        <v>96</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="67">
+        <v>2</v>
+      </c>
+      <c r="K10" s="2">
+        <v>2</v>
+      </c>
+      <c r="L10" s="4">
+        <v>2</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3">
+        <f>K10*L10*G8</f>
+        <v>384</v>
+      </c>
+      <c r="O10" s="9">
+        <f>E10*F10*G10</f>
+        <v>1382400</v>
+      </c>
+      <c r="Q10" s="9">
+        <f>E10*F10*G10</f>
+        <v>1382400</v>
+      </c>
+      <c r="R10" s="2">
+        <f t="shared" ref="R10:R22" si="0">G10</f>
+        <v>96</v>
+      </c>
+      <c r="S10" s="2"/>
+      <c r="T10" s="73">
+        <f>IF($D10="conv",K10*L10*G8*G10,(IF($D10="fully",E8*F8*G8*E10*F10*G10,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="58">
+        <f>IF(D10="Conv",K10*L10*M10*E10*F10*G10,IF(D10="fully",K10*L10*G8*E10*F10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="58">
+        <f>IF(D10="conv",K10*L10*M10*E10*F10*G10-1,IF(D10="fully",K10*L10*G8*E10*F10-1,(IF($D10="pool",K10*L10*E10*F10*G10,0))))</f>
+        <v>5529600</v>
+      </c>
+      <c r="W10" s="75">
+        <f>IF(D10="pool",E10*F10*G10,0)</f>
+        <v>1382400</v>
+      </c>
+      <c r="X10" s="75">
+        <f>U10+V10</f>
+        <v>5529600</v>
+      </c>
+      <c r="Y10" s="16">
+        <f>(U10+V10+W10)</f>
+        <v>6912000</v>
+      </c>
+      <c r="AA10" s="15">
+        <f>IF($D10="conv",$G10*($K10*$L10*$M10+$K10*$L10*$M10+($K10-$J10)*($L10-$J10)*$M10*($E10-1)*($F10-1)),IF($D10="pool",$K10*$L10*$E10*$F10*$G10,IF($D10="fully",$E8*$F8*$G8*$E10*$F10*$G10,(IF($D10="ae",$G10*($K10*$L10*$M10*$E10*$F10+$K10*$L10*$M10+($K10-$J10)*($L10-$J10)*$M10*($E10-1)*($F10-1)),0)))))</f>
+        <v>5529600</v>
+      </c>
+      <c r="AB10" s="15">
+        <f>IF($D10="conv",$G10*$E10*$F10,IF($D10="pool",$G10*$E10*$F10,IF($D10="fully",$G10*$E10*$F10,0)))</f>
+        <v>1382400</v>
+      </c>
+    </row>
+    <row r="11" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D11" s="9"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="73"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="75"/>
+      <c r="X11" s="75"/>
+      <c r="Y11" s="16"/>
+      <c r="AA11" s="15"/>
+    </row>
+    <row r="12" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="3">
+        <f>IF($D12="conv",CEILING(E10/$J12,1),CEILING(E10/K12,1))</f>
+        <v>40</v>
+      </c>
+      <c r="F12" s="3">
+        <f>IF($D12="conv",CEILING(F10/$J12,1),CEILING(F10/L12,1))</f>
+        <v>23</v>
+      </c>
+      <c r="G12" s="4">
+        <v>256</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="67">
+        <v>4</v>
+      </c>
+      <c r="K12" s="2">
+        <v>5</v>
+      </c>
+      <c r="L12" s="4">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3">
+        <f>G10</f>
+        <v>96</v>
+      </c>
+      <c r="N12" s="3">
+        <f>K12*L12*G10</f>
+        <v>2400</v>
+      </c>
+      <c r="O12" s="9">
+        <f>E12*F12*G12</f>
+        <v>235520</v>
+      </c>
+      <c r="Q12" s="9">
+        <f>E12*F12*G12</f>
+        <v>235520</v>
+      </c>
+      <c r="R12" s="2">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+      <c r="S12" s="2"/>
+      <c r="T12" s="73">
+        <f>IF($D12="conv",K12*L12*G10*G12,(IF($D12="fully",E10*F10*G10*E12*F12*G12,0)))</f>
+        <v>614400</v>
+      </c>
+      <c r="U12" s="58">
+        <f>IF(D12="Conv",K12*L12*M12*E12*F12*G12,IF(D12="fully",K12*L12*G10*E12*F12,0))</f>
+        <v>565248000</v>
+      </c>
+      <c r="V12" s="58">
+        <f>IF(D12="conv",K12*L12*M12*E12*F12*G12-1,IF(D12="fully",K12*L12*G10*E12*F12-1,(IF($D12="pool",K12*L12*E12*F12*G12,0))))</f>
+        <v>565247999</v>
+      </c>
+      <c r="W12" s="75">
+        <f>IF(D12="pool",K12*L12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="75">
+        <f>U12+V12</f>
+        <v>1130495999</v>
+      </c>
+      <c r="Y12" s="16">
+        <f>(U12+V12+W12)</f>
+        <v>1130495999</v>
+      </c>
+      <c r="AA12" s="15">
+        <f>IF($D12="conv",$G12*($K12*$L12*$M12+$K12*$L12*$M12+($K12-$J12)*($L12-$J12)*$M12*($E12-1)*($F12-1)),IF($D12="pool",$K12*$L12*$E12*$F12*$G12,IF($D12="fully",$E10*$F10*$G10*$E12*$F12*$G12,(IF($D12="ae",$G12*($K12*$L12*$M12*$E12*$F12+$K12*$L12*$M12+($K12-$J12)*($L12-$J12)*$M12*($E12-1)*($F12-1)),0)))))</f>
+        <v>22315008</v>
+      </c>
+      <c r="AB12" s="15">
+        <f>IF($D12="conv",$G12*$E12*$F12,IF($D12="pool",$G12*$E12*$F12,IF($D12="fully",$G12*$E12*$F12,0)))</f>
+        <v>235520</v>
+      </c>
+    </row>
+    <row r="13" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D13" s="9"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="75"/>
+      <c r="X13" s="75"/>
+      <c r="Y13" s="16"/>
+      <c r="AA13" s="15"/>
+    </row>
+    <row r="14" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="3">
+        <f>IF($D14="conv",CEILING(E12/$J14,1),CEILING(E12/K14,1))</f>
+        <v>20</v>
+      </c>
+      <c r="F14" s="3">
+        <f>IF($D14="conv",CEILING(F12/$J14,1),CEILING(F12/L14,1))</f>
+        <v>12</v>
+      </c>
+      <c r="G14" s="4">
+        <v>256</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="67">
+        <v>2</v>
+      </c>
+      <c r="K14" s="2">
+        <v>2</v>
+      </c>
+      <c r="L14" s="4">
+        <v>2</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1</v>
+      </c>
+      <c r="N14" s="3">
+        <f>K14*L14*G12</f>
+        <v>1024</v>
+      </c>
+      <c r="O14" s="9">
+        <f>E14*F14*G14</f>
+        <v>61440</v>
+      </c>
+      <c r="Q14" s="9">
+        <f>E14*F14*G14</f>
+        <v>61440</v>
+      </c>
+      <c r="R14" s="2">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+      <c r="S14" s="2"/>
+      <c r="T14" s="73">
+        <f>IF($D14="conv",K14*L14*G12*G14,(IF($D14="fully",E12*F12*G12*E14*F14*G14,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="58">
+        <f>IF(D14="Conv",K14*L14*M14*E14*F14*G14,IF(D14="fully",K14*L14*G12*E14*F14,0))</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="58">
+        <f>IF(D14="conv",K14*L14*M14*E14*F14*G14-1,IF(D14="fully",K14*L14*G12*E14*F14-1,(IF($D14="pool",K14*L14*E14*F14*G14,0))))</f>
+        <v>245760</v>
+      </c>
+      <c r="W14" s="75">
+        <f>IF(D14="pool",E14*F14*G14,0)</f>
+        <v>61440</v>
+      </c>
+      <c r="X14" s="75">
+        <f>U14+V14</f>
+        <v>245760</v>
+      </c>
+      <c r="Y14" s="16">
+        <f>(U14+V14+W14)</f>
+        <v>307200</v>
+      </c>
+      <c r="AA14" s="15">
+        <f>IF($D14="conv",$G14*($K14*$L14*$M14+$K14*$L14*$M14+($K14-$J14)*($L14-$J14)*$M14*($E14-1)*($F14-1)),IF($D14="pool",$K14*$L14*$E14*$F14*$G14,IF($D14="fully",$E12*$F12*$G12*$E14*$F14*$G14,(IF($D14="ae",$G14*($K14*$L14*$M14*$E14*$F14+$K14*$L14*$M14+($K14-$J14)*($L14-$J14)*$M14*($E14-1)*($F14-1)),0)))))</f>
+        <v>245760</v>
+      </c>
+      <c r="AB14" s="15">
+        <f>IF($D14="conv",$G14*$E14*$F14,IF($D14="pool",$G14*$E14*$F14,IF($D14="fully",$G14*$E14*$F14,0)))</f>
+        <v>61440</v>
+      </c>
+    </row>
+    <row r="15" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D15" s="9"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="73"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="75"/>
+      <c r="X15" s="75"/>
+      <c r="Y15" s="16"/>
+      <c r="AA15" s="15"/>
+    </row>
+    <row r="16" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="3">
+        <f>IF($D16="conv",CEILING(E14/$J16,1),CEILING(E14/K16,1))</f>
+        <v>10</v>
+      </c>
+      <c r="F16" s="3">
+        <f>IF($D16="conv",CEILING(F14/$J16,1),CEILING(F14/L16,1))</f>
+        <v>6</v>
+      </c>
+      <c r="G16" s="4">
+        <v>384</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="67">
+        <v>2</v>
+      </c>
+      <c r="K16" s="2">
+        <v>3</v>
+      </c>
+      <c r="L16" s="4">
+        <v>3</v>
+      </c>
+      <c r="M16" s="3">
+        <f>G14</f>
+        <v>256</v>
+      </c>
+      <c r="N16" s="3">
+        <f>K16*L16*G14</f>
+        <v>2304</v>
+      </c>
+      <c r="O16" s="9">
+        <f>E16*F16*G16</f>
+        <v>23040</v>
+      </c>
+      <c r="Q16" s="9">
+        <f>E16*F16*G16</f>
+        <v>23040</v>
+      </c>
+      <c r="R16" s="2">
+        <f t="shared" si="0"/>
+        <v>384</v>
+      </c>
+      <c r="S16" s="2"/>
+      <c r="T16" s="73">
+        <f>IF($D16="conv",K16*L16*G14*G16,(IF($D16="fully",E14*F14*G14*E16*F16*G16,0)))</f>
+        <v>884736</v>
+      </c>
+      <c r="U16" s="58">
+        <f>IF(D16="Conv",K16*L16*M16*E16*F16*G16,IF(D16="fully",K16*L16*G14*E16*F16,0))</f>
+        <v>53084160</v>
+      </c>
+      <c r="V16" s="58">
+        <f>IF(D16="conv",K16*L16*M16*E16*F16*G16-1,IF(D16="fully",K16*L16*G14*E16*F16-1,(IF($D16="pool",K16*L16*E16*F16*G16,0))))</f>
+        <v>53084159</v>
+      </c>
+      <c r="W16" s="75">
+        <f>IF(D16="pool",K16*L16,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X16" s="75">
+        <f>U16+V16</f>
+        <v>106168319</v>
+      </c>
+      <c r="Y16" s="16">
+        <f>(U16+V16+W16)</f>
+        <v>106168319</v>
+      </c>
+      <c r="AA16" s="15">
+        <f>IF($D16="conv",$G16*($K16*$L16*$M16+$K16*$L16*$M16+($K16-$J16)*($L16-$J16)*$M16*($E16-1)*($F16-1)),IF($D16="pool",$K16*$L16*$E16*$F16*$G16,IF($D16="fully",$E14*$F14*$G14*$E16*$F16*$G16,(IF($D16="ae",$G16*($K16*$L16*$M16*$E16*$F16+$K16*$L16*$M16+($K16-$J16)*($L16-$J16)*$M16*($E16-1)*($F16-1)),0)))))</f>
+        <v>6193152</v>
+      </c>
+      <c r="AB16" s="15">
+        <f>IF($D16="conv",$G16*$E16*$F16,IF($D16="pool",$G16*$E16*$F16,IF($D16="fully",$G16*$E16*$F16,0)))</f>
+        <v>23040</v>
+      </c>
+    </row>
+    <row r="17" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D17" s="9"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="73"/>
+      <c r="U17" s="58"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="75"/>
+      <c r="X17" s="75"/>
+      <c r="Y17" s="16"/>
+      <c r="AA17" s="15"/>
+    </row>
+    <row r="18" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4096</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="K18" s="2">
+        <f>E16</f>
+        <v>10</v>
+      </c>
+      <c r="L18" s="4">
+        <f>F16</f>
+        <v>6</v>
+      </c>
+      <c r="M18" s="3">
+        <f>G16</f>
+        <v>384</v>
+      </c>
+      <c r="N18" s="3">
+        <f>K18*L18*G16</f>
+        <v>23040</v>
+      </c>
+      <c r="O18" s="9">
+        <f>E18*F18*G18</f>
+        <v>4096</v>
+      </c>
+      <c r="Q18" s="9">
+        <f>E18*F18*G18</f>
+        <v>4096</v>
+      </c>
+      <c r="R18" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S18" s="2"/>
+      <c r="T18" s="73">
+        <f>IF($D18="conv",K18*L18*G16*G18,(IF($D18="fully",E16*F16*G16*E18*F18*G18,0)))</f>
+        <v>94371840</v>
+      </c>
+      <c r="U18" s="58">
+        <f>IF(D18="Conv",K18*L18*M18*E18*F18*G18,IF(D18="fully",K18*L18*G16*E18*F18,0))</f>
+        <v>94371840</v>
+      </c>
+      <c r="V18" s="58">
+        <f>IF(D18="conv",K18*L18*M18*E18*F18*G18-1,IF(D18="fully",K18*L18*G16*E18*F18-1,(IF($D18="pool",K18*L18*E18*F18*G18,0))))</f>
+        <v>94371839</v>
+      </c>
+      <c r="W18" s="75">
+        <f>IF(D18="pool",K18*L18,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X18" s="75">
+        <f>U18+V18</f>
+        <v>188743679</v>
+      </c>
+      <c r="Y18" s="16">
+        <f>(U18+V18+W18)</f>
+        <v>188743679</v>
+      </c>
+      <c r="AA18" s="15">
+        <f>IF($D18="conv",$G18*($K18*$L18*$M18+$K18*$L18*$M18+($K18-$J18)*($L18-$J18)*$M18*($E18-1)*($F18-1)),IF($D18="pool",$K18*$L18*$E18*$F18*$G18,IF($D18="fully",$E16*$F16*$G16*$E18*$F18*$G18,(IF($D18="ae",$G18*($K18*$L18*$M18*$E18*$F18+$K18*$L18*$M18+($K18-$J18)*($L18-$J18)*$M18*($E18-1)*($F18-1)),0)))))</f>
+        <v>94371840</v>
+      </c>
+      <c r="AB18" s="15">
+        <f>IF($D18="conv",$G18*$E18*$F18,IF($D18="pool",$G18*$E18*$F18,IF($D18="fully",$G18*$E18*$F18,0)))</f>
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="19" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D19" s="9"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="73"/>
+      <c r="U19" s="58"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="75"/>
+      <c r="X19" s="75"/>
+      <c r="Y19" s="16"/>
+      <c r="AA19" s="15"/>
+    </row>
+    <row r="20" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>4096</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+      <c r="L20" s="4">
+        <v>4096</v>
+      </c>
+      <c r="M20" s="3">
+        <f>G18</f>
+        <v>1</v>
+      </c>
+      <c r="N20" s="3">
+        <f>K20*L20*G18</f>
+        <v>4096</v>
+      </c>
+      <c r="O20" s="9">
+        <f>E20*F20*G20</f>
+        <v>4096</v>
+      </c>
+      <c r="Q20" s="9">
+        <f>E20*F20*G20</f>
+        <v>4096</v>
+      </c>
+      <c r="R20" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S20" s="2"/>
+      <c r="T20" s="73">
+        <f>IF($D20="conv",K20*L20*G18*G20,(IF($D20="fully",E18*F18*G18*E20*F20*G20,0)))</f>
+        <v>16777216</v>
+      </c>
+      <c r="U20" s="58">
+        <f>IF(D20="Conv",K20*L20*M20*E20*F20*G20,IF(D20="fully",K20*L20*G18*E20*F20,0))</f>
+        <v>16777216</v>
+      </c>
+      <c r="V20" s="58">
+        <f>IF(D20="conv",K20*L20*M20*E20*F20*G20-1,IF(D20="fully",K20*L20*G18*E20*F20-1,(IF($D20="pool",K20*L20*E20*F20*G20,0))))</f>
+        <v>16777215</v>
+      </c>
+      <c r="W20" s="75">
+        <f>IF(D20="pool",K20*L20,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X20" s="75">
+        <f>U20+V20</f>
+        <v>33554431</v>
+      </c>
+      <c r="Y20" s="16">
+        <f>(U20+V20+W20)</f>
+        <v>33554431</v>
+      </c>
+      <c r="AA20" s="15">
+        <f>IF($D20="conv",$G20*($K20*$L20*$M20+$K20*$L20*$M20+($K20-$J20)*($L20-$J20)*$M20*($E20-1)*($F20-1)),IF($D20="pool",$K20*$L20*$E20*$F20*$G20,IF($D20="fully",$E18*$F18*$G18*$E20*$F20*$G20,(IF($D20="ae",$G20*($K20*$L20*$M20*$E20*$F20+$K20*$L20*$M20+($K20-$J20)*($L20-$J20)*$M20*($E20-1)*($F20-1)),0)))))</f>
+        <v>16777216</v>
+      </c>
+      <c r="AB20" s="15">
+        <f>IF($D20="conv",$G20*$E20*$F20,IF($D20="pool",$G20*$E20*$F20,IF($D20="fully",$G20*$E20*$F20,0)))</f>
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="21" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D21" s="9"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="73"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="58"/>
+      <c r="W21" s="75"/>
+      <c r="X21" s="75"/>
+      <c r="Y21" s="16"/>
+      <c r="AA21" s="15"/>
+    </row>
+    <row r="22" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1000</v>
+      </c>
+      <c r="G22" s="7">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="K22" s="5">
+        <v>1</v>
+      </c>
+      <c r="L22" s="7">
+        <v>4096</v>
+      </c>
+      <c r="M22" s="3">
+        <f>G20</f>
+        <v>1</v>
+      </c>
+      <c r="N22" s="3">
+        <f>K22*L22*G20</f>
+        <v>4096</v>
+      </c>
+      <c r="O22" s="10">
+        <f>E22*F22*G22</f>
+        <v>1000</v>
+      </c>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="10">
+        <f>E22*F22*G22</f>
+        <v>1000</v>
+      </c>
+      <c r="R22" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S22" s="2"/>
+      <c r="T22" s="73">
+        <f>IF($D22="conv",K22*L22*G20*G22,(IF($D22="fully",E20*F20*G20*E22*F22*G22,0)))</f>
+        <v>4096000</v>
+      </c>
+      <c r="U22" s="58">
+        <f>IF(D22="Conv",K22*L22*M22*E22*F22*G22,IF(D22="fully",K22*L22*G20*E22*F22,0))</f>
+        <v>4096000</v>
+      </c>
+      <c r="V22" s="58">
+        <f>IF(D22="conv",K22*L22*M22*E22*F22*G22-1,IF(D22="fully",K22*L22*G20*E22*F22-1,(IF($D22="pool",K22*L22*E22*F22*G22,0))))</f>
+        <v>4095999</v>
+      </c>
+      <c r="W22" s="76">
+        <f>IF(D22="pool",K22*L22,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X22" s="75">
+        <f>U22+V22</f>
+        <v>8191999</v>
+      </c>
+      <c r="Y22" s="16">
+        <f>(U22+V22+W22)</f>
+        <v>8191999</v>
+      </c>
+      <c r="AA22" s="15">
+        <f>IF($D22="conv",$G22*($K22*$L22*$M22+$K22*$L22*$M22+($K22-$J22)*($L22-$J22)*$M22*($E22-1)*($F22-1)),IF($D22="pool",$K22*$L22*$E22*$F22*$G22,IF($D22="fully",$E20*$F20*$G20*$E22*$F22*$G22,(IF($D22="ae",$G22*($K22*$L22*$M22*$E22*$F22+$K22*$L22*$M22+($K22-$J22)*($L22-$J22)*$M22*($E22-1)*($F22-1)),0)))))</f>
+        <v>4096000</v>
+      </c>
+      <c r="AB22" s="15">
+        <f>IF($D22="conv",$G22*$E22*$F22,IF($D22="pool",$G22*$E22*$F22,IF($D22="fully",$G22*$E22*$F22,0)))</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="Y23" s="15"/>
+      <c r="AA23" s="15"/>
+    </row>
+    <row r="24" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="P24" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q24" s="24">
+        <f>SUM(Q8:Q22)</f>
+        <v>7241192</v>
+      </c>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="Y24" s="15"/>
+      <c r="AA24" s="72"/>
+    </row>
+    <row r="25" spans="4:28" ht="48" x14ac:dyDescent="0.2">
+      <c r="L25" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="N25" s="67">
+        <f>(SUM(N8:N22)-N18)/10</f>
+        <v>1466.7</v>
+      </c>
+      <c r="Q25" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+    </row>
+    <row r="26" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+    </row>
+    <row r="27" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+    </row>
+    <row r="28" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+    </row>
+    <row r="29" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="15"/>
+    </row>
+    <row r="30" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="W30" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="X30" s="65"/>
+      <c r="Y30" s="18">
+        <f>SUM(Y8:Y22)</f>
+        <v>5488863226</v>
+      </c>
+      <c r="Z30" s="15"/>
+    </row>
+    <row r="31" spans="4:28" s="72" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="58"/>
+      <c r="Z31" s="15"/>
+    </row>
+    <row r="32" spans="4:28" ht="32" x14ac:dyDescent="0.2">
+      <c r="O32" s="86" t="s">
+        <v>164</v>
+      </c>
+      <c r="P32" s="86"/>
+      <c r="W32" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="15">
+        <f>SUM(AB8:AB22)</f>
+        <v>7241192</v>
+      </c>
+    </row>
+    <row r="33" spans="15:28" x14ac:dyDescent="0.2">
+      <c r="O33" s="67" t="s">
+        <v>163</v>
+      </c>
+      <c r="P33" s="67">
+        <v>16</v>
+      </c>
+      <c r="W33" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y33" s="15"/>
+      <c r="Z33" s="15">
+        <f>SUM(AA8:AA22)</f>
+        <v>955407584</v>
+      </c>
+    </row>
+    <row r="34" spans="15:28" ht="48" x14ac:dyDescent="0.2">
+      <c r="O34" s="67" t="s">
+        <v>165</v>
+      </c>
+      <c r="P34" s="67">
+        <v>32</v>
+      </c>
+      <c r="R34" s="67" t="s">
+        <v>166</v>
+      </c>
+      <c r="T34" s="67" t="s">
+        <v>163</v>
+      </c>
+      <c r="U34" s="67">
+        <f>VLOOKUP(T34,O33:P37,2,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="W34" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="X34" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="15"/>
+    </row>
+    <row r="35" spans="15:28" x14ac:dyDescent="0.2">
+      <c r="W35" s="67" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y35" s="15"/>
+      <c r="Z35" s="15">
+        <f>X34*Z32</f>
+        <v>7241192</v>
+      </c>
+    </row>
+    <row r="36" spans="15:28" s="72" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W36" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y36" s="15"/>
+      <c r="Z36" s="15">
+        <f>Z33*X34</f>
+        <v>955407584</v>
+      </c>
+    </row>
+    <row r="37" spans="15:28" ht="32" x14ac:dyDescent="0.2">
+      <c r="T37" s="67" t="s">
+        <v>161</v>
+      </c>
+      <c r="U37" s="67">
+        <v>30</v>
+      </c>
+      <c r="W37" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="X37" s="15">
+        <f>1/U37</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="Y37" s="15"/>
+    </row>
+    <row r="38" spans="15:28" ht="48" x14ac:dyDescent="0.2">
+      <c r="W38" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y38" s="15"/>
+      <c r="Z38" s="32">
+        <f>Z36*U34/X37</f>
+        <v>458595640320</v>
+      </c>
+      <c r="AA38" s="22">
+        <f>(32+1)/64</f>
+        <v>0.515625</v>
+      </c>
+      <c r="AB38" s="67" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="15:28" x14ac:dyDescent="0.2">
+      <c r="W40" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y40" s="15">
+        <f>Y30*X34/X37</f>
+        <v>164665896780</v>
+      </c>
+    </row>
+    <row r="42" spans="15:28" x14ac:dyDescent="0.2">
+      <c r="W42" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="X42" s="72"/>
+      <c r="Y42" s="15">
+        <f>SUM(T8:T22)*U34+SUM(Q6:Q22)*U34</f>
+        <v>2028560512</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="O32:P32"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AFA9FB-E050-1540-9D30-B63105C37D86}">
+  <dimension ref="D4:AB31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z13" sqref="Z13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="10.83203125" style="72"/>
+    <col min="5" max="7" width="11" style="72" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.83203125" style="72"/>
+    <col min="10" max="23" width="11" style="72" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.6640625" style="72" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12" style="72" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="11" style="72" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.6640625" style="72" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.83203125" style="72"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:28" ht="32" x14ac:dyDescent="0.2">
+      <c r="S4" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="T4" s="78"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="3"/>
+      <c r="Y4" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z4" s="72" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="4:28" ht="32" x14ac:dyDescent="0.2">
+      <c r="E5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="T5" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="U5" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="V5" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="W5" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="X5" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z5" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA5" s="72" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1280</v>
+      </c>
+      <c r="F6" s="3">
+        <v>720</v>
+      </c>
+      <c r="G6" s="4">
+        <v>3</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="9">
+        <f>E6*F6*G6</f>
+        <v>2764800</v>
+      </c>
+      <c r="Q6" s="9">
+        <f>E6*F6*G6</f>
+        <v>2764800</v>
+      </c>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="9"/>
+    </row>
+    <row r="7" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D7" s="9"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="75"/>
+      <c r="W7" s="75"/>
+      <c r="X7" s="16"/>
+    </row>
+    <row r="8" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="3">
+        <f>IF($D8="conv",CEILING(E6/$J8,1),CEILING(E6/K8,1))</f>
+        <v>320</v>
+      </c>
+      <c r="F8" s="3">
+        <f>IF($D8="conv",CEILING(F6/$J8,1),CEILING(F6/L8,1))</f>
+        <v>180</v>
+      </c>
+      <c r="G8" s="4">
+        <v>96</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="72">
+        <v>4</v>
+      </c>
+      <c r="K8" s="2">
+        <v>4</v>
+      </c>
+      <c r="L8" s="4">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3">
+        <f>K8*L8*G6</f>
+        <v>48</v>
+      </c>
+      <c r="O8" s="9">
+        <f>E8*F8*G8</f>
+        <v>5529600</v>
+      </c>
+      <c r="Q8" s="9">
+        <f>E8*F8*G8</f>
+        <v>5529600</v>
+      </c>
+      <c r="R8" s="2">
+        <f t="shared" ref="R8" si="0">G8</f>
+        <v>96</v>
+      </c>
+      <c r="S8" s="73"/>
+      <c r="T8" s="73">
+        <f>IF($D8="conv",K8*L8*G6*G8,(IF($D8="fully",E6*F6*G6*E8*F8*G8,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="58">
+        <f>IF(D8="Conv",K8*L8*M8*E8*F8*G8,IF(D8="fully",K8*L8*G6*E8*F8,0))</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="58">
+        <f>IF(D8="conv",K8*L8*M8*E8*F8*G8-1,IF(D8="fully",K8*L8*G6*E8*F8-1,(IF($D8="pool",K8*L8*E8*F8*G8,0))))</f>
+        <v>88473600</v>
+      </c>
+      <c r="W8" s="75">
+        <f>T8+U8</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="75">
+        <f>W8+V8</f>
+        <v>88473600</v>
+      </c>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="15">
+        <f>IF($D8="conv",$G8*($K8*$L8*$M8+$K8*$L8*$M8+($K8-$J8)*($L8-$J8)*$M8*($E8-1)*($F8-1)),IF($D8="pool",$K8*$L8*$E8*$F8*$G8,IF($D8="fully",$E6*$F6*$G6*$E8*$F8*$G8,(IF($D8="ae",$G8*($K8*$L8*$M8*$E8*$F8+$K8*$L8*$M8+($K8-$J8)*($L8-$J8)*$M8*($E8-1)*($F8-1)),0)))))</f>
+        <v>88473600</v>
+      </c>
+      <c r="AA8" s="15">
+        <f>IF($D8="conv",K8*L8*M8+K8*L8*M8+(K8-J8)*(L8-J8)*M8*E8*F8,IF($D8="pool",K8*L8*E8*F8*G8,IF($D8="fully",E6*F6*G6*E8*F8*G8,0)))</f>
+        <v>88473600</v>
+      </c>
+      <c r="AB8" s="15">
+        <f>IF($D8="conv",$G8*$E8*$F8,IF($D8="pool",$G8*$E8*$F8,IF($D8="fully",$G8*$E8*$F8,0)))</f>
+        <v>5529600</v>
+      </c>
+    </row>
+    <row r="9" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D9" s="9"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="75"/>
+      <c r="W9" s="75"/>
+      <c r="X9" s="16"/>
+    </row>
+    <row r="10" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>512</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="72">
+        <v>4</v>
+      </c>
+      <c r="K10" s="2">
+        <f>E6</f>
+        <v>1280</v>
+      </c>
+      <c r="L10" s="2">
+        <f>F6</f>
+        <v>720</v>
+      </c>
+      <c r="M10" s="2">
+        <f>G6</f>
+        <v>3</v>
+      </c>
+      <c r="N10" s="3">
+        <f>K10*L10*G6</f>
+        <v>2764800</v>
+      </c>
+      <c r="O10" s="9">
+        <f>E10*F10*G10</f>
+        <v>512</v>
+      </c>
+      <c r="Q10" s="9">
+        <f>E10*F10*G10</f>
+        <v>512</v>
+      </c>
+      <c r="R10" s="2">
+        <f>G10</f>
+        <v>1</v>
+      </c>
+      <c r="S10" s="73">
+        <f>IF($D10="conv",K10*L10*G6*G10,(IF($D10="fully",E6*F6*G6*E10*F10*G10,0)))</f>
+        <v>1415577600</v>
+      </c>
+      <c r="T10" s="58">
+        <f>IF(D10="Conv",K10*L10*M10*E10*F10*G10,IF(D10="fully",K10*L10*G6*E10*F10,0))</f>
+        <v>1415577600</v>
+      </c>
+      <c r="U10" s="58">
+        <f>IF(D10="conv",K10*L10*M10*E10*F10*G10-1,IF(D10="fully",K10*L10*G6*E10*F10-1,(IF($D10="pool",K10*L10*E10*F10*G10,0))))</f>
+        <v>1415577599</v>
+      </c>
+      <c r="V10" s="75">
+        <f>IF(D10="pool",K10*L10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="75">
+        <f>T10+U10</f>
+        <v>2831155199</v>
+      </c>
+      <c r="X10" s="75">
+        <f>W10+V10</f>
+        <v>2831155199</v>
+      </c>
+      <c r="Z10" s="15">
+        <f>IF($D10="conv",$G10*($K10*$L10*$M10+$K10*$L10*$M10+($K10-$J10)*($L10-$J10)*$M10*($E10-1)*($F10-1)),IF($D10="pool",$K10*$L10*$E10*$F10*$G10,IF($D10="fully",$E8*$F8*$G8*$E10*$F10*$G10,(IF($D10="ae",$G10*($K10*$L10*$M10*$E10*$F10+$K10*$L10*$M10+($K10-$J10)*($L10-$J10)*$M10*($E10-1)*($F10-1)),0)))))</f>
+        <v>2831155200</v>
+      </c>
+      <c r="AA10" s="15">
+        <f>IF($D10="conv",$G10*$E10*$F10,IF($D10="pool",$G10*$E10*$F10,IF($D10="fully",$G10*$E10*$F10,0)))</f>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="11" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D11" s="9"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="73"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="75"/>
+      <c r="W11" s="75"/>
+      <c r="X11" s="16"/>
+      <c r="Z11" s="15"/>
+    </row>
+    <row r="12" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3">
+        <f>IF($D12="conv",CEILING(E10/$J12,1),CEILING(E10/K12,1))</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="72">
+        <v>2</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2</v>
+      </c>
+      <c r="L12" s="4">
+        <v>2</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1</v>
+      </c>
+      <c r="N12" s="3">
+        <f>K12*L12*G10</f>
+        <v>4</v>
+      </c>
+      <c r="O12" s="9">
+        <f>E12*F12*G12</f>
+        <v>1</v>
+      </c>
+      <c r="Q12" s="9">
+        <f>E12*F12*G12</f>
+        <v>1</v>
+      </c>
+      <c r="R12" s="2">
+        <f t="shared" ref="R12" si="1">G12</f>
+        <v>1</v>
+      </c>
+      <c r="S12" s="73">
+        <f>IF($D12="conv",K12*L12*G10*G12,(IF($D12="fully",E10*F10*G10*E12*F12*G12,0)))</f>
+        <v>512</v>
+      </c>
+      <c r="T12" s="58">
+        <f>IF(D12="Conv",K12*L12*M12*E12*F12*G12,IF(D12="fully",K12*L12*G10*E12*F12,0))</f>
+        <v>4</v>
+      </c>
+      <c r="U12" s="58">
+        <f>IF(D12="conv",K12*L12*M12*E12*F12*G12-1,IF(D12="fully",K12*L12*G10*E12*F12-1,(IF($D12="pool",K12*L12*E12*F12*G12,0))))</f>
+        <v>3</v>
+      </c>
+      <c r="V12" s="75">
+        <f>IF(D12="pool",E12*F12*G12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="75">
+        <f>MAX(T12,U12)</f>
+        <v>4</v>
+      </c>
+      <c r="X12" s="75">
+        <f>W12+V12</f>
+        <v>4</v>
+      </c>
+      <c r="Z12" s="15">
+        <f>IF($D12="conv",$G12*($K12*$L12*$M12+$K12*$L12*$M12+($K12-$J12)*($L12-$J12)*$M12*($E12-1)*($F12-1)),IF($D12="pool",$K12*$L12*$E12*$F12*$G12,IF($D12="fully",$E10*$F10*$G10*$E12*$F12*$G12,(IF($D12="ae",$G12*($K12*$L12*$M12*$E12*$F12+$K12*$L12*$M12+($K12-$J12)*($L12-$J12)*$M12*($E12-1)*($F12-1)),0)))))</f>
+        <v>512</v>
+      </c>
+      <c r="AA12" s="15">
+        <f>IF($D12="conv",$G12*$E12*$F12,IF($D12="pool",$G12*$E12*$F12,IF($D12="fully",$G12*$E12*$F12,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D13" s="9"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="73"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="75"/>
+      <c r="W13" s="75"/>
+      <c r="X13" s="16"/>
+      <c r="Z13" s="15"/>
+    </row>
+    <row r="14" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="X14" s="15"/>
+      <c r="Z14" s="15"/>
+    </row>
+    <row r="15" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="P15" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" s="24">
+        <f>SUM(Q10:Q13)</f>
+        <v>513</v>
+      </c>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="X15" s="15"/>
+    </row>
+    <row r="16" spans="4:28" ht="48" x14ac:dyDescent="0.2">
+      <c r="L16" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" s="72" t="e">
+        <f>(SUM(N10:N13)-#REF!)/10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q16" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="V16" s="72">
+        <f>SUM(V10:V13)</f>
+        <v>0</v>
+      </c>
+      <c r="W16" s="72">
+        <f>SUM(W10:W13)</f>
+        <v>2831155203</v>
+      </c>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+    </row>
+    <row r="17" spans="15:27" x14ac:dyDescent="0.2">
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="15:27" x14ac:dyDescent="0.2">
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+    </row>
+    <row r="19" spans="15:27" x14ac:dyDescent="0.2">
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+    </row>
+    <row r="20" spans="15:27" x14ac:dyDescent="0.2">
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+    </row>
+    <row r="21" spans="15:27" x14ac:dyDescent="0.2">
+      <c r="V21" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="W21" s="70"/>
+      <c r="X21" s="18">
+        <f>SUM(X10:X13)</f>
+        <v>2831155203</v>
+      </c>
+      <c r="Y21" s="15"/>
+    </row>
+    <row r="22" spans="15:27" x14ac:dyDescent="0.2">
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="58"/>
+      <c r="Y22" s="15"/>
+    </row>
+    <row r="23" spans="15:27" ht="32" x14ac:dyDescent="0.2">
+      <c r="O23" s="86" t="s">
+        <v>164</v>
+      </c>
+      <c r="P23" s="86"/>
+      <c r="V23" s="72" t="s">
+        <v>158</v>
+      </c>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15">
+        <f>SUM(AA10:AA13)</f>
+        <v>513</v>
+      </c>
+    </row>
+    <row r="24" spans="15:27" x14ac:dyDescent="0.2">
+      <c r="O24" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="P24" s="72">
+        <v>16</v>
+      </c>
+      <c r="V24" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15">
+        <f>SUM(Z10:Z13)</f>
+        <v>2831155712</v>
+      </c>
+    </row>
+    <row r="25" spans="15:27" ht="48" x14ac:dyDescent="0.2">
+      <c r="O25" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="P25" s="72">
+        <v>32</v>
+      </c>
+      <c r="R25" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="S25" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="T25" s="72">
+        <f>VLOOKUP(S25,O24:P28,2,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="V25" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="W25" s="19">
+        <v>1</v>
+      </c>
+      <c r="X25" s="15"/>
+    </row>
+    <row r="26" spans="15:27" x14ac:dyDescent="0.2">
+      <c r="V26" s="72" t="s">
+        <v>159</v>
+      </c>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15">
+        <f>W25*Y23</f>
+        <v>513</v>
+      </c>
+    </row>
+    <row r="27" spans="15:27" x14ac:dyDescent="0.2">
+      <c r="V27" s="72" t="s">
+        <v>160</v>
+      </c>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15">
+        <f>Y24*W25</f>
+        <v>2831155712</v>
+      </c>
+    </row>
+    <row r="28" spans="15:27" ht="32" x14ac:dyDescent="0.2">
+      <c r="S28" s="72" t="s">
+        <v>161</v>
+      </c>
+      <c r="T28" s="72">
+        <v>30</v>
+      </c>
+      <c r="V28" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="W28" s="15">
+        <f>1/T28</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="X28" s="15"/>
+    </row>
+    <row r="29" spans="15:27" ht="48" x14ac:dyDescent="0.2">
+      <c r="V29" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="32">
+        <f>Y27*T25/W28</f>
+        <v>1358954741760</v>
+      </c>
+      <c r="Z29" s="22">
+        <f>(32+1)/64</f>
+        <v>0.515625</v>
+      </c>
+      <c r="AA29" s="72" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="15:27" ht="32" x14ac:dyDescent="0.2">
+      <c r="V31" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="X31" s="15">
+        <f>X21*W25/W28</f>
+        <v>84934656090</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="O23:P23"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A12150-5ADA-E545-9617-81B9093D38F9}">
+  <dimension ref="D4:AB42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="W42" sqref="W42:Y42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="10.83203125" style="72"/>
+    <col min="5" max="7" width="11" style="72" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.83203125" style="72"/>
+    <col min="10" max="18" width="11" style="72" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" style="72" customWidth="1"/>
+    <col min="20" max="24" width="11" style="72" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.6640625" style="72" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12" style="72" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="11" style="72" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.6640625" style="72" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="10.83203125" style="72"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:28" ht="32" x14ac:dyDescent="0.2">
+      <c r="T4" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="U4" s="78"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="3"/>
+      <c r="Z4" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA4" s="72" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="4:28" ht="32" x14ac:dyDescent="0.2">
+      <c r="E5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="U5" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="V5" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="W5" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="X5" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y5" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA5" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB5" s="72" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1280</v>
+      </c>
+      <c r="F6" s="3">
+        <v>720</v>
+      </c>
+      <c r="G6" s="4">
+        <v>3</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="9">
+        <f>E6*F6*G6</f>
+        <v>2764800</v>
+      </c>
+      <c r="Q6" s="9">
+        <f>E6*F6*G6</f>
+        <v>2764800</v>
+      </c>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="9"/>
+    </row>
+    <row r="7" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D7" s="9"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="75"/>
+      <c r="X7" s="75"/>
+      <c r="Y7" s="9"/>
+    </row>
+    <row r="8" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="3">
+        <f>IF($D8="conv",CEILING(E6/$J8,1),IF($D8="pool",CEILING(E6/K8,1),IF($D8="ae",CEILING(E6/$J8,1),0)))</f>
+        <v>320</v>
+      </c>
+      <c r="F8" s="3">
+        <f>IF($D8="conv",CEILING(F6/$J8,1),IF($D8="pool",CEILING(F6/L8,1),IF($D8="ae",0,0)))</f>
+        <v>180</v>
+      </c>
+      <c r="G8" s="4">
+        <f>G6</f>
+        <v>3</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="72">
+        <v>4</v>
+      </c>
+      <c r="K8" s="2">
+        <v>4</v>
+      </c>
+      <c r="L8" s="4">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3">
+        <f>K8*L8*G6</f>
+        <v>48</v>
+      </c>
+      <c r="O8" s="9">
+        <f>E8*F8*G8</f>
+        <v>172800</v>
+      </c>
+      <c r="Q8" s="9">
+        <f>E8*F8*G8</f>
+        <v>172800</v>
+      </c>
+      <c r="R8" s="2">
+        <f>G8</f>
+        <v>3</v>
+      </c>
+      <c r="S8" s="2"/>
+      <c r="T8" s="73">
+        <f>IF($D8="conv",K8*L8*G6*G8,(IF($D8="fully",E6*F6*G6*E8*F8*G8,(IF($D8="ae",K8*L8*M8*E8*F8*G8,0)))))</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="58">
+        <f>IF(D8="Conv",K8*L8*M8*E8*F8*G8,IF(D8="fully",K8*L8*G6*E8*F8,0))</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="58">
+        <f>IF(D8="conv",K8*L8*M8*E8*F8*G8-1,IF(D8="fully",K8*L8*G6*E8*F8-1,(IF($D8="pool",K8*L8*E8*F8*G8,0))))</f>
+        <v>2764800</v>
+      </c>
+      <c r="W8" s="75">
+        <f>IF(D8="pool",K8*L8,0)</f>
+        <v>16</v>
+      </c>
+      <c r="X8" s="75">
+        <f>U8+V8</f>
+        <v>2764800</v>
+      </c>
+      <c r="Y8" s="16">
+        <f>(U8+V8+W8)</f>
+        <v>2764816</v>
+      </c>
+      <c r="AA8" s="15">
+        <f>IF($D8="conv",$G8*($K8*$L8*$M8+$K8*$L8*$M8+($K8-$J8)*($L8-$J8)*$M8*($E8-1)*($F8-1)),IF($D8="pool",$K8*$L8*$E8*$F8*$G8,IF($D8="fully",$E6*$F6*$G6*$E8*$F8*$G8,(IF($D8="ae",$G8*($K8*$L8*$M8*$E8*$F8+$K8*$L8*$M8+($K8-$J8)*($L8-$J8)*$M8*($E8-1)*($F8-1)),0)))))</f>
+        <v>2764800</v>
+      </c>
+      <c r="AB8" s="15">
+        <f>IF($D8="conv",$G8*$E8*$F8,IF($D8="pool",$G8*$E8*$F8,IF($D8="fully",$G8*$E8*$F8,0)))</f>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="9" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D9" s="9"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="75"/>
+      <c r="X9" s="75"/>
+      <c r="Y9" s="16"/>
+      <c r="AA9" s="15"/>
+    </row>
+    <row r="10" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D10" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" s="3">
+        <f>IF($D10="conv",CEILING(E8/$J10,1),IF($D10="pool",CEILING(E8/K10,1),IF($D10="ae",CEILING(E8/$J10,1),0)))</f>
+        <v>80</v>
+      </c>
+      <c r="F10" s="3">
+        <f>IF($D10="conv",CEILING(F8/$J10,1),IF($D10="pool",CEILING(F8/L10,1),IF($D10="ae",CEILING(F8/$J10,1),0)))</f>
+        <v>45</v>
+      </c>
+      <c r="G10" s="4">
+        <v>24</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="72">
+        <v>4</v>
+      </c>
+      <c r="K10" s="2">
+        <v>11</v>
+      </c>
+      <c r="L10" s="4">
+        <v>11</v>
+      </c>
+      <c r="M10" s="3">
+        <f>G8</f>
+        <v>3</v>
+      </c>
+      <c r="N10" s="3">
+        <f>K10*L10*G8</f>
+        <v>363</v>
+      </c>
+      <c r="O10" s="9">
+        <f>E10*F10*G10</f>
+        <v>86400</v>
+      </c>
+      <c r="Q10" s="9">
+        <f>E10*F10*G10</f>
+        <v>86400</v>
+      </c>
+      <c r="R10" s="2">
+        <f t="shared" ref="R10:R22" si="0">G10</f>
+        <v>24</v>
+      </c>
+      <c r="S10" s="2"/>
+      <c r="T10" s="73">
+        <f>IF($D10="conv",K10*L10*G8*G10,(IF($D10="fully",E8*F8*G8*E10*F10*G10,(IF($D10="ae",K10*L10*M10*E10*F10*G10,0)))))</f>
+        <v>31363200</v>
+      </c>
+      <c r="U10" s="58">
+        <f>IF(D10="Conv",K10*L10*M10*E10*F10*G10,IF(D10="fully",K10*L10*G8*E10*F10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="58">
+        <f>IF(D10="conv",K10*L10*M10*E10*F10*G10-1,IF(D10="fully",K10*L10*G8*E10*F10-1,(IF($D10="pool",K10*L10*E10*F10*G10,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="75">
+        <f>IF(D10="pool",E10*F10*G10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X10" s="75">
+        <f>U10+V10</f>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="16">
+        <f>(U10+V10+W10)</f>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="15">
+        <f>IF($D10="conv",$G10*($K10*$L10*$M10+$K10*$L10*$M10+($K10-$J10)*($L10-$J10)*$M10*($E10-1)*($F10-1)),IF($D10="pool",$K10*$L10*$E10*$F10*$G10,IF($D10="fully",$E8*$F8*$G8*$E10*$F10*$G10,(IF($D10="ae",$G10*($K10*$L10*$M10*$E10*$F10+$K10*$L10*$M10+($K10-$J10)*($L10-$J10)*$M10*($E10-1)*($F10-1)),0)))))</f>
+        <v>43635240</v>
+      </c>
+      <c r="AB10" s="15">
+        <f>IF($D10="conv",$G10*$E10*$F10,IF($D10="pool",$G10*$E10*$F10,IF($D10="fully",$G10*$E10*$F10,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D11" s="9"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="73"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="75"/>
+      <c r="X11" s="75"/>
+      <c r="Y11" s="16"/>
+      <c r="AA11" s="15"/>
+    </row>
+    <row r="12" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="3">
+        <f>IF($D12="conv",CEILING(E10/$J12,1),CEILING(E10/K12,1))</f>
+        <v>40</v>
+      </c>
+      <c r="F12" s="3">
+        <f>IF($D12="conv",CEILING(F10/$J12,1),CEILING(F10/L12,1))</f>
+        <v>23</v>
+      </c>
+      <c r="G12" s="4">
+        <v>32</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="72">
+        <v>2</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2</v>
+      </c>
+      <c r="L12" s="4">
+        <v>2</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1</v>
+      </c>
+      <c r="N12" s="3">
+        <f>K12*L12*G10</f>
+        <v>96</v>
+      </c>
+      <c r="O12" s="9">
+        <f>E12*F12*G12</f>
+        <v>29440</v>
+      </c>
+      <c r="Q12" s="9">
+        <f>E12*F12*G12</f>
+        <v>29440</v>
+      </c>
+      <c r="R12" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="S12" s="2"/>
+      <c r="T12" s="73">
+        <f>IF($D12="conv",K12*L12*G10*G12,(IF($D12="fully",E10*F10*G10*E12*F12*G12,(IF($D12="ae",K12*L12*M12*E12*F12*G12,0)))))</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="58">
+        <f>IF(D12="Conv",K12*L12*M12*E12*F12*G12,IF(D12="fully",K12*L12*G10*E12*F12,0))</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="58">
+        <f>IF(D12="conv",K12*L12*M12*E12*F12*G12-1,IF(D12="fully",K12*L12*G10*E12*F12-1,(IF($D12="pool",K12*L12*E12*F12*G12,0))))</f>
+        <v>117760</v>
+      </c>
+      <c r="W12" s="75">
+        <f>IF(D12="pool",K12*L12,0)</f>
+        <v>4</v>
+      </c>
+      <c r="X12" s="75">
+        <f>U12+V12</f>
+        <v>117760</v>
+      </c>
+      <c r="Y12" s="16">
+        <f>(U12+V12+W12)</f>
+        <v>117764</v>
+      </c>
+      <c r="AA12" s="15">
+        <f>IF($D12="conv",$G12*($K12*$L12*$M12+$K12*$L12*$M12+($K12-$J12)*($L12-$J12)*$M12*($E12-1)*($F12-1)),IF($D12="pool",$K12*$L12*$E12*$F12*$G12,IF($D12="fully",$E10*$F10*$G10*$E12*$F12*$G12,(IF($D12="ae",$G12*($K12*$L12*$M12*$E12*$F12+$K12*$L12*$M12+($K12-$J12)*($L12-$J12)*$M12*($E12-1)*($F12-1)),0)))))</f>
+        <v>117760</v>
+      </c>
+      <c r="AB12" s="15">
+        <f>IF($D12="conv",$G12*$E12*$F12,IF($D12="pool",$G12*$E12*$F12,IF($D12="fully",$G12*$E12*$F12,0)))</f>
+        <v>29440</v>
+      </c>
+    </row>
+    <row r="13" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D13" s="9"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="75"/>
+      <c r="X13" s="75"/>
+      <c r="Y13" s="16"/>
+      <c r="AA13" s="15"/>
+    </row>
+    <row r="14" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D14" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="3">
+        <f>IF($D14="conv",CEILING(E12/$J14,1),CEILING(E12/K14,1))</f>
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <f>IF($D14="conv",CEILING(F12/$J14,1),CEILING(F12/L14,1))</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="4">
+        <v>32</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="72">
+        <v>4</v>
+      </c>
+      <c r="K14" s="2">
+        <v>5</v>
+      </c>
+      <c r="L14" s="4">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
+        <f>G12</f>
+        <v>32</v>
+      </c>
+      <c r="N14" s="3">
+        <f>K14*L14*G12</f>
+        <v>800</v>
+      </c>
+      <c r="O14" s="9">
+        <f>E14*F14*G14</f>
+        <v>1280</v>
+      </c>
+      <c r="Q14" s="9">
+        <f>E14*F14*G14</f>
+        <v>1280</v>
+      </c>
+      <c r="R14" s="2">
+        <f t="shared" ref="R14" si="1">G14</f>
+        <v>32</v>
+      </c>
+      <c r="S14" s="2"/>
+      <c r="T14" s="73">
+        <f>IF($D14="conv",K14*L14*G12*G14,(IF($D14="fully",E12*F12*G12*E14*F14*G14,(IF($D14="ae",K14*L14*M14*E14*F14*G14,0)))))</f>
+        <v>1024000</v>
+      </c>
+      <c r="U14" s="58">
+        <f>IF(D14="Conv",K14*L14*M14*E14*F14*G14,IF(D14="fully",K14*L14*G12*E14*F14,0))</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="58">
+        <f>IF(D14="conv",K14*L14*M14*E14*F14*G14-1,IF(D14="fully",K14*L14*G12*E14*F14-1,(IF($D14="pool",K14*L14*E14*F14*G14,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="W14" s="75">
+        <f>IF(D14="pool",K14*L14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X14" s="75">
+        <f>U14+V14</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="16">
+        <f>(U14+V14+W14)</f>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="15">
+        <f>IF($D14="conv",$G14*($K14*$L14*$M14+$K14*$L14*$M14+($K14-$J14)*($L14-$J14)*$M14*($E14-1)*($F14-1)),IF($D14="pool",$K14*$L14*$E14*$F14*$G14,IF($D14="fully",$E12*$F12*$G12*$E14*$F14*$G14,(IF($D14="ae",$G14*($K14*$L14*$M14*$E14*$F14+$K14*$L14*$M14+($K14-$J14)*($L14-$J14)*$M14*($E14-1)*($F14-1)),0)))))</f>
+        <v>1078272</v>
+      </c>
+      <c r="AB14" s="15">
+        <f>IF($D14="conv",$G14*$E14*$F14,IF($D14="pool",$G14*$E14*$F14,IF($D14="fully",$G14*$E14*$F14,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D15" s="9"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="73"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="75"/>
+      <c r="X15" s="75"/>
+      <c r="Y15" s="16"/>
+      <c r="AA15" s="15"/>
+    </row>
+    <row r="16" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D16" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="3">
+        <f>IF($D16="conv",CEILING(E14/$J16,1),CEILING(E14/K16,1))</f>
+        <v>3</v>
+      </c>
+      <c r="F16" s="3">
+        <f>IF($D16="conv",CEILING(F14/$J16,1),CEILING(F14/L16,1))</f>
+        <v>2</v>
+      </c>
+      <c r="G16" s="4">
+        <v>64</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="72">
+        <v>2</v>
+      </c>
+      <c r="K16" s="2">
+        <v>3</v>
+      </c>
+      <c r="L16" s="4">
+        <v>3</v>
+      </c>
+      <c r="M16" s="3">
+        <f>G14</f>
+        <v>32</v>
+      </c>
+      <c r="N16" s="3">
+        <f>K16*L16*G14</f>
+        <v>288</v>
+      </c>
+      <c r="O16" s="9">
+        <f>E16*F16*G16</f>
+        <v>384</v>
+      </c>
+      <c r="Q16" s="9">
+        <f>E16*F16*G16</f>
+        <v>384</v>
+      </c>
+      <c r="R16" s="2">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="S16" s="2"/>
+      <c r="T16" s="73">
+        <f>IF($D16="conv",K16*L16*G14*G16,(IF($D16="fully",E14*F14*G14*E16*F16*G16,(IF($D16="ae",K16*L16*M16*E16*F16*G16,0)))))</f>
+        <v>110592</v>
+      </c>
+      <c r="U16" s="58">
+        <f>IF(D16="Conv",K16*L16*M16*E16*F16*G16,IF(D16="fully",K16*L16*G14*E16*F16,0))</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="58">
+        <f>IF(D16="conv",K16*L16*M16*E16*F16*G16-1,IF(D16="fully",K16*L16*G14*E16*F16-1,(IF($D16="pool",K16*L16*E16*F16*G16,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="W16" s="75">
+        <f>IF(D16="pool",K16*L16,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X16" s="75">
+        <f>U16+V16</f>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="16">
+        <f>(U16+V16+W16)</f>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="15">
+        <f>IF($D16="conv",$G16*($K16*$L16*$M16+$K16*$L16*$M16+($K16-$J16)*($L16-$J16)*$M16*($E16-1)*($F16-1)),IF($D16="pool",$K16*$L16*$E16*$F16*$G16,IF($D16="fully",$E14*$F14*$G14*$E16*$F16*$G16,(IF($D16="ae",$G16*($K16*$L16*$M16*$E16*$F16+$K16*$L16*$M16+($K16-$J16)*($L16-$J16)*$M16*($E16-1)*($F16-1)),0)))))</f>
+        <v>133120</v>
+      </c>
+      <c r="AB16" s="15">
+        <f>IF($D16="conv",$G16*$E16*$F16,IF($D16="pool",$G16*$E16*$F16,IF($D16="fully",$G16*$E16*$F16,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D17" s="9"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="73"/>
+      <c r="U17" s="58"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="75"/>
+      <c r="X17" s="75"/>
+      <c r="Y17" s="16"/>
+      <c r="AA17" s="15"/>
+    </row>
+    <row r="18" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1024</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="K18" s="2">
+        <f>E16</f>
+        <v>3</v>
+      </c>
+      <c r="L18" s="4">
+        <f>F16</f>
+        <v>2</v>
+      </c>
+      <c r="M18" s="3">
+        <f>G16</f>
+        <v>64</v>
+      </c>
+      <c r="N18" s="3">
+        <f>K18*L18*G16</f>
+        <v>384</v>
+      </c>
+      <c r="O18" s="9">
+        <f>E18*F18*G18</f>
+        <v>1024</v>
+      </c>
+      <c r="Q18" s="9">
+        <f>E18*F18*G18</f>
+        <v>1024</v>
+      </c>
+      <c r="R18" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S18" s="2"/>
+      <c r="T18" s="73">
+        <f>IF($D18="conv",K18*L18*G16*G18,(IF($D18="fully",E16*F16*G16*E18*F18*G18,(IF($D18="ae",K18*L18*M18*E18*F18*G18,0)))))</f>
+        <v>393216</v>
+      </c>
+      <c r="U18" s="58">
+        <f>IF(D18="Conv",K18*L18*M18*E18*F18*G18,IF(D18="fully",K18*L18*G16*E18*F18,0))</f>
+        <v>393216</v>
+      </c>
+      <c r="V18" s="58">
+        <f>IF(D18="conv",K18*L18*M18*E18*F18*G18-1,IF(D18="fully",K18*L18*G16*E18*F18-1,(IF($D18="pool",K18*L18*E18*F18*G18,0))))</f>
+        <v>393215</v>
+      </c>
+      <c r="W18" s="75">
+        <f>IF(D18="pool",K18*L18,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X18" s="75">
+        <f>U18+V18</f>
+        <v>786431</v>
+      </c>
+      <c r="Y18" s="16">
+        <f>(U18+V18+W18)</f>
+        <v>786431</v>
+      </c>
+      <c r="AA18" s="15">
+        <f>IF($D18="conv",$G18*($K18*$L18*$M18+$K18*$L18*$M18+($K18-$J18)*($L18-$J18)*$M18*($E18-1)*($F18-1)),IF($D18="pool",$K18*$L18*$E18*$F18*$G18,IF($D18="fully",$E16*$F16*$G16*$E18*$F18*$G18,(IF($D18="ae",$G18*($K18*$L18*$M18*$E18*$F18+$K18*$L18*$M18+($K18-$J18)*($L18-$J18)*$M18*($E18-1)*($F18-1)),0)))))</f>
+        <v>393216</v>
+      </c>
+      <c r="AB18" s="15">
+        <f>IF($D18="conv",$G18*$E18*$F18,IF($D18="pool",$G18*$E18*$F18,IF($D18="fully",$G18*$E18*$F18,0)))</f>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="19" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D19" s="9"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="73"/>
+      <c r="U19" s="58"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="75"/>
+      <c r="X19" s="75"/>
+      <c r="Y19" s="16"/>
+      <c r="AA19" s="15"/>
+    </row>
+    <row r="20" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+      <c r="L20" s="4">
+        <v>4096</v>
+      </c>
+      <c r="M20" s="3">
+        <f>G18</f>
+        <v>1</v>
+      </c>
+      <c r="N20" s="3">
+        <f>K20*L20*G18</f>
+        <v>4096</v>
+      </c>
+      <c r="O20" s="9">
+        <f>E20*F20*G20</f>
+        <v>1</v>
+      </c>
+      <c r="Q20" s="9">
+        <f>E20*F20*G20</f>
+        <v>1</v>
+      </c>
+      <c r="R20" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S20" s="2"/>
+      <c r="T20" s="73">
+        <f>IF($D20="conv",K20*L20*G18*G20,(IF($D20="fully",E18*F18*G18*E20*F20*G20,(IF($D20="ae",K20*L20*M20*E20*F20*G20,0)))))</f>
+        <v>1024</v>
+      </c>
+      <c r="U20" s="58">
+        <f>IF(D20="Conv",K20*L20*M20*E20*F20*G20,IF(D20="fully",K20*L20*G18*E20*F20,0))</f>
+        <v>4096</v>
+      </c>
+      <c r="V20" s="58">
+        <f>IF(D20="conv",K20*L20*M20*E20*F20*G20-1,IF(D20="fully",K20*L20*G18*E20*F20-1,(IF($D20="pool",K20*L20*E20*F20*G20,0))))</f>
+        <v>4095</v>
+      </c>
+      <c r="W20" s="75">
+        <f>IF(D20="pool",K20*L20,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X20" s="75">
+        <f>U20+V20</f>
+        <v>8191</v>
+      </c>
+      <c r="Y20" s="16">
+        <f>(U20+V20+W20)</f>
+        <v>8191</v>
+      </c>
+      <c r="AA20" s="15">
+        <f>IF($D20="conv",$G20*($K20*$L20*$M20+$K20*$L20*$M20+($K20-$J20)*($L20-$J20)*$M20*($E20-1)*($F20-1)),IF($D20="pool",$K20*$L20*$E20*$F20*$G20,IF($D20="fully",$E18*$F18*$G18*$E20*$F20*$G20,(IF($D20="ae",$G20*($K20*$L20*$M20*$E20*$F20+$K20*$L20*$M20+($K20-$J20)*($L20-$J20)*$M20*($E20-1)*($F20-1)),0)))))</f>
+        <v>1024</v>
+      </c>
+      <c r="AB20" s="15">
+        <f>IF($D20="conv",$G20*$E20*$F20,IF($D20="pool",$G20*$E20*$F20,IF($D20="fully",$G20*$E20*$F20,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D21" s="9"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="73"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="58"/>
+      <c r="W21" s="75"/>
+      <c r="X21" s="75"/>
+      <c r="Y21" s="16"/>
+      <c r="AA21" s="15"/>
+    </row>
+    <row r="22" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1000</v>
+      </c>
+      <c r="G22" s="7">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="K22" s="5">
+        <v>1</v>
+      </c>
+      <c r="L22" s="7">
+        <v>4096</v>
+      </c>
+      <c r="M22" s="3">
+        <f>G20</f>
+        <v>1</v>
+      </c>
+      <c r="N22" s="3">
+        <f>K22*L22*G20</f>
+        <v>4096</v>
+      </c>
+      <c r="O22" s="10">
+        <f>E22*F22*G22</f>
+        <v>1000</v>
+      </c>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="10">
+        <f>E22*F22*G22</f>
+        <v>1000</v>
+      </c>
+      <c r="R22" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S22" s="2"/>
+      <c r="T22" s="73">
+        <f>IF($D22="conv",K22*L22*G20*G22,(IF($D22="fully",E20*F20*G20*E22*F22*G22,(IF($D22="ae",K22*L22*M22*E22*F22*G22,0)))))</f>
+        <v>1000</v>
+      </c>
+      <c r="U22" s="58">
+        <f>IF(D22="Conv",K22*L22*M22*E22*F22*G22,IF(D22="fully",K22*L22*G20*E22*F22,0))</f>
+        <v>4096000</v>
+      </c>
+      <c r="V22" s="58">
+        <f>IF(D22="conv",K22*L22*M22*E22*F22*G22-1,IF(D22="fully",K22*L22*G20*E22*F22-1,(IF($D22="pool",K22*L22*E22*F22*G22,0))))</f>
+        <v>4095999</v>
+      </c>
+      <c r="W22" s="76">
+        <f>IF(D22="pool",K22*L22,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X22" s="75">
+        <f>U22+V22</f>
+        <v>8191999</v>
+      </c>
+      <c r="Y22" s="16">
+        <f>(U22+V22+W22)</f>
+        <v>8191999</v>
+      </c>
+      <c r="AA22" s="15">
+        <f>IF($D22="conv",$G22*($K22*$L22*$M22+$K22*$L22*$M22+($K22-$J22)*($L22-$J22)*$M22*($E22-1)*($F22-1)),IF($D22="pool",$K22*$L22*$E22*$F22*$G22,IF($D22="fully",$E20*$F20*$G20*$E22*$F22*$G22,(IF($D22="ae",$G22*($K22*$L22*$M22*$E22*$F22+$K22*$L22*$M22+($K22-$J22)*($L22-$J22)*$M22*($E22-1)*($F22-1)),0)))))</f>
+        <v>1000</v>
+      </c>
+      <c r="AB22" s="15">
+        <f>IF($D22="conv",$G22*$E22*$F22,IF($D22="pool",$G22*$E22*$F22,IF($D22="fully",$G22*$E22*$F22,0)))</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="Y23" s="15"/>
+      <c r="AA23" s="15"/>
+    </row>
+    <row r="24" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="P24" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q24" s="24">
+        <f>SUM(Q8:Q22)</f>
+        <v>292329</v>
+      </c>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="Y24" s="15"/>
+    </row>
+    <row r="25" spans="4:28" ht="48" x14ac:dyDescent="0.2">
+      <c r="L25" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="N25" s="72">
+        <f>(SUM(N8:N22)-N18)/10</f>
+        <v>978.7</v>
+      </c>
+      <c r="Q25" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+    </row>
+    <row r="26" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+    </row>
+    <row r="27" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+    </row>
+    <row r="28" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+    </row>
+    <row r="29" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="15"/>
+    </row>
+    <row r="30" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="W30" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="X30" s="70"/>
+      <c r="Y30" s="18">
+        <f>SUM(Y8:Y22)</f>
+        <v>11869201</v>
+      </c>
+      <c r="Z30" s="15"/>
+    </row>
+    <row r="31" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="58"/>
+      <c r="Z31" s="15"/>
+    </row>
+    <row r="32" spans="4:28" ht="32" x14ac:dyDescent="0.2">
+      <c r="O32" s="86" t="s">
+        <v>164</v>
+      </c>
+      <c r="P32" s="86"/>
+      <c r="W32" s="72" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="15">
+        <f>SUM(AB8:AB22)</f>
+        <v>204265</v>
+      </c>
+    </row>
+    <row r="33" spans="15:28" x14ac:dyDescent="0.2">
+      <c r="O33" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="P33" s="72">
+        <v>16</v>
+      </c>
+      <c r="W33" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y33" s="15"/>
+      <c r="Z33" s="15">
+        <f>SUM(AA8:AA22)</f>
+        <v>48124432</v>
+      </c>
+    </row>
+    <row r="34" spans="15:28" ht="48" x14ac:dyDescent="0.2">
+      <c r="O34" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="P34" s="72">
+        <v>32</v>
+      </c>
+      <c r="R34" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="T34" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="U34" s="72">
+        <f>VLOOKUP(T34,O33:P37,2,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="W34" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="X34" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="15"/>
+    </row>
+    <row r="35" spans="15:28" x14ac:dyDescent="0.2">
+      <c r="W35" s="72" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y35" s="15"/>
+      <c r="Z35" s="15">
+        <f>X34*Z32</f>
+        <v>204265</v>
+      </c>
+    </row>
+    <row r="36" spans="15:28" x14ac:dyDescent="0.2">
+      <c r="W36" s="72" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y36" s="15"/>
+      <c r="Z36" s="15">
+        <f>Z33*X34</f>
+        <v>48124432</v>
+      </c>
+    </row>
+    <row r="37" spans="15:28" ht="32" x14ac:dyDescent="0.2">
+      <c r="T37" s="72" t="s">
+        <v>161</v>
+      </c>
+      <c r="U37" s="72">
+        <v>30</v>
+      </c>
+      <c r="W37" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="X37" s="15">
+        <f>1/U37</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="Y37" s="15"/>
+    </row>
+    <row r="38" spans="15:28" ht="48" x14ac:dyDescent="0.2">
+      <c r="W38" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y38" s="15"/>
+      <c r="Z38" s="32">
+        <f>Z36*U34/X37</f>
+        <v>23099727360</v>
+      </c>
+      <c r="AA38" s="22">
+        <f>(32+1)/64</f>
+        <v>0.515625</v>
+      </c>
+      <c r="AB38" s="72" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="15:28" x14ac:dyDescent="0.2">
+      <c r="W40" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y40" s="15">
+        <f>Y30*X34/X37</f>
+        <v>356076030</v>
+      </c>
+    </row>
+    <row r="42" spans="15:28" x14ac:dyDescent="0.2">
+      <c r="W42" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y42" s="15">
+        <f>SUM(T8:T22)*U34+SUM(Q6:Q22)*U34</f>
+        <v>575202576</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="O32:P32"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD69E308-997B-4845-A1F8-E72AEF14D256}">
+  <dimension ref="D4:AL42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="AG24" sqref="AG24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="10.83203125" style="72"/>
+    <col min="5" max="7" width="11" style="72" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.83203125" style="72"/>
+    <col min="10" max="18" width="11" style="72" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" style="72" customWidth="1"/>
+    <col min="20" max="24" width="11" style="72" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.6640625" style="72" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12" style="72" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="11" style="72" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.6640625" style="72" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="10.83203125" style="72"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:38" ht="32" x14ac:dyDescent="0.2">
+      <c r="T4" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="U4" s="78"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="3"/>
+      <c r="Z4" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA4" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="86" t="s">
+        <v>172</v>
+      </c>
+      <c r="AK4" s="86"/>
+      <c r="AL4" s="86"/>
+    </row>
+    <row r="5" spans="4:38" ht="32" x14ac:dyDescent="0.2">
+      <c r="E5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="U5" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="V5" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="W5" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="X5" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y5" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA5" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB5" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ5" s="72" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK5" s="72" t="s">
+        <v>170</v>
+      </c>
+      <c r="AL5" s="72" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1280</v>
+      </c>
+      <c r="F6" s="3">
+        <v>720</v>
+      </c>
+      <c r="G6" s="4">
+        <v>3</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="9">
+        <f>Xdim*Ydim*Features</f>
+        <v>2764800</v>
+      </c>
+      <c r="Q6" s="9">
+        <f>Xdim*Ydim*Features</f>
+        <v>2764800</v>
+      </c>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="9"/>
+    </row>
+    <row r="7" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D7" s="9"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="75"/>
+      <c r="X7" s="75"/>
+      <c r="Y7" s="9"/>
+    </row>
+    <row r="8" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <f>IF(Type="conv",CEILING(Xprev/Stride,1),CEILING(Xprev/Kx,1))</f>
+        <v>320</v>
+      </c>
+      <c r="F8" s="3">
+        <f>IF(Type="conv",CEILING(Yprev/Stride,1),CEILING(Yprev/Ky,1))</f>
+        <v>180</v>
+      </c>
+      <c r="G8" s="4">
+        <v>96</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="72">
+        <v>4</v>
+      </c>
+      <c r="K8" s="2">
+        <v>11</v>
+      </c>
+      <c r="L8" s="4">
+        <v>11</v>
+      </c>
+      <c r="M8" s="3">
+        <f>FeaturesPrev</f>
+        <v>3</v>
+      </c>
+      <c r="N8" s="3">
+        <f>Kx*Ky*FeaturesPrev</f>
+        <v>363</v>
+      </c>
+      <c r="O8" s="9">
+        <f>Xdim*Ydim*Features</f>
+        <v>5529600</v>
+      </c>
+      <c r="Q8" s="9">
+        <f>Xdim*Ydim*Features</f>
+        <v>5529600</v>
+      </c>
+      <c r="R8" s="2">
+        <f>Features</f>
+        <v>96</v>
+      </c>
+      <c r="S8" s="2"/>
+      <c r="T8" s="73">
+        <f>IF(Type="conv",Kx*Ky*FeaturesPrev*Features,(IF(Type="fully",Xprev*Yprev*FeaturesPrev*Xdim*Ydim*Features,0)))</f>
+        <v>34848</v>
+      </c>
+      <c r="U8" s="58">
+        <f>IF(Type="Conv",Kx*Ky*Kz*Xdim*Ydim*Features,IF(Type="fully",Kx*Ky*FeaturesPrev*Xdim*Ydim,0))</f>
+        <v>2007244800</v>
+      </c>
+      <c r="V8" s="58">
+        <f>IF(Type="conv",Kx*Ky*Kz*Xdim*Ydim*Features-1,IF(Type="fully",Kx*Ky*FeaturesPrev*Xdim*Ydim-1,(IF(Type="pool",Kx*Ky*Xdim*Ydim*Features,0))))</f>
+        <v>2007244799</v>
+      </c>
+      <c r="W8" s="75">
+        <f>IF(Type="pool",Kx*Ky,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="75">
+        <f>U8+V8</f>
+        <v>4014489599</v>
+      </c>
+      <c r="Y8" s="16">
+        <f>(U8+V8+W8)</f>
+        <v>4014489599</v>
+      </c>
+      <c r="AA8" s="15">
+        <f>IF(Type="conv",Features*(Kx*Ky*Kz+Kx*Ky*Kz+(Kx-Stride)*(Ky-Stride)*Kz*(Xdim-1)*(Ydim-1)),IF(Type="pool",Kx*Ky*Xdim*Ydim*Features,IF(Type="fully",Xprev*Yprev*FeaturesPrev*Xdim*Ydim*Features,(IF(Type="ae",Features*(Kx*Ky*Kz*Xdim*Ydim+Kx*Ky*Kz+(Kx-Stride)*(Ky-Stride)*Kz*(Xdim-1)*(Ydim-1)),0)))))</f>
+        <v>805879008</v>
+      </c>
+      <c r="AB8" s="15">
+        <f>IF(Type="conv",Features*Xdim*Ydim,IF(Type="pool",Features*Xdim*Ydim,IF(Type="fully",Features*Xdim*Ydim,0)))</f>
+        <v>5529600</v>
+      </c>
+      <c r="AJ8" s="72">
+        <f>E6</f>
+        <v>1280</v>
+      </c>
+      <c r="AK8" s="72">
+        <f>F6</f>
+        <v>720</v>
+      </c>
+      <c r="AL8" s="72">
+        <f>G6</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D9" s="9"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="75"/>
+      <c r="X9" s="75"/>
+      <c r="Y9" s="16"/>
+      <c r="AA9" s="15"/>
+    </row>
+    <row r="10" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3">
+        <f>IF($D10="conv",CEILING(E8/$J10,1),CEILING(E8/K10,1))</f>
+        <v>160</v>
+      </c>
+      <c r="F10" s="3">
+        <f>IF($D10="conv",CEILING(F8/$J10,1),CEILING(F8/L10,1))</f>
+        <v>90</v>
+      </c>
+      <c r="G10" s="4">
+        <v>96</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="72">
+        <v>2</v>
+      </c>
+      <c r="K10" s="2">
+        <v>2</v>
+      </c>
+      <c r="L10" s="4">
+        <v>2</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3">
+        <f>Kx*Ky*G8</f>
+        <v>384</v>
+      </c>
+      <c r="O10" s="9">
+        <f>Xdim*Ydim*Features</f>
+        <v>1382400</v>
+      </c>
+      <c r="Q10" s="9">
+        <f>Xdim*Ydim*Features</f>
+        <v>1382400</v>
+      </c>
+      <c r="R10" s="2">
+        <f>Features</f>
+        <v>96</v>
+      </c>
+      <c r="S10" s="2"/>
+      <c r="T10" s="73">
+        <f>IF(Type="conv",Kx*Ky*G8*Features,(IF(Type="fully",E8*F8*G8*Xdim*Ydim*Features,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="58">
+        <f>IF(Type="Conv",Kx*Ky*Kz*Xdim*Ydim*Features,IF(Type="fully",Kx*Ky*G8*Xdim*Ydim,0))</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="58">
+        <f>IF(Type="conv",Kx*Ky*Kz*Xdim*Ydim*Features-1,IF(Type="fully",Kx*Ky*G8*Xdim*Ydim-1,(IF(Type="pool",Kx*Ky*Xdim*Ydim*Features,0))))</f>
+        <v>5529600</v>
+      </c>
+      <c r="W10" s="75">
+        <f>IF(Type="pool",Kx*Ky,0)</f>
+        <v>4</v>
+      </c>
+      <c r="X10" s="75">
+        <f>U10+V10</f>
+        <v>5529600</v>
+      </c>
+      <c r="Y10" s="16">
+        <f>(U10+V10+W10)</f>
+        <v>5529604</v>
+      </c>
+      <c r="AA10" s="15">
+        <f>IF(Type="conv",Features*(Kx*Ky*Kz+Kx*Ky*Kz+(Kx-$J10)*(Ky-$J10)*Kz*(Xdim-1)*(Ydim-1)),IF(Type="pool",Kx*Ky*Xdim*Ydim*Features,IF(Type="fully",$E8*$F8*$G8*Xdim*Ydim*Features,(IF(Type="ae",Features*(Kx*Ky*Kz*Xdim*Ydim+Kx*Ky*Kz+(Kx-$J10)*(Ky-$J10)*Kz*(Xdim-1)*(Ydim-1)),0)))))</f>
+        <v>5529600</v>
+      </c>
+      <c r="AB10" s="15">
+        <f>IF(Type="conv",Features*Xdim*Ydim,IF(Type="pool",Features*Xdim*Ydim,IF(Type="fully",Features*Xdim*Ydim,0)))</f>
+        <v>1382400</v>
+      </c>
+      <c r="AJ10" s="72">
+        <f>E8</f>
+        <v>320</v>
+      </c>
+      <c r="AK10" s="72">
+        <f>F8</f>
+        <v>180</v>
+      </c>
+      <c r="AL10" s="72">
+        <f>G8</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D11" s="9"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="73"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="75"/>
+      <c r="X11" s="75"/>
+      <c r="Y11" s="16"/>
+      <c r="AA11" s="15"/>
+    </row>
+    <row r="12" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="3">
+        <f>IF($D12="conv",CEILING(E10/$J12,1),CEILING(E10/K12,1))</f>
+        <v>40</v>
+      </c>
+      <c r="F12" s="3">
+        <f>IF($D12="conv",CEILING(F10/$J12,1),CEILING(F10/L12,1))</f>
+        <v>23</v>
+      </c>
+      <c r="G12" s="4">
+        <v>256</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="72">
+        <v>4</v>
+      </c>
+      <c r="K12" s="2">
+        <v>5</v>
+      </c>
+      <c r="L12" s="4">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3">
+        <f>FeaturesMinus1</f>
+        <v>96</v>
+      </c>
+      <c r="N12" s="3">
+        <f>Kx*Ky*G10</f>
+        <v>2400</v>
+      </c>
+      <c r="O12" s="9">
+        <f>Xdim*Ydim*Features</f>
+        <v>235520</v>
+      </c>
+      <c r="Q12" s="9">
+        <f>Xdim*Ydim*Features</f>
+        <v>235520</v>
+      </c>
+      <c r="R12" s="2">
+        <f>Features</f>
+        <v>256</v>
+      </c>
+      <c r="S12" s="2"/>
+      <c r="T12" s="73">
+        <f>IF(Type="conv",Kx*Ky*G10*Features,(IF(Type="fully",E10*F10*G10*Xdim*Ydim*Features,0)))</f>
+        <v>614400</v>
+      </c>
+      <c r="U12" s="58">
+        <f>IF(Type="Conv",Kx*Ky*Kz*Xdim*Ydim*Features,IF(Type="fully",Kx*Ky*G10*Xdim*Ydim,0))</f>
+        <v>565248000</v>
+      </c>
+      <c r="V12" s="58">
+        <f>IF(Type="conv",Kx*Ky*Kz*Xdim*Ydim*Features-1,IF(Type="fully",Kx*Ky*G10*Xdim*Ydim-1,(IF(Type="pool",Kx*Ky*Xdim*Ydim*Features,0))))</f>
+        <v>565247999</v>
+      </c>
+      <c r="W12" s="75">
+        <f>IF(Type="pool",Kx*Ky,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="75">
+        <f>U12+V12</f>
+        <v>1130495999</v>
+      </c>
+      <c r="Y12" s="16">
+        <f>(U12+V12+W12)</f>
+        <v>1130495999</v>
+      </c>
+      <c r="AA12" s="15">
+        <f>IF(Type="conv",Features*(Kx*Ky*Kz+Kx*Ky*Kz+(Kx-$J12)*(Ky-$J12)*Kz*(Xdim-1)*(Ydim-1)),IF(Type="pool",Kx*Ky*Xdim*Ydim*Features,IF(Type="fully",$E10*$F10*$G10*Xdim*Ydim*Features,(IF(Type="ae",Features*(Kx*Ky*Kz*Xdim*Ydim+Kx*Ky*Kz+(Kx-$J12)*(Ky-$J12)*Kz*(Xdim-1)*(Ydim-1)),0)))))</f>
+        <v>22315008</v>
+      </c>
+      <c r="AB12" s="15">
+        <f>IF(Type="conv",Features*Xdim*Ydim,IF(Type="pool",Features*Xdim*Ydim,IF(Type="fully",Features*Xdim*Ydim,0)))</f>
+        <v>235520</v>
+      </c>
+      <c r="AJ12" s="72">
+        <f>E10</f>
+        <v>160</v>
+      </c>
+      <c r="AK12" s="72">
+        <f>F10</f>
+        <v>90</v>
+      </c>
+      <c r="AL12" s="72">
+        <f>G10</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D13" s="9"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="75"/>
+      <c r="X13" s="75"/>
+      <c r="Y13" s="16"/>
+      <c r="AA13" s="15"/>
+    </row>
+    <row r="14" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="3">
+        <f>IF($D14="conv",CEILING(E12/$J14,1),CEILING(E12/K14,1))</f>
+        <v>20</v>
+      </c>
+      <c r="F14" s="3">
+        <f>IF($D14="conv",CEILING(F12/$J14,1),CEILING(F12/L14,1))</f>
+        <v>12</v>
+      </c>
+      <c r="G14" s="4">
+        <v>256</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="72">
+        <v>2</v>
+      </c>
+      <c r="K14" s="2">
+        <v>2</v>
+      </c>
+      <c r="L14" s="4">
+        <v>2</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1</v>
+      </c>
+      <c r="N14" s="3">
+        <f>Kx*Ky*G12</f>
+        <v>1024</v>
+      </c>
+      <c r="O14" s="9">
+        <f>Xdim*Ydim*Features</f>
+        <v>61440</v>
+      </c>
+      <c r="Q14" s="9">
+        <f>Xdim*Ydim*Features</f>
+        <v>61440</v>
+      </c>
+      <c r="R14" s="2">
+        <f>Features</f>
+        <v>256</v>
+      </c>
+      <c r="S14" s="2"/>
+      <c r="T14" s="73">
+        <f>IF(Type="conv",Kx*Ky*G12*Features,(IF(Type="fully",E12*F12*G12*Xdim*Ydim*Features,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="58">
+        <f>IF(Type="Conv",Kx*Ky*Kz*Xdim*Ydim*Features,IF(Type="fully",Kx*Ky*G12*Xdim*Ydim,0))</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="58">
+        <f>IF(Type="conv",Kx*Ky*Kz*Xdim*Ydim*Features-1,IF(Type="fully",Kx*Ky*G12*Xdim*Ydim-1,(IF(Type="pool",Kx*Ky*Xdim*Ydim*Features,0))))</f>
+        <v>245760</v>
+      </c>
+      <c r="W14" s="75">
+        <f>IF(Type="pool",Kx*Ky,0)</f>
+        <v>4</v>
+      </c>
+      <c r="X14" s="75">
+        <f>U14+V14</f>
+        <v>245760</v>
+      </c>
+      <c r="Y14" s="16">
+        <f>(U14+V14+W14)</f>
+        <v>245764</v>
+      </c>
+      <c r="AA14" s="15">
+        <f>IF(Type="conv",Features*(Kx*Ky*Kz+Kx*Ky*Kz+(Kx-$J14)*(Ky-$J14)*Kz*(Xdim-1)*(Ydim-1)),IF(Type="pool",Kx*Ky*Xdim*Ydim*Features,IF(Type="fully",$E12*$F12*$G12*Xdim*Ydim*Features,(IF(Type="ae",Features*(Kx*Ky*Kz*Xdim*Ydim+Kx*Ky*Kz+(Kx-$J14)*(Ky-$J14)*Kz*(Xdim-1)*(Ydim-1)),0)))))</f>
+        <v>245760</v>
+      </c>
+      <c r="AB14" s="15">
+        <f>IF(Type="conv",Features*Xdim*Ydim,IF(Type="pool",Features*Xdim*Ydim,IF(Type="fully",Features*Xdim*Ydim,0)))</f>
+        <v>61440</v>
+      </c>
+      <c r="AJ14" s="72">
+        <f>E12</f>
+        <v>40</v>
+      </c>
+      <c r="AK14" s="72">
+        <f>F12</f>
+        <v>23</v>
+      </c>
+      <c r="AL14" s="72">
+        <f>G12</f>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D15" s="9"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="73"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="75"/>
+      <c r="X15" s="75"/>
+      <c r="Y15" s="16"/>
+      <c r="AA15" s="15"/>
+    </row>
+    <row r="16" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="3">
+        <f>IF($D16="conv",CEILING(E14/$J16,1),CEILING(E14/K16,1))</f>
+        <v>10</v>
+      </c>
+      <c r="F16" s="3">
+        <f>IF($D16="conv",CEILING(F14/$J16,1),CEILING(F14/L16,1))</f>
+        <v>6</v>
+      </c>
+      <c r="G16" s="4">
+        <v>384</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="72">
+        <v>2</v>
+      </c>
+      <c r="K16" s="2">
+        <v>3</v>
+      </c>
+      <c r="L16" s="4">
+        <v>3</v>
+      </c>
+      <c r="M16" s="3">
+        <f>FeaturesMinus1</f>
+        <v>256</v>
+      </c>
+      <c r="N16" s="3">
+        <f>Kx*Ky*G14</f>
+        <v>2304</v>
+      </c>
+      <c r="O16" s="9">
+        <f>Xdim*Ydim*Features</f>
+        <v>23040</v>
+      </c>
+      <c r="Q16" s="9">
+        <f>Xdim*Ydim*Features</f>
+        <v>23040</v>
+      </c>
+      <c r="R16" s="2">
+        <f>Features</f>
+        <v>384</v>
+      </c>
+      <c r="S16" s="2"/>
+      <c r="T16" s="73">
+        <f>IF(Type="conv",Kx*Ky*G14*Features,(IF(Type="fully",E14*F14*G14*Xdim*Ydim*Features,0)))</f>
+        <v>884736</v>
+      </c>
+      <c r="U16" s="58">
+        <f>IF(Type="Conv",Kx*Ky*Kz*Xdim*Ydim*Features,IF(Type="fully",Kx*Ky*G14*Xdim*Ydim,0))</f>
+        <v>53084160</v>
+      </c>
+      <c r="V16" s="58">
+        <f>IF(Type="conv",Kx*Ky*Kz*Xdim*Ydim*Features-1,IF(Type="fully",Kx*Ky*G14*Xdim*Ydim-1,(IF(Type="pool",Kx*Ky*Xdim*Ydim*Features,0))))</f>
+        <v>53084159</v>
+      </c>
+      <c r="W16" s="75">
+        <f>IF(Type="pool",Kx*Ky,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X16" s="75">
+        <f>U16+V16</f>
+        <v>106168319</v>
+      </c>
+      <c r="Y16" s="16">
+        <f>(U16+V16+W16)</f>
+        <v>106168319</v>
+      </c>
+      <c r="AA16" s="15">
+        <f>IF(Type="conv",Features*(Kx*Ky*Kz+Kx*Ky*Kz+(Kx-$J16)*(Ky-$J16)*Kz*(Xdim-1)*(Ydim-1)),IF(Type="pool",Kx*Ky*Xdim*Ydim*Features,IF(Type="fully",$E14*$F14*$G14*Xdim*Ydim*Features,(IF(Type="ae",Features*(Kx*Ky*Kz*Xdim*Ydim+Kx*Ky*Kz+(Kx-$J16)*(Ky-$J16)*Kz*(Xdim-1)*(Ydim-1)),0)))))</f>
+        <v>6193152</v>
+      </c>
+      <c r="AB16" s="15">
+        <f>IF(Type="conv",Features*Xdim*Ydim,IF(Type="pool",Features*Xdim*Ydim,IF(Type="fully",Features*Xdim*Ydim,0)))</f>
+        <v>23040</v>
+      </c>
+      <c r="AJ16" s="72">
+        <f>E14</f>
+        <v>20</v>
+      </c>
+      <c r="AK16" s="72">
+        <f>F14</f>
+        <v>12</v>
+      </c>
+      <c r="AL16" s="72">
+        <f>G14</f>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D17" s="9"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="73"/>
+      <c r="U17" s="58"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="75"/>
+      <c r="X17" s="75"/>
+      <c r="Y17" s="16"/>
+      <c r="AA17" s="15"/>
+    </row>
+    <row r="18" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4096</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="K18" s="2">
+        <f>E16</f>
+        <v>10</v>
+      </c>
+      <c r="L18" s="4">
+        <f>F16</f>
+        <v>6</v>
+      </c>
+      <c r="M18" s="3">
+        <f>FeaturesMinus1</f>
+        <v>384</v>
+      </c>
+      <c r="N18" s="3">
+        <f>Kx*Ky*G16</f>
+        <v>23040</v>
+      </c>
+      <c r="O18" s="9">
+        <f>Xdim*Ydim*Features</f>
+        <v>4096</v>
+      </c>
+      <c r="Q18" s="9">
+        <f>Xdim*Ydim*Features</f>
+        <v>4096</v>
+      </c>
+      <c r="R18" s="2">
+        <f>Features</f>
+        <v>1</v>
+      </c>
+      <c r="S18" s="2"/>
+      <c r="T18" s="73">
+        <f>IF(Type="conv",Kx*Ky*G16*Features,(IF(Type="fully",E16*F16*G16*Xdim*Ydim*Features,0)))</f>
+        <v>94371840</v>
+      </c>
+      <c r="U18" s="58">
+        <f>IF(Type="Conv",Kx*Ky*Kz*Xdim*Ydim*Features,IF(Type="fully",Kx*Ky*G16*Xdim*Ydim,0))</f>
+        <v>94371840</v>
+      </c>
+      <c r="V18" s="58">
+        <f>IF(Type="conv",Kx*Ky*Kz*Xdim*Ydim*Features-1,IF(Type="fully",Kx*Ky*G16*Xdim*Ydim-1,(IF(Type="pool",Kx*Ky*Xdim*Ydim*Features,0))))</f>
+        <v>94371839</v>
+      </c>
+      <c r="W18" s="75">
+        <f>IF(Type="pool",Kx*Ky,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X18" s="75">
+        <f>U18+V18</f>
+        <v>188743679</v>
+      </c>
+      <c r="Y18" s="16">
+        <f>(U18+V18+W18)</f>
+        <v>188743679</v>
+      </c>
+      <c r="AA18" s="15">
+        <f>IF(Type="conv",Features*(Kx*Ky*Kz+Kx*Ky*Kz+(Kx-$J18)*(Ky-$J18)*Kz*(Xdim-1)*(Ydim-1)),IF(Type="pool",Kx*Ky*Xdim*Ydim*Features,IF(Type="fully",$E16*$F16*$G16*Xdim*Ydim*Features,(IF(Type="ae",Features*(Kx*Ky*Kz*Xdim*Ydim+Kx*Ky*Kz+(Kx-$J18)*(Ky-$J18)*Kz*(Xdim-1)*(Ydim-1)),0)))))</f>
+        <v>94371840</v>
+      </c>
+      <c r="AB18" s="15">
+        <f>IF(Type="conv",Features*Xdim*Ydim,IF(Type="pool",Features*Xdim*Ydim,IF(Type="fully",Features*Xdim*Ydim,0)))</f>
+        <v>4096</v>
+      </c>
+      <c r="AJ18" s="72">
+        <f>E16</f>
+        <v>10</v>
+      </c>
+      <c r="AK18" s="72">
+        <f>F16</f>
+        <v>6</v>
+      </c>
+      <c r="AL18" s="72">
+        <f>G16</f>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="19" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D19" s="9"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="73"/>
+      <c r="U19" s="58"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="75"/>
+      <c r="X19" s="75"/>
+      <c r="Y19" s="16"/>
+      <c r="AA19" s="15"/>
+    </row>
+    <row r="20" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>4096</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+      <c r="L20" s="4">
+        <v>4096</v>
+      </c>
+      <c r="M20" s="3">
+        <f>FeaturesMinus1</f>
+        <v>1</v>
+      </c>
+      <c r="N20" s="3">
+        <f>Kx*Ky*G18</f>
+        <v>4096</v>
+      </c>
+      <c r="O20" s="9">
+        <f>Xdim*Ydim*Features</f>
+        <v>4096</v>
+      </c>
+      <c r="Q20" s="9">
+        <f>Xdim*Ydim*Features</f>
+        <v>4096</v>
+      </c>
+      <c r="R20" s="2">
+        <f>Features</f>
+        <v>1</v>
+      </c>
+      <c r="S20" s="2"/>
+      <c r="T20" s="73">
+        <f>IF(Type="conv",Kx*Ky*G18*Features,(IF(Type="fully",E18*F18*G18*Xdim*Ydim*Features,0)))</f>
+        <v>16777216</v>
+      </c>
+      <c r="U20" s="58">
+        <f>IF(Type="Conv",Kx*Ky*Kz*Xdim*Ydim*Features,IF(Type="fully",Kx*Ky*G18*Xdim*Ydim,0))</f>
+        <v>16777216</v>
+      </c>
+      <c r="V20" s="58">
+        <f>IF(Type="conv",Kx*Ky*Kz*Xdim*Ydim*Features-1,IF(Type="fully",Kx*Ky*G18*Xdim*Ydim-1,(IF(Type="pool",Kx*Ky*Xdim*Ydim*Features,0))))</f>
+        <v>16777215</v>
+      </c>
+      <c r="W20" s="75">
+        <f>IF(Type="pool",Kx*Ky,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X20" s="75">
+        <f>U20+V20</f>
+        <v>33554431</v>
+      </c>
+      <c r="Y20" s="16">
+        <f>(U20+V20+W20)</f>
+        <v>33554431</v>
+      </c>
+      <c r="AA20" s="15">
+        <f>IF(Type="conv",Features*(Kx*Ky*Kz+Kx*Ky*Kz+(Kx-$J20)*(Ky-$J20)*Kz*(Xdim-1)*(Ydim-1)),IF(Type="pool",Kx*Ky*Xdim*Ydim*Features,IF(Type="fully",$E18*$F18*$G18*Xdim*Ydim*Features,(IF(Type="ae",Features*(Kx*Ky*Kz*Xdim*Ydim+Kx*Ky*Kz+(Kx-$J20)*(Ky-$J20)*Kz*(Xdim-1)*(Ydim-1)),0)))))</f>
+        <v>16777216</v>
+      </c>
+      <c r="AB20" s="15">
+        <f>IF(Type="conv",Features*Xdim*Ydim,IF(Type="pool",Features*Xdim*Ydim,IF(Type="fully",Features*Xdim*Ydim,0)))</f>
+        <v>4096</v>
+      </c>
+      <c r="AJ20" s="72">
+        <f>E18</f>
+        <v>1</v>
+      </c>
+      <c r="AK20" s="72">
+        <f>F18</f>
+        <v>4096</v>
+      </c>
+      <c r="AL20" s="72">
+        <f>G18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D21" s="9"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="73"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="58"/>
+      <c r="W21" s="75"/>
+      <c r="X21" s="75"/>
+      <c r="Y21" s="16"/>
+      <c r="AA21" s="15"/>
+    </row>
+    <row r="22" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="D22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1000</v>
+      </c>
+      <c r="G22" s="7">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="K22" s="5">
+        <v>1</v>
+      </c>
+      <c r="L22" s="7">
+        <v>4096</v>
+      </c>
+      <c r="M22" s="3">
+        <f>FeaturesMinus1</f>
+        <v>1</v>
+      </c>
+      <c r="N22" s="3">
+        <f>Kx*Ky*G20</f>
+        <v>4096</v>
+      </c>
+      <c r="O22" s="9">
+        <f>Xdim*Ydim*Features</f>
+        <v>1000</v>
+      </c>
+      <c r="Q22" s="9">
+        <f>Xdim*Ydim*Features</f>
+        <v>1000</v>
+      </c>
+      <c r="R22" s="2">
+        <f>Features</f>
+        <v>1</v>
+      </c>
+      <c r="S22" s="2"/>
+      <c r="T22" s="73">
+        <f>IF(Type="conv",Kx*Ky*G20*Features,(IF(Type="fully",E20*F20*G20*Xdim*Ydim*Features,0)))</f>
+        <v>4096000</v>
+      </c>
+      <c r="U22" s="58">
+        <f>IF(Type="Conv",Kx*Ky*Kz*Xdim*Ydim*Features,IF(Type="fully",Kx*Ky*G20*Xdim*Ydim,0))</f>
+        <v>4096000</v>
+      </c>
+      <c r="V22" s="58">
+        <f>IF(Type="conv",Kx*Ky*Kz*Xdim*Ydim*Features-1,IF(Type="fully",Kx*Ky*G20*Xdim*Ydim-1,(IF(Type="pool",Kx*Ky*Xdim*Ydim*Features,0))))</f>
+        <v>4095999</v>
+      </c>
+      <c r="W22" s="75">
+        <f>IF(Type="pool",Kx*Ky,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X22" s="75">
+        <f>U22+V22</f>
+        <v>8191999</v>
+      </c>
+      <c r="Y22" s="16">
+        <f>(U22+V22+W22)</f>
+        <v>8191999</v>
+      </c>
+      <c r="AA22" s="15">
+        <f>IF(Type="conv",Features*(Kx*Ky*Kz+Kx*Ky*Kz+(Kx-$J22)*(Ky-$J22)*Kz*(Xdim-1)*(Ydim-1)),IF(Type="pool",Kx*Ky*Xdim*Ydim*Features,IF(Type="fully",$E20*$F20*$G20*Xdim*Ydim*Features,(IF(Type="ae",Features*(Kx*Ky*Kz*Xdim*Ydim+Kx*Ky*Kz+(Kx-$J22)*(Ky-$J22)*Kz*(Xdim-1)*(Ydim-1)),0)))))</f>
+        <v>4096000</v>
+      </c>
+      <c r="AB22" s="15">
+        <f>IF(Type="conv",Features*Xdim*Ydim,IF(Type="pool",Features*Xdim*Ydim,IF(Type="fully",Features*Xdim*Ydim,0)))</f>
+        <v>1000</v>
+      </c>
+      <c r="AJ22" s="72">
+        <f>E20</f>
+        <v>1</v>
+      </c>
+      <c r="AK22" s="72">
+        <f>F20</f>
+        <v>4096</v>
+      </c>
+      <c r="AL22" s="72">
+        <f>G20</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="Y23" s="15"/>
+      <c r="AA23" s="15"/>
+    </row>
+    <row r="24" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="P24" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q24" s="24">
+        <f>SUM(Q8:Q22)</f>
+        <v>7241192</v>
+      </c>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="Y24" s="15"/>
+    </row>
+    <row r="25" spans="4:38" ht="48" x14ac:dyDescent="0.2">
+      <c r="L25" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="N25" s="72">
+        <f>(SUM(N8:N22)-N18)/10</f>
+        <v>1466.7</v>
+      </c>
+      <c r="Q25" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+    </row>
+    <row r="26" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+    </row>
+    <row r="27" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+    </row>
+    <row r="28" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+    </row>
+    <row r="29" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="15"/>
+      <c r="AE29" s="87" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF29" s="87"/>
+      <c r="AG29" s="87"/>
+      <c r="AH29" s="87"/>
+      <c r="AI29" s="87"/>
+    </row>
+    <row r="30" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="W30" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="X30" s="70"/>
+      <c r="Y30" s="18">
+        <f>SUM(Y8:Y22)</f>
+        <v>5487419394</v>
+      </c>
+      <c r="Z30" s="15"/>
+      <c r="AE30" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF30" s="15"/>
+      <c r="AG30" s="15">
+        <v>5488863226</v>
+      </c>
+      <c r="AH30" s="15"/>
+      <c r="AI30" s="15"/>
+    </row>
+    <row r="31" spans="4:38" x14ac:dyDescent="0.2">
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="58"/>
+      <c r="Z31" s="15"/>
+      <c r="AE31" s="15"/>
+      <c r="AF31" s="15"/>
+      <c r="AG31" s="15"/>
+      <c r="AH31" s="15"/>
+      <c r="AI31" s="15"/>
+    </row>
+    <row r="32" spans="4:38" ht="32" x14ac:dyDescent="0.2">
+      <c r="O32" s="86" t="s">
+        <v>164</v>
+      </c>
+      <c r="P32" s="86"/>
+      <c r="W32" s="72" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="15">
+        <f>SUM(AB8:AB22)</f>
+        <v>7241192</v>
+      </c>
+      <c r="AE32" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF32" s="15"/>
+      <c r="AG32" s="15"/>
+      <c r="AH32" s="15">
+        <v>7241192</v>
+      </c>
+      <c r="AI32" s="15"/>
+    </row>
+    <row r="33" spans="15:35" x14ac:dyDescent="0.2">
+      <c r="O33" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="P33" s="72">
+        <v>16</v>
+      </c>
+      <c r="W33" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y33" s="15"/>
+      <c r="Z33" s="15">
+        <f>SUM(AA8:AA22)</f>
+        <v>955407584</v>
+      </c>
+      <c r="AE33" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF33" s="15"/>
+      <c r="AG33" s="15"/>
+      <c r="AH33" s="15">
+        <v>955407584</v>
+      </c>
+      <c r="AI33" s="15"/>
+    </row>
+    <row r="34" spans="15:35" ht="48" x14ac:dyDescent="0.2">
+      <c r="O34" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="P34" s="72">
+        <v>32</v>
+      </c>
+      <c r="R34" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="T34" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="U34" s="72">
+        <f>VLOOKUP(T34,O33:P37,2,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="W34" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="X34" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="15"/>
+      <c r="AE34" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF34" s="15">
+        <v>1</v>
+      </c>
+      <c r="AG34" s="15"/>
+      <c r="AH34" s="15"/>
+      <c r="AI34" s="15"/>
+    </row>
+    <row r="35" spans="15:35" x14ac:dyDescent="0.2">
+      <c r="W35" s="72" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y35" s="15"/>
+      <c r="Z35" s="15">
+        <f>X34*Z32</f>
+        <v>7241192</v>
+      </c>
+      <c r="AE35" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF35" s="15"/>
+      <c r="AG35" s="15"/>
+      <c r="AH35" s="15">
+        <v>7241192</v>
+      </c>
+      <c r="AI35" s="15"/>
+    </row>
+    <row r="36" spans="15:35" x14ac:dyDescent="0.2">
+      <c r="W36" s="72" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y36" s="15"/>
+      <c r="Z36" s="15">
+        <f>Z33*X34</f>
+        <v>955407584</v>
+      </c>
+      <c r="AA36" s="22">
+        <f>(32+1)/64</f>
+        <v>0.515625</v>
+      </c>
+      <c r="AE36" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF36" s="15"/>
+      <c r="AG36" s="15"/>
+      <c r="AH36" s="15">
+        <v>955407584</v>
+      </c>
+      <c r="AI36" s="15"/>
+    </row>
+    <row r="37" spans="15:35" ht="32" x14ac:dyDescent="0.2">
+      <c r="T37" s="72" t="s">
+        <v>161</v>
+      </c>
+      <c r="U37" s="72">
+        <v>30</v>
+      </c>
+      <c r="W37" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="X37" s="15">
+        <f>1/U37</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="Y37" s="15"/>
+      <c r="AE37" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF37" s="15">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="AG37" s="15"/>
+      <c r="AH37" s="15"/>
+      <c r="AI37" s="15"/>
+    </row>
+    <row r="38" spans="15:35" ht="48" x14ac:dyDescent="0.2">
+      <c r="W38" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y38" s="15"/>
+      <c r="Z38" s="32">
+        <f>Z36*U34/X37</f>
+        <v>458595640320</v>
+      </c>
+      <c r="AB38" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE38" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF38" s="15"/>
+      <c r="AG38" s="15"/>
+      <c r="AH38" s="15">
+        <v>458595640320</v>
+      </c>
+      <c r="AI38" s="15">
+        <v>0.515625</v>
+      </c>
+    </row>
+    <row r="39" spans="15:35" x14ac:dyDescent="0.2">
+      <c r="AE39" s="15"/>
+      <c r="AF39" s="15"/>
+      <c r="AG39" s="15"/>
+      <c r="AH39" s="15"/>
+      <c r="AI39" s="15"/>
+    </row>
+    <row r="40" spans="15:35" ht="32" x14ac:dyDescent="0.2">
+      <c r="W40" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y40" s="15">
+        <f>Y30*X34/X37</f>
+        <v>164622581820</v>
+      </c>
+      <c r="AE40" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF40" s="15"/>
+      <c r="AG40" s="15">
+        <v>164665896780</v>
+      </c>
+      <c r="AH40" s="15"/>
+      <c r="AI40" s="15"/>
+    </row>
+    <row r="41" spans="15:35" x14ac:dyDescent="0.2">
+      <c r="AE41" s="15"/>
+      <c r="AF41" s="15"/>
+      <c r="AG41" s="15"/>
+      <c r="AH41" s="15"/>
+      <c r="AI41" s="15"/>
+    </row>
+    <row r="42" spans="15:35" x14ac:dyDescent="0.2">
+      <c r="W42" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y42" s="15">
+        <f>SUM(T8:T22)*U34+SUM(Q6:Q22)*U34</f>
+        <v>2028560512</v>
+      </c>
+      <c r="AE42" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF42" s="15"/>
+      <c r="AG42" s="15">
+        <v>2028560512</v>
+      </c>
+      <c r="AH42" s="15"/>
+      <c r="AI42" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="AJ4:AL4"/>
+    <mergeCell ref="AE29:AI29"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
 </file>